--- a/oniaAssymetry/macros/v2_systematics.xlsx
+++ b/oniaAssymetry/macros/v2_systematics.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="240" windowWidth="24200" windowHeight="15380" tabRatio="620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="defaultFit" sheetId="4" r:id="rId1"/>
     <sheet name="fitSystematic" sheetId="10" r:id="rId2"/>
     <sheet name="trgBiassing" sheetId="6" r:id="rId3"/>
-    <sheet name="epSystematic" sheetId="9" r:id="rId4"/>
-    <sheet name="zVtx_cut_10cm" sheetId="7" r:id="rId5"/>
-    <sheet name="nbkg_defaultFit" sheetId="5" r:id="rId6"/>
-    <sheet name="NcollNpart" sheetId="2" r:id="rId7"/>
-    <sheet name="ep_CorrectionFactors" sheetId="3" r:id="rId8"/>
+    <sheet name="epSystematic" sheetId="11" r:id="rId4"/>
+    <sheet name="autoCor" sheetId="9" r:id="rId5"/>
+    <sheet name="zVtx_cut_10cm" sheetId="7" r:id="rId6"/>
+    <sheet name="nbkg_defaultFit" sheetId="5" r:id="rId7"/>
+    <sheet name="NcollNpart" sheetId="2" r:id="rId8"/>
+    <sheet name="ep_CorrectionFactors" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="Cent" localSheetId="4">#REF!</definedName>
     <definedName name="Cent" localSheetId="3">#REF!</definedName>
     <definedName name="Cent" localSheetId="1">#REF!</definedName>
     <definedName name="Cent">#REF!</definedName>
+    <definedName name="ep23_corr" localSheetId="4">#REF!</definedName>
     <definedName name="ep23_corr" localSheetId="3">#REF!</definedName>
     <definedName name="ep23_corr" localSheetId="1">#REF!</definedName>
     <definedName name="ep23_corr">#REF!</definedName>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="76">
   <si>
     <t>5..10</t>
   </si>
@@ -260,6 +263,9 @@
   <si>
     <t>1.2-1.6</t>
   </si>
+  <si>
+    <t>Auto Correlation</t>
+  </si>
 </sst>
 </file>
 
@@ -270,12 +276,13 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,11 +306,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="14"/>
@@ -406,7 +408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="283">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -690,8 +692,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -709,44 +741,43 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="283">
+  <cellStyles count="313">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -888,6 +919,21 @@
     <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1029,6 +1075,21 @@
     <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1362,7 +1423,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8:C25"/>
+      <selection pane="topRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1417,17 +1478,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -1469,14 +1530,14 @@
         <v>1.1228410929863175</v>
       </c>
       <c r="O4" s="12"/>
-      <c r="P4" s="41">
+      <c r="P4" s="39">
         <f t="shared" ref="P4:P25" si="1" xml:space="preserve"> N4/ABS(M4)</f>
         <v>0.70711078123458027</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
@@ -1518,14 +1579,14 @@
         <v>2.1088112468274793E-2</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="41">
+      <c r="P5" s="39">
         <f t="shared" si="1"/>
         <v>0.81777289905529849</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1567,14 +1628,14 @@
         <v>1.6407738350840539E-2</v>
       </c>
       <c r="O6" s="12"/>
-      <c r="P6" s="41">
+      <c r="P6" s="39">
         <f t="shared" si="1"/>
         <v>0.20916885234551166</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,31 +1677,31 @@
         <v>2.3397734335180977E-2</v>
       </c>
       <c r="O7" s="12"/>
-      <c r="P7" s="41">
+      <c r="P7" s="39">
         <f t="shared" si="1"/>
         <v>0.75127396887336206</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1">
-      <c r="A8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="46"/>
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="45">
+      <c r="H8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
@@ -1651,21 +1712,21 @@
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="5">
         <v>6.8509399999999998E-3</v>
       </c>
       <c r="G9" s="5">
         <v>2.7751000000000001E-2</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5">
         <v>4.5821899999999999E-2</v>
       </c>
@@ -1686,21 +1747,21 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="5">
         <v>6.3266100000000006E-2</v>
       </c>
       <c r="G10" s="5">
         <v>2.6450499999999998E-2</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5">
         <v>0.10610899999999999</v>
       </c>
@@ -1721,14 +1782,14 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1">
-      <c r="A11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="M11" s="5"/>
@@ -1736,14 +1797,14 @@
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1">
-      <c r="A12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="M12" s="5"/>
@@ -1751,14 +1812,14 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1">
-      <c r="A13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="M13" s="5"/>
@@ -1766,21 +1827,21 @@
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="5">
         <v>7.7430600000000002E-2</v>
       </c>
       <c r="G14" s="5">
         <v>2.37488E-2</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="5">
         <v>-1.2886999999999999E-2</v>
       </c>
@@ -1801,16 +1862,16 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="M15" s="7"/>
@@ -1818,14 +1879,14 @@
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1">
-      <c r="A16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="M16" s="7"/>
@@ -1833,14 +1894,14 @@
       <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1">
-      <c r="A17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="M17" s="7"/>
@@ -1848,14 +1909,14 @@
       <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1">
-      <c r="A18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="M18" s="7"/>
@@ -1863,21 +1924,21 @@
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="21">
         <v>7.3419700000000004E-2</v>
       </c>
       <c r="G19" s="21">
         <v>2.0840999999999998E-2</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="21">
         <v>4.3142699999999999E-2</v>
       </c>
@@ -1898,23 +1959,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="8">
         <v>6.48228E-2</v>
       </c>
       <c r="G20" s="8">
         <v>2.7959700000000001E-2</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="8">
         <v>6.7467399999999997E-2</v>
       </c>
@@ -1935,14 +1996,14 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1">
-      <c r="A21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="M21" s="8"/>
@@ -1950,14 +2011,14 @@
       <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1">
-      <c r="A22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="A22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="M22" s="8"/>
@@ -1965,14 +2026,14 @@
       <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1">
-      <c r="A23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="M23" s="8"/>
@@ -1980,14 +2041,14 @@
       <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1">
-      <c r="A24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="M24" s="8"/>
@@ -1995,21 +2056,21 @@
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="8">
         <v>4.7192499999999998E-2</v>
       </c>
       <c r="G25" s="8">
         <v>2.93432E-2</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="8">
         <v>7.8722500000000001E-2</v>
       </c>
@@ -2076,7 +2137,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26:N26"/>
+      <selection pane="topRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2200,17 +2261,17 @@
       </c>
     </row>
     <row r="3" spans="1:34" s="2" customFormat="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="AG3" s="13"/>
     </row>
     <row r="4" spans="1:34" s="2" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -2255,12 +2316,12 @@
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
-      <c r="AG4" s="41"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="12"/>
     </row>
     <row r="5" spans="1:34" s="2" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
@@ -2356,7 +2417,7 @@
         <f xml:space="preserve"> ABS(AA5-defaultFit!M5)</f>
         <v>1.5935022988821518E-4</v>
       </c>
-      <c r="AG5" s="41">
+      <c r="AG5" s="39">
         <f xml:space="preserve"> SQRT((AD5*AD5+AE5*AE5+AF5*AF5)/3)/ABS(defaultFit!M5)</f>
         <v>4.1253843692411668E-2</v>
       </c>
@@ -2366,8 +2427,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" s="2" customFormat="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -2463,7 +2524,7 @@
         <f xml:space="preserve"> ABS(AA6-defaultFit!M6)</f>
         <v>9.4349642575514148E-5</v>
       </c>
-      <c r="AG6" s="41">
+      <c r="AG6" s="39">
         <f xml:space="preserve"> SQRT((AD6*AD6+AE6*AE6+AF6*AF6)/3)/ABS(defaultFit!M6)</f>
         <v>1.5481299519674303E-3</v>
       </c>
@@ -2473,8 +2534,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" s="2" customFormat="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,7 +2631,7 @@
         <f xml:space="preserve"> ABS(AA7-defaultFit!M7)</f>
         <v>1.2062211664999531E-3</v>
       </c>
-      <c r="AG7" s="41">
+      <c r="AG7" s="39">
         <f xml:space="preserve"> SQRT((AD7*AD7+AE7*AE7+AF7*AF7)/3)/ABS(defaultFit!M7)</f>
         <v>4.2719746426393777E-2</v>
       </c>
@@ -2580,25 +2641,25 @@
       </c>
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1">
-      <c r="A8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="46"/>
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="45">
+      <c r="H8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
@@ -2625,21 +2686,21 @@
       <c r="AH8" s="5"/>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="5">
         <v>6.8509399999999998E-3</v>
       </c>
       <c r="G9" s="5">
         <v>2.7708300000000002E-2</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5">
         <v>4.5919399999999999E-2</v>
       </c>
@@ -2716,21 +2777,21 @@
       </c>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="5">
         <v>6.3537899999999994E-2</v>
       </c>
       <c r="G10" s="5">
         <v>2.6428199999999999E-2</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5">
         <v>0.105889</v>
       </c>
@@ -2807,14 +2868,14 @@
       </c>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1">
-      <c r="A11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="M11" s="5"/>
@@ -2838,14 +2899,14 @@
       <c r="AH11" s="5"/>
     </row>
     <row r="12" spans="1:34" s="2" customFormat="1">
-      <c r="A12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="M12" s="5"/>
@@ -2869,14 +2930,14 @@
       <c r="AH12" s="5"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1">
-      <c r="A13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="M13" s="5"/>
@@ -2900,21 +2961,21 @@
       <c r="AH13" s="5"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="5">
         <v>7.8154500000000002E-2</v>
       </c>
       <c r="G14" s="5">
         <v>2.3742699999999999E-2</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="5">
         <v>-1.29914E-2</v>
       </c>
@@ -2991,16 +3052,16 @@
       </c>
     </row>
     <row r="15" spans="1:34" s="2" customFormat="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="M15" s="7"/>
@@ -3025,14 +3086,14 @@
       <c r="AH15" s="7"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1">
-      <c r="A16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="M16" s="7"/>
@@ -3057,14 +3118,14 @@
       <c r="AH16" s="7"/>
     </row>
     <row r="17" spans="1:34" s="2" customFormat="1">
-      <c r="A17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="M17" s="7"/>
@@ -3089,14 +3150,14 @@
       <c r="AH17" s="7"/>
     </row>
     <row r="18" spans="1:34" s="2" customFormat="1">
-      <c r="A18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="M18" s="7"/>
@@ -3121,21 +3182,21 @@
       <c r="AH18" s="7"/>
     </row>
     <row r="19" spans="1:34" s="2" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="7">
         <v>6.72875E-2</v>
       </c>
       <c r="G19" s="7">
         <v>2.9960000000000001E-2</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="7">
         <v>1.52245E-2</v>
       </c>
@@ -3213,23 +3274,23 @@
       </c>
     </row>
     <row r="20" spans="1:34" s="2" customFormat="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="12">
         <v>6.2958100000000003E-2</v>
       </c>
       <c r="G20" s="12">
         <v>2.79394E-2</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="8">
         <v>6.7686700000000002E-2</v>
       </c>
@@ -3307,14 +3368,14 @@
       </c>
     </row>
     <row r="21" spans="1:34" s="2" customFormat="1">
-      <c r="A21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="M21" s="8"/>
@@ -3339,14 +3400,14 @@
       <c r="AH21" s="8"/>
     </row>
     <row r="22" spans="1:34" s="2" customFormat="1">
-      <c r="A22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="A22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="M22" s="8"/>
@@ -3371,14 +3432,14 @@
       <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:34" s="2" customFormat="1">
-      <c r="A23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="M23" s="8"/>
@@ -3403,14 +3464,14 @@
       <c r="AH23" s="8"/>
     </row>
     <row r="24" spans="1:34" s="2" customFormat="1">
-      <c r="A24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="M24" s="8"/>
@@ -3435,21 +3496,21 @@
       <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="1:34" s="2" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="12">
         <v>5.2034799999999999E-2</v>
       </c>
       <c r="G25" s="12">
         <v>5.9433399999999997E-2</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="8">
         <v>-1.5473199999999999E-2</v>
       </c>
@@ -3526,89 +3587,89 @@
         <v>4.2869939867344109E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="47" customFormat="1">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:34" s="43" customFormat="1">
+      <c r="A26" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="43">
         <v>1</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="43">
         <v>1</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="43">
         <v>1</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="43">
         <v>1</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
         <v>1.2750075418699818</v>
       </c>
-      <c r="N26" s="48">
+      <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
         <v>0.90156687218614606</v>
       </c>
-      <c r="P26" s="47">
+      <c r="P26" s="43">
         <v>1</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="Q26" s="43">
         <v>1</v>
       </c>
-      <c r="R26" s="47">
+      <c r="R26" s="43">
         <v>1</v>
       </c>
-      <c r="S26" s="47">
+      <c r="S26" s="43">
         <v>1</v>
       </c>
-      <c r="T26" s="48">
+      <c r="T26" s="44">
         <f>(P26/$D$26+R26/$H$26)/2</f>
         <v>1.2750075418699818</v>
       </c>
-      <c r="U26" s="48">
+      <c r="U26" s="44">
         <f>0.5*SQRT((P26/$D$26)^2*((Q26/P26)^2+($E$26/$D$26)^2)+(R26/$H$26)^2*((S26/R26)^2+($I$26/$H$26)^2))</f>
         <v>0.90156687218614606</v>
       </c>
-      <c r="W26" s="47">
+      <c r="W26" s="43">
         <v>1</v>
       </c>
-      <c r="X26" s="47">
+      <c r="X26" s="43">
         <v>1</v>
       </c>
-      <c r="Y26" s="47">
+      <c r="Y26" s="43">
         <v>1</v>
       </c>
-      <c r="Z26" s="47">
+      <c r="Z26" s="43">
         <v>1</v>
       </c>
-      <c r="AA26" s="48">
+      <c r="AA26" s="44">
         <f>(W26/$D$26+Y26/$H$26)/2</f>
         <v>1.2750075418699818</v>
       </c>
-      <c r="AB26" s="48">
+      <c r="AB26" s="44">
         <f>0.5*SQRT((W26/$D$26)^2*((X26/W26)^2+($E$26/$D$26)^2)+(Y26/$H$26)^2*((Z26/Y26)^2+($I$26/$H$26)^2))</f>
         <v>0.90156687218614606</v>
       </c>
@@ -3639,9 +3700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB26" sqref="AB26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3663,7 +3724,7 @@
         <v>72</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>49</v>
@@ -3804,17 +3865,17 @@
       </c>
     </row>
     <row r="3" spans="1:48" s="2" customFormat="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="AG3" s="13"/>
     </row>
     <row r="4" spans="1:48" s="2" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -3847,11 +3908,11 @@
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="L4" s="12"/>
-      <c r="M4" s="44">
+      <c r="M4" s="42">
         <f t="shared" ref="M4:M7" si="0">(F4/D4+J4/H4)/2</f>
         <v>3.6138517506358395E-2</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="42">
         <f>0.5*SQRT((F4/D4)^2*((G4/F4)^2+(E4/D4)^2)+(J4/H4)^2*((K4/J4)^2+(I4/H4)^2))</f>
         <v>2.6165739236978614E-2</v>
       </c>
@@ -3868,11 +3929,11 @@
       <c r="S4" s="12">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="T4" s="44">
+      <c r="T4" s="42">
         <f>(P4/D4+R4/H4)/2</f>
         <v>-2.3149424370371045E-2</v>
       </c>
-      <c r="U4" s="44">
+      <c r="U4" s="42">
         <f>0.5*SQRT((P4/$D4)^2*((Q4/P4)^2+($E4/$D4)^2)+(R4/$H4)^2*((S4/R4)^2+($I4/$H4)^2))</f>
         <v>3.5436911329515729E-2</v>
       </c>
@@ -3889,11 +3950,11 @@
       <c r="Z4" s="12">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="AA4" s="44">
+      <c r="AA4" s="42">
         <f t="shared" ref="AA4:AA7" si="1">(W4/D4+Y4/H4)/2</f>
         <v>9.7009827867776566E-2</v>
       </c>
-      <c r="AB4" s="44">
+      <c r="AB4" s="42">
         <f>0.5*SQRT((W4/$D4)^2*((X4/W4)^2+($E4/$D4)^2)+(Y4/$H4)^2*((Z4/Y4)^2+($I4/$H4)^2))</f>
         <v>3.8404407922721068E-2</v>
       </c>
@@ -3910,7 +3971,7 @@
         <f xml:space="preserve"> ABS(AA4-defaultFit!M4)</f>
         <v>1.4909182914375081</v>
       </c>
-      <c r="AG4" s="41">
+      <c r="AG4" s="39">
         <f xml:space="preserve"> SQRT((AD4*AD4+AE4*AE4+AF4*AF4)/3)/ABS(defaultFit!M4)</f>
         <v>0.97739769380666164</v>
       </c>
@@ -3962,8 +4023,8 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="2" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
@@ -3975,10 +4036,10 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N22</f>
         <v>1.4393284024155155E-3</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="40">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="40">
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="H5" s="3">
@@ -3989,60 +4050,60 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I22</f>
         <v>1.4375731285746823E-3</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="40">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="40">
         <v>2.4E-2</v>
       </c>
       <c r="L5" s="12"/>
-      <c r="M5" s="44">
+      <c r="M5" s="42">
         <f t="shared" si="0"/>
         <v>5.2810770075311056E-2</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="42">
         <f>0.5*SQRT((F5/D5)^2*((G5/F5)^2+(E5/D5)^2)+(J5/H5)^2*((K5/J5)^2+(I5/H5)^2))</f>
         <v>2.1455068455681809E-2</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="42">
+      <c r="P5" s="40">
         <v>-9.4999999999999998E-3</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="40">
         <v>3.44E-2</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="40">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="S5" s="12">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="T5" s="44">
+      <c r="T5" s="42">
         <f t="shared" ref="T5:T7" si="6">(P5/D5+R5/H5)/2</f>
         <v>4.4824741692532574E-3</v>
       </c>
-      <c r="U5" s="44">
+      <c r="U5" s="42">
         <f t="shared" ref="U5:U7" si="7">0.5*SQRT((P5/$D5)^2*((Q5/P5)^2+($E5/$D5)^2)+(R5/$H5)^2*((S5/R5)^2+($I5/$H5)^2))</f>
         <v>2.9164229695703411E-2</v>
       </c>
       <c r="V5" s="12"/>
-      <c r="W5" s="42">
+      <c r="W5" s="40">
         <v>0.11890000000000001</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="40">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="40">
         <v>6.3299999999999995E-2</v>
       </c>
       <c r="Z5" s="12">
         <v>3.49E-2</v>
       </c>
-      <c r="AA5" s="44">
+      <c r="AA5" s="42">
         <f t="shared" si="1"/>
         <v>0.11161502029627177</v>
       </c>
-      <c r="AB5" s="44">
+      <c r="AB5" s="42">
         <f t="shared" ref="AB5:AB7" si="8">0.5*SQRT((W5/$D5)^2*((X5/W5)^2+($E5/$D5)^2)+(Y5/$H5)^2*((Z5/Y5)^2+($I5/$H5)^2))</f>
         <v>3.1341770687332605E-2</v>
       </c>
@@ -4059,7 +4120,7 @@
         <f xml:space="preserve"> ABS(AA5-defaultFit!M5)</f>
         <v>8.5827772403077887E-2</v>
       </c>
-      <c r="AG5" s="41">
+      <c r="AG5" s="39">
         <f xml:space="preserve"> SQRT((AD5*AD5+AE5*AE5+AF5*AF5)/3)/ABS(defaultFit!M5)</f>
         <v>2.0702935417762043</v>
       </c>
@@ -4068,16 +4129,16 @@
         <v>5.3387172773461312E-2</v>
       </c>
       <c r="AI5" s="12"/>
-      <c r="AJ5" s="42">
+      <c r="AJ5" s="40">
         <v>1.9904100000000002E-3</v>
       </c>
-      <c r="AK5" s="42">
+      <c r="AK5" s="40">
         <v>5.51783E-2</v>
       </c>
-      <c r="AL5" s="42">
+      <c r="AL5" s="40">
         <v>-1.31883E-3</v>
       </c>
-      <c r="AM5" s="42">
+      <c r="AM5" s="40">
         <v>4.6795099999999999E-2</v>
       </c>
       <c r="AN5" s="12">
@@ -4089,16 +4150,16 @@
         <v>4.432471741173883E-2</v>
       </c>
       <c r="AP5" s="12"/>
-      <c r="AQ5" s="42">
+      <c r="AQ5" s="40">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="AR5" s="42">
+      <c r="AR5" s="40">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="AS5" s="42">
+      <c r="AS5" s="40">
         <v>-3.3300000000000003E-2</v>
       </c>
-      <c r="AT5" s="42">
+      <c r="AT5" s="40">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AU5" s="12">
@@ -4111,8 +4172,8 @@
       </c>
     </row>
     <row r="6" spans="1:48" s="2" customFormat="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4124,10 +4185,10 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N23</f>
         <v>1.4336820602909141E-3</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="40">
         <v>5.11E-2</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="40">
         <v>2.75E-2</v>
       </c>
       <c r="H6" s="3">
@@ -4138,60 +4199,60 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I23</f>
         <v>1.4379333259925511E-3</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="40">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="40">
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="L6" s="12"/>
-      <c r="M6" s="44">
+      <c r="M6" s="42">
         <f t="shared" si="0"/>
         <v>5.5996459252022443E-2</v>
       </c>
-      <c r="N6" s="44">
+      <c r="N6" s="42">
         <f>0.5*SQRT((F6/D6)^2*((G6/F6)^2+(E6/D6)^2)+(J6/H6)^2*((K6/J6)^2+(I6/H6)^2))</f>
         <v>2.3785437792073299E-2</v>
       </c>
       <c r="O6" s="12"/>
-      <c r="P6" s="42">
+      <c r="P6" s="40">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="40">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="40">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="40">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="T6" s="44">
+      <c r="T6" s="42">
         <f t="shared" si="6"/>
         <v>3.7967190815280452E-2</v>
       </c>
-      <c r="U6" s="44">
+      <c r="U6" s="42">
         <f t="shared" si="7"/>
         <v>3.3647394182505709E-2</v>
       </c>
       <c r="V6" s="12"/>
-      <c r="W6" s="42">
+      <c r="W6" s="40">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="40">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="Y6" s="42">
+      <c r="Y6" s="40">
         <v>7.5399999999999995E-2</v>
       </c>
-      <c r="Z6" s="42">
+      <c r="Z6" s="40">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="AA6" s="44">
+      <c r="AA6" s="42">
         <f t="shared" si="1"/>
         <v>6.9794814717108883E-2</v>
       </c>
-      <c r="AB6" s="44">
+      <c r="AB6" s="42">
         <f t="shared" si="8"/>
         <v>3.3815356713500049E-2</v>
       </c>
@@ -4208,7 +4269,7 @@
         <f xml:space="preserve"> ABS(AA6-defaultFit!M6)</f>
         <v>8.6477362021729343E-3</v>
       </c>
-      <c r="AG6" s="41">
+      <c r="AG6" s="39">
         <f xml:space="preserve"> SQRT((AD6*AD6+AE6*AE6+AF6*AF6)/3)/ABS(defaultFit!M6)</f>
         <v>0.34654313684526056</v>
       </c>
@@ -4217,16 +4278,16 @@
         <v>2.7183727657711997E-2</v>
       </c>
       <c r="AI6" s="12"/>
-      <c r="AJ6" s="42">
+      <c r="AJ6" s="40">
         <v>1.7029099999999998E-2</v>
       </c>
-      <c r="AK6" s="42">
+      <c r="AK6" s="40">
         <v>4.29031E-2</v>
       </c>
-      <c r="AL6" s="42">
+      <c r="AL6" s="40">
         <v>2.22119E-2</v>
       </c>
-      <c r="AM6" s="42">
+      <c r="AM6" s="40">
         <v>4.08134E-2</v>
       </c>
       <c r="AN6" s="12">
@@ -4238,16 +4299,16 @@
         <v>3.5310467145851614E-2</v>
       </c>
       <c r="AP6" s="12"/>
-      <c r="AQ6" s="42">
+      <c r="AQ6" s="40">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="AR6" s="42">
+      <c r="AR6" s="40">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="AS6" s="42">
+      <c r="AS6" s="40">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AT6" s="42">
+      <c r="AT6" s="40">
         <v>6.6900000000000001E-2</v>
       </c>
       <c r="AU6" s="12">
@@ -4260,8 +4321,8 @@
       </c>
     </row>
     <row r="7" spans="1:48" s="2" customFormat="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
@@ -4273,10 +4334,10 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N20</f>
         <v>8.7811908360996228E-4</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="40">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="40">
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="H7" s="3">
@@ -4287,60 +4348,60 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I20</f>
         <v>8.7917852282684886E-4</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="40">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="40">
         <v>2.2700000000000001E-2</v>
       </c>
       <c r="L7" s="12"/>
-      <c r="M7" s="44">
+      <c r="M7" s="42">
         <f t="shared" si="0"/>
         <v>4.075026727692882E-2</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="42">
         <f>0.5*SQRT((F7/D7)^2*((G7/F7)^2+(E7/D7)^2)+(J7/H7)^2*((K7/J7)^2+(I7/H7)^2))</f>
         <v>2.198904034604043E-2</v>
       </c>
       <c r="O7" s="12"/>
-      <c r="P7" s="42">
+      <c r="P7" s="40">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="40">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="40">
         <v>1E-3</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="40">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="T7" s="44">
+      <c r="T7" s="42">
         <f t="shared" si="6"/>
         <v>4.3381303671748264E-2</v>
       </c>
-      <c r="U7" s="44">
+      <c r="U7" s="42">
         <f t="shared" si="7"/>
         <v>2.9666000911321443E-2</v>
       </c>
       <c r="V7" s="12"/>
-      <c r="W7" s="42">
+      <c r="W7" s="40">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="X7" s="42">
+      <c r="X7" s="40">
         <v>3.56E-2</v>
       </c>
-      <c r="Y7" s="42">
+      <c r="Y7" s="40">
         <v>-1.8E-3</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="40">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AA7" s="44">
+      <c r="AA7" s="42">
         <f t="shared" si="1"/>
         <v>4.0278925354698548E-2</v>
       </c>
-      <c r="AB7" s="44">
+      <c r="AB7" s="42">
         <f t="shared" si="8"/>
         <v>3.274134234388186E-2</v>
       </c>
@@ -4357,7 +4418,7 @@
         <f xml:space="preserve"> ABS(AA7-defaultFit!M7)</f>
         <v>9.1348483540418177E-3</v>
       </c>
-      <c r="AG7" s="41">
+      <c r="AG7" s="39">
         <f xml:space="preserve"> SQRT((AD7*AD7+AE7*AE7+AF7*AF7)/3)/ABS(defaultFit!M7)</f>
         <v>0.33444299245186088</v>
       </c>
@@ -4366,16 +4427,16 @@
         <v>1.0415918309250812E-2</v>
       </c>
       <c r="AI7" s="12"/>
-      <c r="AJ7" s="42">
+      <c r="AJ7" s="40">
         <v>0.114041</v>
       </c>
-      <c r="AK7" s="42">
+      <c r="AK7" s="40">
         <v>5.7275100000000002E-2</v>
       </c>
-      <c r="AL7" s="42">
+      <c r="AL7" s="40">
         <v>-2.0894300000000001E-2</v>
       </c>
-      <c r="AM7" s="42">
+      <c r="AM7" s="40">
         <v>6.2213699999999997E-2</v>
       </c>
       <c r="AN7" s="12">
@@ -4387,16 +4448,16 @@
         <v>5.7034539219146925E-2</v>
       </c>
       <c r="AP7" s="12"/>
-      <c r="AQ7" s="42">
+      <c r="AQ7" s="40">
         <v>-4.5400000000000003E-2</v>
       </c>
-      <c r="AR7" s="42">
+      <c r="AR7" s="40">
         <v>9.11E-2</v>
       </c>
-      <c r="AS7" s="42">
+      <c r="AS7" s="40">
         <v>-4.1200000000000001E-2</v>
       </c>
-      <c r="AT7" s="42">
+      <c r="AT7" s="40">
         <v>9.35E-2</v>
       </c>
       <c r="AU7" s="12">
@@ -4409,25 +4470,25 @@
       </c>
     </row>
     <row r="8" spans="1:48" s="2" customFormat="1">
-      <c r="A8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="46"/>
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="45">
+      <c r="H8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
@@ -4466,80 +4527,94 @@
       <c r="AV8" s="5"/>
     </row>
     <row r="9" spans="1:48" s="2" customFormat="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="27">
-        <v>-1.4E-3</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="G9" s="27">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="27">
-        <v>-4.2999999999999997E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="K9" s="27">
-        <v>3.9300000000000002E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="M9" s="20">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>-2.8295634165276789E-2</v>
+        <v>3.8513294372673812E-2</v>
       </c>
       <c r="N9" s="20">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>3.4409649650056391E-2</v>
-      </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
+        <v>2.443246826988402E-2</v>
+      </c>
+      <c r="P9" s="31">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="R9" s="31">
+        <v>-3.9899999999999998E-2</v>
+      </c>
+      <c r="S9" s="31">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="T9" s="20">
+        <f>(P9/D8+R9/H8)/2</f>
+        <v>-2.4598203959856121E-2</v>
+      </c>
+      <c r="U9" s="20">
+        <f>0.5*SQRT((P9/$D8)^2*((Q9/P9)^2+($E8/$D8)^2)+(R9/$H8)^2*((S9/R9)^2+($I8/$H8)^2))</f>
+        <v>3.4453411773320175E-2</v>
+      </c>
       <c r="W9" s="31">
-        <v>1.20997E-2</v>
+        <v>0.10630000000000001</v>
       </c>
       <c r="X9" s="31">
-        <v>6.3805500000000001E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="Y9" s="31">
-        <v>-5.61672E-2</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="Z9" s="31">
-        <v>7.8956799999999994E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="AA9" s="20">
         <f>(W9/D8+Y9/H8)/2</f>
-        <v>-2.8077553041150609E-2</v>
+        <v>0.11463069462629806</v>
       </c>
       <c r="AB9" s="20">
         <f>0.5*SQRT((W9/D8)^2*((X9/W9)^2+(E8/D8)^2)+(Y9/H8)^2*((Z9/Y9)^2+(I8/H8)^2))</f>
-        <v>6.4711395882672995E-2</v>
+        <v>3.4100279321512598E-2</v>
       </c>
       <c r="AD9" s="20">
         <f xml:space="preserve"> ABS(M9-defaultFit!M9)</f>
-        <v>6.1865837510861971E-2</v>
+        <v>4.9430910270886266E-3</v>
       </c>
       <c r="AE9" s="20">
         <f xml:space="preserve"> ABS(T9-defaultFit!M9)</f>
-        <v>3.3570203345585185E-2</v>
+        <v>5.8168407305441303E-2</v>
       </c>
       <c r="AF9" s="20">
         <f xml:space="preserve"> ABS(AA9-defaultFit!M9)</f>
-        <v>6.1647756386735794E-2</v>
+        <v>8.1060491280712882E-2</v>
       </c>
       <c r="AG9" s="26">
         <f xml:space="preserve"> SQRT((AD9*AD9+AE9*AE9+AF9*AF9)/3)/ABS(defaultFit!M9)</f>
-        <v>1.609193148595526</v>
+        <v>1.7180056262451391</v>
       </c>
       <c r="AH9" s="20">
         <f xml:space="preserve"> AG9*ABS(defaultFit!M9)</f>
-        <v>5.4020941220674287E-2</v>
+        <v>5.767379822190874E-2</v>
       </c>
       <c r="AJ9" s="31">
         <v>1.20997E-2</v>
@@ -4583,81 +4658,95 @@
       </c>
     </row>
     <row r="10" spans="1:48" s="2" customFormat="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="27">
-        <v>6.4100000000000004E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="G10" s="27">
-        <v>3.49E-2</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+        <v>2.58E-2</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="27">
-        <v>5.5800000000000002E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="K10" s="27">
-        <v>3.4500000000000003E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="M10" s="20">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>7.6438604204652649E-2</v>
+        <v>9.0396522229544127E-2</v>
       </c>
       <c r="N10" s="20">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>3.1285042970641115E-2</v>
+        <v>2.2682458194215788E-2</v>
       </c>
       <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="P10" s="31">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="R10" s="31">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="S10" s="31">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="T10" s="20">
+        <f>(P10/D8+R10/H8)/2</f>
+        <v>7.152888559192988E-2</v>
+      </c>
+      <c r="U10" s="20">
+        <f>0.5*SQRT((P10/$D8)^2*((Q10/P10)^2+($E8/$D8)^2)+(R10/$H8)^2*((S10/R10)^2+($I8/$H8)^2))</f>
+        <v>3.1105446515708124E-2</v>
+      </c>
       <c r="W10" s="31">
-        <v>6.4300300000000005E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="X10" s="31">
-        <v>6.8146700000000004E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Y10" s="31">
-        <v>8.7185899999999997E-2</v>
+        <v>0.1037</v>
       </c>
       <c r="Z10" s="31">
-        <v>6.4541500000000002E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="AA10" s="20">
         <f>(W10/D8+Y10/H8)/2</f>
-        <v>9.6567779165957934E-2</v>
+        <v>0.11034404238915166</v>
       </c>
       <c r="AB10" s="20">
         <f>0.5*SQRT((W10/D8)^2*((X10/W10)^2+(E8/D8)^2)+(Y10/H8)^2*((Z10/Y10)^2+(I8/H8)^2))</f>
-        <v>5.9836892228082812E-2</v>
+        <v>3.2979187953788923E-2</v>
       </c>
       <c r="AD10" s="20">
         <f xml:space="preserve"> ABS(M10-defaultFit!M10)</f>
-        <v>3.7791836354263642E-2</v>
+        <v>2.3833918329372164E-2</v>
       </c>
       <c r="AE10" s="20">
         <f xml:space="preserve"> ABS(T10-defaultFit!M10)</f>
-        <v>0.11423044055891629</v>
+        <v>4.270155496698641E-2</v>
       </c>
       <c r="AF10" s="20">
         <f xml:space="preserve"> ABS(AA10-defaultFit!M10)</f>
-        <v>1.7662661392958356E-2</v>
+        <v>3.8863981697646321E-3</v>
       </c>
       <c r="AG10" s="26">
         <f xml:space="preserve"> SQRT((AD10*AD10+AE10*AE10+AF10*AF10)/3)/ABS(defaultFit!M10)</f>
-        <v>0.61464419449492358</v>
+        <v>0.24794645453891015</v>
       </c>
       <c r="AH10" s="20">
         <f xml:space="preserve"> AG10*ABS(defaultFit!M10)</f>
-        <v>7.0211077124135352E-2</v>
+        <v>2.8323032737001017E-2</v>
       </c>
       <c r="AJ10" s="31">
         <v>6.4300300000000005E-2</v>
@@ -4701,14 +4790,14 @@
       </c>
     </row>
     <row r="11" spans="1:48" s="2" customFormat="1">
-      <c r="A11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="M11" s="5"/>
@@ -4744,14 +4833,14 @@
       <c r="AV11" s="5"/>
     </row>
     <row r="12" spans="1:48" s="2" customFormat="1">
-      <c r="A12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="M12" s="20"/>
@@ -4787,14 +4876,14 @@
       <c r="AV12" s="20"/>
     </row>
     <row r="13" spans="1:48" s="2" customFormat="1">
-      <c r="A13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="M13" s="20"/>
@@ -4830,80 +4919,94 @@
       <c r="AV13" s="20"/>
     </row>
     <row r="14" spans="1:48" s="2" customFormat="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="27">
-        <v>5.7500000000000002E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="G14" s="27">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="27">
-        <v>1.6199999999999999E-2</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="K14" s="27">
-        <v>3.1399999999999997E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>4.6993492432643919E-2</v>
+        <v>3.4182577032422889E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>2.8219130924795739E-2</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+        <v>2.1278904288591652E-2</v>
+      </c>
+      <c r="P14" s="27">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>3.09E-2</v>
+      </c>
+      <c r="R14" s="27">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="S14" s="27">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="T14" s="5">
+        <f>(P14/D8+R14/H8)/2</f>
+        <v>3.9023434888425225E-2</v>
+      </c>
+      <c r="U14" s="5">
+        <f>0.5*SQRT((P14/$D8)^2*((Q14/P14)^2+($E8/$D8)^2)+(R14/$H8)^2*((S14/R14)^2+($I8/$H8)^2))</f>
+        <v>2.7993883973731939E-2</v>
+      </c>
       <c r="W14" s="27">
-        <v>4.6586599999999999E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="X14" s="27">
-        <v>4.8473799999999997E-2</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="Y14" s="27">
-        <v>-3.3009799999999999E-2</v>
+        <v>-2.2700000000000001E-2</v>
       </c>
       <c r="Z14" s="27">
-        <v>4.9094699999999998E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="AA14" s="5">
         <f>(W14/D8+Y14/H8)/2</f>
-        <v>8.6735019066892724E-3</v>
+        <v>2.1820870500429794E-2</v>
       </c>
       <c r="AB14" s="5">
         <f>0.5*SQRT((W14/D8)^2*((X14/W14)^2+(E8/D8)^2)+(Y14/H8)^2*((Z14/Y14)^2+(I8/H8)^2))</f>
-        <v>4.3982947881938357E-2</v>
+        <v>3.1607644653002989E-2</v>
       </c>
       <c r="AD14" s="5">
         <f xml:space="preserve"> ABS(M14-defaultFit!M14)</f>
-        <v>5.8260064096061215E-3</v>
+        <v>6.9849089906149076E-3</v>
       </c>
       <c r="AE14" s="5">
         <f xml:space="preserve"> ABS(T14-defaultFit!M14)</f>
-        <v>4.1167486023037797E-2</v>
+        <v>2.1440511346125721E-3</v>
       </c>
       <c r="AF14" s="5">
         <f xml:space="preserve"> ABS(AA14-defaultFit!M14)</f>
-        <v>3.2493984116348525E-2</v>
+        <v>1.9346615522608003E-2</v>
       </c>
       <c r="AG14" s="14">
         <f xml:space="preserve"> SQRT((AD14*AD14+AE14*AE14+AF14*AF14)/3)/ABS(defaultFit!M14)</f>
-        <v>0.74005427250370059</v>
+        <v>0.29003018349451348</v>
       </c>
       <c r="AH14" s="5">
         <f xml:space="preserve"> AG14*ABS(defaultFit!M14)</f>
-        <v>3.0466173919585501E-2</v>
+        <v>1.1939813525269471E-2</v>
       </c>
       <c r="AJ14" s="27">
         <v>4.6586599999999999E-2</v>
@@ -4947,19 +5050,19 @@
       </c>
     </row>
     <row r="15" spans="1:48" s="2" customFormat="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="M15" s="7"/>
@@ -4996,17 +5099,17 @@
       <c r="AV15" s="7"/>
     </row>
     <row r="16" spans="1:48" s="2" customFormat="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="M16" s="7"/>
@@ -5043,17 +5146,17 @@
       <c r="AV16" s="7"/>
     </row>
     <row r="17" spans="1:48" s="2" customFormat="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="M17" s="7"/>
@@ -5090,17 +5193,17 @@
       <c r="AV17" s="7"/>
     </row>
     <row r="18" spans="1:48" s="2" customFormat="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="M18" s="7"/>
@@ -5137,92 +5240,106 @@
       <c r="AV18" s="7"/>
     </row>
     <row r="19" spans="1:48" s="2" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="34">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="G19" s="34">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="34">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="K19" s="34">
-        <v>2.7699999999999999E-2</v>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="33">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G19" s="33">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="33">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="K19" s="33">
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>5.0815123416169616E-2</v>
+        <v>5.8468331144468061E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>2.5063797963002465E-2</v>
-      </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
+        <v>1.7989289129670499E-2</v>
+      </c>
+      <c r="P19" s="33">
+        <v>5.33E-2</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="R19" s="33">
+        <v>2.52E-2</v>
+      </c>
+      <c r="S19" s="33">
+        <v>2.76E-2</v>
+      </c>
+      <c r="T19" s="21">
+        <f>(P19/D8+R19/H8)/2</f>
+        <v>5.0050485555056728E-2</v>
+      </c>
+      <c r="U19" s="21">
+        <f>0.5*SQRT((P19/$D8)^2*((Q19/P19)^2+($E8/$D8)^2)+(R19/$H8)^2*((S19/R19)^2+($I8/$H8)^2))</f>
+        <v>2.5018955118583965E-2</v>
+      </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="33">
-        <v>4.5826399999999998E-3</v>
-      </c>
-      <c r="X19" s="33">
-        <v>5.5254999999999999E-2</v>
-      </c>
-      <c r="Y19" s="33">
-        <v>4.52573E-2</v>
-      </c>
-      <c r="Z19" s="33">
-        <v>4.75982E-2</v>
+      <c r="W19" s="32">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="X19" s="32">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="Y19" s="32">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="Z19" s="32">
+        <v>2.75E-2</v>
       </c>
       <c r="AA19" s="21">
         <f>(W19/D8+Y19/H8)/2</f>
-        <v>3.1763828484483253E-2</v>
+        <v>7.5045720838834748E-2</v>
       </c>
       <c r="AB19" s="21">
         <f>0.5*SQRT((W19/D8)^2*((X19/W19)^2+(E8/D8)^2)+(Y19/H8)^2*((Z19/Y19)^2+(I8/H8)^2))</f>
-        <v>4.64952792629207E-2</v>
+        <v>2.5664527532133583E-2</v>
       </c>
       <c r="AD19" s="7">
         <f xml:space="preserve"> ABS(M19-defaultFit!M19)</f>
-        <v>2.3500784561940505E-2</v>
+        <v>1.584757683364206E-2</v>
       </c>
       <c r="AE19" s="7">
         <f xml:space="preserve"> ABS(T19-defaultFit!M19)</f>
-        <v>7.4315907978110121E-2</v>
+        <v>2.4265422423053393E-2</v>
       </c>
       <c r="AF19" s="7">
         <f xml:space="preserve"> ABS(AA19-defaultFit!M19)</f>
-        <v>4.2552079493626868E-2</v>
+        <v>7.2981286072462681E-4</v>
       </c>
       <c r="AG19" s="15">
         <f xml:space="preserve"> SQRT((AD19*AD19+AE19*AE19+AF19*AF19)/3)/ABS(defaultFit!M19)</f>
-        <v>0.68989187248452633</v>
+        <v>0.22522863904843443</v>
       </c>
       <c r="AH19" s="7">
         <f xml:space="preserve"> AG19*ABS(defaultFit!M19)</f>
-        <v>5.1269940910406139E-2</v>
-      </c>
-      <c r="AJ19" s="33">
+        <v>1.6738070813558433E-2</v>
+      </c>
+      <c r="AJ19" s="32">
         <v>4.5826399999999998E-3</v>
       </c>
-      <c r="AK19" s="33">
+      <c r="AK19" s="32">
         <v>5.5254999999999999E-2</v>
       </c>
-      <c r="AL19" s="33">
+      <c r="AL19" s="32">
         <v>4.52573E-2</v>
       </c>
-      <c r="AM19" s="33">
+      <c r="AM19" s="32">
         <v>4.75982E-2</v>
       </c>
       <c r="AN19" s="21" t="e">
@@ -5233,16 +5350,16 @@
         <f>0.5*SQRT((AJ19/Q8)^2*((AK19/AJ19)^2+(R8/Q8)^2)+(AL19/U8)^2*((AM19/AL19)^2+(V8/U8)^2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ19" s="33">
+      <c r="AQ19" s="32">
         <v>4.5826399999999998E-3</v>
       </c>
-      <c r="AR19" s="33">
+      <c r="AR19" s="32">
         <v>5.5254999999999999E-2</v>
       </c>
-      <c r="AS19" s="33">
+      <c r="AS19" s="32">
         <v>4.52573E-2</v>
       </c>
-      <c r="AT19" s="33">
+      <c r="AT19" s="32">
         <v>4.75982E-2</v>
       </c>
       <c r="AU19" s="21" t="e">
@@ -5255,83 +5372,97 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="2" customFormat="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="29">
-        <v>6.7400000000000002E-2</v>
+        <v>6.4100000000000004E-2</v>
       </c>
       <c r="G20" s="29">
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="29">
-        <v>2.8799999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K20" s="29">
-        <v>2.68218E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>6.1336708533165842E-2</v>
+        <v>6.3820567007252527E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>2.9707604876479103E-2</v>
-      </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
+        <v>2.5071980076895387E-2</v>
+      </c>
+      <c r="P20" s="29">
+        <v>5.74E-2</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="R20" s="29">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="S20" s="29">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="T20" s="8">
+        <f>(P20/D8+R20/H8)/2</f>
+        <v>5.4959379173759003E-2</v>
+      </c>
+      <c r="U20" s="8">
+        <f>0.5*SQRT((P20/$D8)^2*((Q20/P20)^2+($E8/$D8)^2)+(R20/$H8)^2*((S20/R20)^2+($I8/$H8)^2))</f>
+        <v>3.3769191739300666E-2</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="29">
-        <v>0.124876</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="X20" s="29">
-        <v>7.6922500000000005E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="Y20" s="29">
-        <v>-9.0999999999999998E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="Z20" s="29">
-        <v>7.9001000000000002E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="AA20" s="8">
         <f>(W20/D8+Y20/H8)/2</f>
-        <v>2.1645548968962591E-2</v>
+        <v>7.6124504368800694E-2</v>
       </c>
       <c r="AB20" s="8">
         <f>0.5*SQRT((W20/D8)^2*((X20/W20)^2+(E8/D8)^2)+(Y20/H8)^2*((Z20/Y20)^2+(I8/H8)^2))</f>
-        <v>7.0293327355992266E-2</v>
+        <v>3.7400628459474262E-2</v>
       </c>
       <c r="AD20" s="8">
         <f xml:space="preserve"> ABS(M20-defaultFit!M20)</f>
-        <v>2.2998186774804218E-2</v>
+        <v>2.0514328300717533E-2</v>
       </c>
       <c r="AE20" s="8">
         <f xml:space="preserve"> ABS(T20-defaultFit!M20)</f>
-        <v>8.4334895307970059E-2</v>
+        <v>2.9375516134211056E-2</v>
       </c>
       <c r="AF20" s="8">
         <f xml:space="preserve"> ABS(AA20-defaultFit!M20)</f>
-        <v>6.2689346339007468E-2</v>
+        <v>8.2103909391693652E-3</v>
       </c>
       <c r="AG20" s="16">
         <f xml:space="preserve"> SQRT((AD20*AD20+AE20*AE20+AF20*AF20)/3)/ABS(defaultFit!M20)</f>
-        <v>0.73641412967872488</v>
+        <v>0.25164419719502185</v>
       </c>
       <c r="AH20" s="8">
         <f xml:space="preserve"> AG20*ABS(defaultFit!M20)</f>
-        <v>6.2105408529765149E-2</v>
+        <v>2.122238702530034E-2</v>
       </c>
       <c r="AJ20" s="29">
         <v>0.124876</v>
@@ -5375,17 +5506,17 @@
       </c>
     </row>
     <row r="21" spans="1:48" s="2" customFormat="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="M21" s="8"/>
@@ -5422,17 +5553,17 @@
       <c r="AV21" s="8"/>
     </row>
     <row r="22" spans="1:48" s="2" customFormat="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="M22" s="8"/>
@@ -5469,17 +5600,17 @@
       <c r="AV22" s="8"/>
     </row>
     <row r="23" spans="1:48" s="2" customFormat="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="M23" s="8"/>
@@ -5516,17 +5647,17 @@
       <c r="AV23" s="8"/>
     </row>
     <row r="24" spans="1:48" s="2" customFormat="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="M24" s="8"/>
@@ -5563,81 +5694,95 @@
       <c r="AV24" s="8"/>
     </row>
     <row r="25" spans="1:48" s="2" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="29">
-        <v>-6.3E-3</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G25" s="29">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="29">
-        <v>4.5699999999999998E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="K25" s="29">
-        <v>3.7600000000000001E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>2.5105731994542635E-2</v>
+        <v>4.2581585258366306E-2</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>3.3495371858974825E-2</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+        <v>2.6372949390065712E-2</v>
+      </c>
+      <c r="P25" s="29">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="R25" s="29">
+        <v>4.41E-2</v>
+      </c>
+      <c r="S25" s="29">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="T25" s="8">
+        <f>(P25/D8+R25/H8)/2</f>
+        <v>2.4404959093026101E-2</v>
+      </c>
+      <c r="U25" s="8">
+        <f>0.5*SQRT((P25/$D8)^2*((Q25/P25)^2+($E8/$D8)^2)+(R25/$H8)^2*((S25/R25)^2+($I8/$H8)^2))</f>
+        <v>3.3495371184290502E-2</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="29">
-        <v>0.13935</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="X25" s="29">
-        <v>5.5950300000000001E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="Y25" s="29">
-        <v>-3.6081099999999998E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="Z25" s="29">
-        <v>7.43259E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="AA25" s="8">
         <f>(W25/D8+Y25/H8)/2</f>
-        <v>6.5874515839338579E-2</v>
+        <v>8.0463379983254271E-2</v>
       </c>
       <c r="AB25" s="8">
         <f>0.5*SQRT((W25/D8)^2*((X25/W25)^2+(E8/D8)^2)+(Y25/H8)^2*((Z25/Y25)^2+(I8/H8)^2))</f>
-        <v>5.93018018969255E-2</v>
+        <v>4.2464394479813983E-2</v>
       </c>
       <c r="AD25" s="8">
         <f xml:space="preserve"> ABS(M25-defaultFit!M25)</f>
-        <v>5.515832975010726E-2</v>
+        <v>3.7682476486283589E-2</v>
       </c>
       <c r="AE25" s="8">
         <f xml:space="preserve"> ABS(T25-defaultFit!M25)</f>
-        <v>8.0264061744649895E-2</v>
+        <v>5.585910265162379E-2</v>
       </c>
       <c r="AF25" s="8">
         <f xml:space="preserve"> ABS(AA25-defaultFit!M25)</f>
-        <v>1.4389545905311316E-2</v>
+        <v>1.9931823860437625E-4</v>
       </c>
       <c r="AG25" s="16">
         <f xml:space="preserve"> SQRT((AD25*AD25+AE25*AE25+AF25*AF25)/3)/ABS(defaultFit!M25)</f>
-        <v>0.70814290574117522</v>
+        <v>0.48468327361593488</v>
       </c>
       <c r="AH25" s="8">
         <f xml:space="preserve"> AG25*ABS(defaultFit!M25)</f>
-        <v>5.6838425910445481E-2</v>
+        <v>3.8902648200108435E-2</v>
       </c>
       <c r="AJ25" s="29">
         <v>0.13935</v>
@@ -5680,91 +5825,91 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="47" customFormat="1">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:48" s="43" customFormat="1">
+      <c r="A26" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
-      <c r="F26" s="47">
-        <v>1</v>
-      </c>
-      <c r="G26" s="47">
-        <v>1</v>
-      </c>
-      <c r="H26" s="47">
+      <c r="F26" s="43">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0.03</v>
+      </c>
+      <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
-      <c r="J26" s="47">
-        <v>1</v>
-      </c>
-      <c r="K26" s="47">
-        <v>1</v>
-      </c>
-      <c r="M26" s="48">
+      <c r="J26" s="43">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K26" s="43">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
-      </c>
-      <c r="N26" s="48">
+        <v>5.2224506662397363E-2</v>
+      </c>
+      <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>0.90156687218614606</v>
-      </c>
-      <c r="P26" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="47">
-        <v>1</v>
-      </c>
-      <c r="R26" s="47">
-        <v>1</v>
-      </c>
-      <c r="S26" s="47">
-        <v>1</v>
-      </c>
-      <c r="T26" s="48">
+        <v>2.731863793955332E-2</v>
+      </c>
+      <c r="P26" s="43">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="R26" s="43">
+        <v>-5.1200000000000002E-2</v>
+      </c>
+      <c r="S26" s="43">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="T26" s="44">
         <f>(P26/$D$26+R26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
-      </c>
-      <c r="U26" s="48">
+        <v>9.6532338292872055E-3</v>
+      </c>
+      <c r="U26" s="44">
         <f>0.5*SQRT((P26/$D$26)^2*((Q26/P26)^2+($E$26/$D$26)^2)+(R26/$H$26)^2*((S26/R26)^2+($I$26/$H$26)^2))</f>
-        <v>0.90156687218614606</v>
-      </c>
-      <c r="W26" s="47">
-        <v>1</v>
-      </c>
-      <c r="X26" s="47">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="48">
+        <v>3.8590477835166705E-2</v>
+      </c>
+      <c r="W26" s="43">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="X26" s="43">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="Y26" s="43">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="Z26" s="43">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="AA26" s="44">
         <f>(W26/$D$26+Y26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
-      </c>
-      <c r="AB26" s="48">
+        <v>9.498650354727492E-2</v>
+      </c>
+      <c r="AB26" s="44">
         <f>0.5*SQRT((W26/$D$26)^2*((X26/W26)^2+($E$26/$D$26)^2)+(Y26/$H$26)^2*((Z26/Y26)^2+($I$26/$H$26)^2))</f>
-        <v>0.90156687218614606</v>
+        <v>3.8451850510329892E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5793,10 +5938,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="T26" sqref="T26"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5878,16 +6023,16 @@
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -5900,10 +6045,10 @@
         <v>1.6024705925538852E-3</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G4" s="12">
-        <v>1</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="H4" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H21</f>
@@ -5914,19 +6059,19 @@
         <v>1.5925961509434838E-3</v>
       </c>
       <c r="J4" s="12">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="K4" s="12">
-        <v>1</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12">
         <f t="shared" ref="M4:M7" si="0">(F4/D4+J4/H4)/2</f>
-        <v>1.5879281193052845</v>
+        <v>3.5719614156260113E-2</v>
       </c>
       <c r="N4" s="12">
         <f>0.5*SQRT((F4/D4)^2*((G4/F4)^2+(E4/D4)^2)+(J4/H4)^2*((K4/J4)^2+(I4/H4)^2))</f>
-        <v>1.1228410929863175</v>
+        <v>2.4984571941909468E-2</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
@@ -5937,8 +6082,8 @@
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
@@ -5951,10 +6096,10 @@
         <v>1.4393284024155155E-3</v>
       </c>
       <c r="F5" s="12">
-        <v>3.3630199999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G5" s="12">
-        <v>2.4529499999999999E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="H5" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H22</f>
@@ -5965,31 +6110,31 @@
         <v>1.4375731285746823E-3</v>
       </c>
       <c r="J5" s="12">
-        <v>1.22887E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="K5" s="12">
-        <v>2.4178100000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>2.8127038580438427E-2</v>
+        <v>5.9919887845990984E-2</v>
       </c>
       <c r="N5" s="12">
         <f>0.5*SQRT((F5/D5)^2*((G5/F5)^2+(E5/D5)^2)+(J5/H5)^2*((K5/J5)^2+(I5/H5)^2))</f>
-        <v>2.1102996545179522E-2</v>
+        <v>2.0499949323675475E-2</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="36">
+      <c r="P5" s="35">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="35">
         <v>2.4E-2</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="35">
         <v>-2.2135499999999999E-3</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="35">
         <v>2.4500600000000001E-2</v>
       </c>
       <c r="T5" s="12">
@@ -6002,8 +6147,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="2" customFormat="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -6016,10 +6161,10 @@
         <v>1.4336820602909141E-3</v>
       </c>
       <c r="F6" s="12">
-        <v>6.6222500000000004E-2</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="G6" s="12">
-        <v>1.97325E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="H6" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H23</f>
@@ -6030,31 +6175,31 @@
         <v>1.4379333259925511E-3</v>
       </c>
       <c r="J6" s="12">
-        <v>6.7228399999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K6" s="12">
-        <v>1.9102000000000001E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12">
         <f t="shared" si="0"/>
-        <v>7.9571614417555586E-2</v>
+        <v>8.097798706406345E-2</v>
       </c>
       <c r="N6" s="12">
         <f>0.5*SQRT((F6/D6)^2*((G6/F6)^2+(E6/D6)^2)+(J6/H6)^2*((K6/J6)^2+(I6/H6)^2))</f>
-        <v>1.6376793365889212E-2</v>
+        <v>2.2261956254768234E-2</v>
       </c>
       <c r="O6" s="12"/>
-      <c r="P6" s="36">
+      <c r="P6" s="35">
         <v>2.7E-2</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="35">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="35">
         <v>8.5122100000000006E-2</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="35">
         <v>1.9356100000000001E-2</v>
       </c>
       <c r="T6" s="12">
@@ -6067,8 +6212,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
@@ -6081,10 +6226,10 @@
         <v>8.7811908360996228E-4</v>
       </c>
       <c r="F7" s="12">
-        <v>3.43182E-2</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="G7" s="12">
-        <v>2.4441899999999999E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="H7" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H20</f>
@@ -6095,31 +6240,31 @@
         <v>8.7917852282684886E-4</v>
       </c>
       <c r="J7" s="12">
-        <v>8.6606900000000004E-3</v>
+        <v>2.69E-2</v>
       </c>
       <c r="K7" s="12">
-        <v>2.4978299999999998E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12">
         <f t="shared" si="0"/>
-        <v>2.8993345182151773E-2</v>
+        <v>6.3611111112060498E-2</v>
       </c>
       <c r="N7" s="12">
         <f>0.5*SQRT((F7/D7)^2*((G7/F7)^2+(E7/D7)^2)+(J7/H7)^2*((K7/J7)^2+(I7/H7)^2))</f>
-        <v>2.3570992010085456E-2</v>
+        <v>2.07464121943963E-2</v>
       </c>
       <c r="O7" s="12"/>
-      <c r="P7" s="36">
+      <c r="P7" s="35">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="35">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="35">
         <v>7.2424799999999998E-2</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="35">
         <v>2.3376899999999999E-2</v>
       </c>
       <c r="T7" s="12">
@@ -6132,25 +6277,25 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1">
-      <c r="A8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="46"/>
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="45">
+      <c r="H8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
@@ -6166,45 +6311,45 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="5">
-        <v>7.8021999999999996E-3</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>2.7681299999999999E-2</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5">
-        <v>4.1323600000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="K9" s="5">
-        <v>2.7060799999999999E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="M9" s="5">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>3.1310200818376356E-2</v>
+        <v>6.9430050195466789E-2</v>
       </c>
       <c r="N9" s="5">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.4678619873026945E-2</v>
-      </c>
-      <c r="P9" s="38">
+        <v>2.217869787856519E-2</v>
+      </c>
+      <c r="P9" s="37">
         <v>5.0012399999999999E-2</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="37">
         <v>2.6890299999999999E-2</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="37">
         <v>5.0012399999999999E-2</v>
       </c>
-      <c r="S9" s="38">
+      <c r="S9" s="37">
         <v>2.6890299999999999E-2</v>
       </c>
       <c r="T9" s="5">
@@ -6217,45 +6362,45 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="2" customFormat="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="5">
-        <v>6.9325700000000004E-2</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>2.6369500000000001E-2</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+        <v>2.46E-2</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5">
-        <v>0.102353</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="K10" s="5">
-        <v>2.57153E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="M10" s="5">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>0.1094382499378245</v>
+        <v>0.10078707745126569</v>
       </c>
       <c r="N10" s="5">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>2.3481118609397056E-2</v>
-      </c>
-      <c r="P10" s="38">
+        <v>2.1644833900087063E-2</v>
+      </c>
+      <c r="P10" s="37">
         <v>8.2463900000000007E-2</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="37">
         <v>2.57568E-2</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R10" s="37">
         <v>8.2463900000000007E-2</v>
       </c>
-      <c r="S10" s="38">
+      <c r="S10" s="37">
         <v>2.57568E-2</v>
       </c>
       <c r="T10" s="5">
@@ -6268,14 +6413,14 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1">
-      <c r="A11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="M11" s="5"/>
@@ -6288,74 +6433,74 @@
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
-      <c r="A12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
-      <c r="A13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="5">
-        <v>7.4357800000000002E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>2.37133E-2</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="5">
-        <v>-1.36358E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="K14" s="5">
-        <v>2.34153E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>3.8730669032559402E-2</v>
+        <v>4.1255912661227863E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>2.1245346275957224E-2</v>
+        <v>2.0514964052852441E-2</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -6365,16 +6510,16 @@
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="M15" s="7"/>
@@ -6387,14 +6532,14 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1">
-      <c r="A16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="M16" s="7"/>
@@ -6407,14 +6552,14 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1">
-      <c r="A17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="M17" s="7"/>
@@ -6427,14 +6572,14 @@
       <c r="U17" s="7"/>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1">
-      <c r="A18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="M18" s="7"/>
@@ -6447,45 +6592,45 @@
       <c r="U18" s="7"/>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="21">
-        <v>7.2204900000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G19" s="21">
-        <v>2.0838300000000001E-2</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+        <v>1.95E-2</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="21">
-        <v>3.6615700000000001E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="K19" s="21">
-        <v>2.0374699999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>6.9381698654628843E-2</v>
+        <v>6.8602830698789447E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>1.8579509756118898E-2</v>
-      </c>
-      <c r="P19" s="35">
+        <v>1.7268164605871793E-2</v>
+      </c>
+      <c r="P19" s="34">
         <v>9.83956E-2</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="34">
         <v>2.0156500000000001E-2</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="34">
         <v>9.83956E-2</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S19" s="34">
         <v>2.0156500000000001E-2</v>
       </c>
       <c r="T19" s="21">
@@ -6498,47 +6643,47 @@
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="8">
-        <v>5.8797299999999997E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="G20" s="8">
-        <v>2.7934199999999999E-2</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="8">
-        <v>6.4425999999999997E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="K20" s="8">
-        <v>2.61243E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>7.8554028515986113E-2</v>
+        <v>5.0433858644639361E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>2.4382954718449819E-2</v>
-      </c>
-      <c r="P20" s="40">
+        <v>2.3086854219712568E-2</v>
+      </c>
+      <c r="P20" s="38">
         <v>0.11120099999999999</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="38">
         <v>2.7335600000000002E-2</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="38">
         <v>0.11120099999999999</v>
       </c>
-      <c r="S20" s="40">
+      <c r="S20" s="38">
         <v>2.7335600000000002E-2</v>
       </c>
       <c r="T20" s="8">
@@ -6551,17 +6696,17 @@
       </c>
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="M21" s="8"/>
@@ -6574,17 +6719,17 @@
       <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:21" s="2" customFormat="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="M22" s="8"/>
@@ -6597,17 +6742,17 @@
       <c r="U22" s="8"/>
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="M23" s="8"/>
@@ -6620,17 +6765,17 @@
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="M24" s="8"/>
@@ -6643,45 +6788,45 @@
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="8">
-        <v>5.5974599999999999E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="G25" s="8">
-        <v>2.92416E-2</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+        <v>2.76E-2</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="8">
-        <v>7.8282099999999993E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="K25" s="8">
-        <v>2.8780699999999999E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>8.5584040424923291E-2</v>
+        <v>6.5850999977006566E-2</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>2.6156510053792343E-2</v>
-      </c>
-      <c r="P25" s="40">
+        <v>2.4481218573125348E-2</v>
+      </c>
+      <c r="P25" s="38">
         <v>3.7331999999999997E-2</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="38">
         <v>2.9443199999999999E-2</v>
       </c>
-      <c r="R25" s="40">
+      <c r="R25" s="38">
         <v>3.7331999999999997E-2</v>
       </c>
-      <c r="S25" s="40">
+      <c r="S25" s="38">
         <v>2.9443199999999999E-2</v>
       </c>
       <c r="T25" s="8">
@@ -6693,69 +6838,69 @@
         <v>2.6545019725001655E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="47" customFormat="1">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:21" s="43" customFormat="1">
+      <c r="A26" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
-      <c r="F26" s="47">
-        <v>1</v>
-      </c>
-      <c r="G26" s="47">
-        <v>1</v>
-      </c>
-      <c r="H26" s="47">
+      <c r="F26" s="43">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="G26" s="43">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="43">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="K26" s="43">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="M26" s="44">
+        <f>(F26/$D$26+J26/$H$26)/2</f>
+        <v>7.5933551152027601E-2</v>
+      </c>
+      <c r="N26" s="44">
+        <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
+        <v>2.5699995277217547E-2</v>
+      </c>
+      <c r="P26" s="43">
         <v>1</v>
       </c>
-      <c r="K26" s="47">
+      <c r="Q26" s="43">
         <v>1</v>
       </c>
-      <c r="M26" s="48">
-        <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
-      </c>
-      <c r="N26" s="48">
-        <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>0.90156687218614606</v>
-      </c>
-      <c r="P26" s="47">
+      <c r="R26" s="43">
         <v>1</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="S26" s="43">
         <v>1</v>
       </c>
-      <c r="R26" s="47">
-        <v>1</v>
-      </c>
-      <c r="S26" s="47">
-        <v>1</v>
-      </c>
-      <c r="T26" s="48">
+      <c r="T26" s="44">
         <f>(P26/$D$26+R26/$H$26)/2</f>
         <v>1.2750075418699818</v>
       </c>
-      <c r="U26" s="48">
+      <c r="U26" s="44">
         <f>0.5*SQRT((P26/$D$26)^2*((Q26/P26)^2+($E$26/$D$26)^2)+(R26/$H$26)^2*((S26/R26)^2+($I$26/$H$26)^2))</f>
         <v>0.90156687218614606</v>
       </c>
@@ -6764,171 +6909,171 @@
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
-      <c r="F27" s="36">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="G27" s="36">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="H27" s="45">
+      <c r="F27" s="35">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="G27" s="35">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H27" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
-      <c r="J27" s="36">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="K27" s="36">
-        <v>2.87E-2</v>
+      <c r="J27" s="35">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="K27" s="35">
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="M27" s="12">
         <f xml:space="preserve"> (F27/D27+J27/H27)/2</f>
-        <v>7.024778226090847E-2</v>
+        <v>7.0258048853163502E-2</v>
       </c>
       <c r="N27" s="12">
         <f>0.5*SQRT((F27/D27)^2*((G27/F27)^2+(E27/D27)^2)+(J27/H27)^2*((K27/J27)^2+(I27/H27)^2))</f>
-        <v>2.5472231582092105E-2</v>
+        <v>2.5472814884843629E-2</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="36">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="35">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="G28" s="35">
+        <v>2.63E-2</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="35">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="G28" s="36">
+      <c r="K28" s="35">
         <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="36">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="K28" s="36">
-        <v>2.63E-2</v>
       </c>
       <c r="M28" s="12">
         <f xml:space="preserve"> (F28/D27+J28/H27)/2</f>
-        <v>7.3814320070057907E-2</v>
+        <v>7.3831553278485965E-2</v>
       </c>
       <c r="N28" s="12">
         <f>0.5*SQRT((F28/D27)^2*((G28/F28)^2+(E27/D27)^2)+(J28/H27)^2*((K28/J28)^2+(I27/H27)^2))</f>
-        <v>2.3088324915695138E-2</v>
+        <v>2.3089232058348348E-2</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="36">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="35">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G29" s="35">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="35">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="G29" s="36">
+      <c r="K29" s="35">
         <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="36">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="K29" s="36">
-        <v>2.7900000000000001E-2</v>
       </c>
       <c r="M29" s="12">
         <f xml:space="preserve"> (F29/D27+J29/H27)/2</f>
-        <v>7.9933760442019025E-2</v>
+        <v>7.995218530847667E-2</v>
       </c>
       <c r="N29" s="12">
         <f>0.5*SQRT((F29/D27)^2*((G29/F29)^2+(E27/D27)^2)+(J29/H27)^2*((K29/J29)^2+(I27/H27)^2))</f>
-        <v>2.5608832659655124E-2</v>
+        <v>2.5608184623047248E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="36">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="35">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G30" s="35">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="35">
         <v>6.25E-2</v>
       </c>
-      <c r="G30" s="36">
+      <c r="K30" s="35">
         <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="36">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="K30" s="36">
-        <v>3.1300000000000001E-2</v>
       </c>
       <c r="M30" s="12">
         <f xml:space="preserve"> (F30/D27+J30/H27)/2</f>
-        <v>6.8535665763111125E-2</v>
+        <v>6.852764498791189E-2</v>
       </c>
       <c r="N30" s="12">
         <f>0.5*SQRT((F30/D27)^2*((G30/F30)^2+(E27/D27)^2)+(J30/H27)^2*((K30/J30)^2+(I27/H27)^2))</f>
-        <v>2.7949708957351275E-2</v>
+        <v>2.7950097831539185E-2</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="36">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="35">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="G31" s="35">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="35">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="G31" s="36">
+      <c r="K31" s="35">
         <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="36">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="K31" s="36">
-        <v>5.6399999999999999E-2</v>
       </c>
       <c r="M31" s="12">
         <f xml:space="preserve"> (F31/D27+J31/H27)/2</f>
-        <v>5.9042978281831748E-2</v>
+        <v>5.9022720095328551E-2</v>
       </c>
       <c r="N31" s="12">
         <f>0.5*SQRT((F31/D27)^2*((G31/F31)^2+(E27/D27)^2)+(J31/H27)^2*((K31/J31)^2+(I27/H27)^2))</f>
-        <v>4.8559220892245396E-2</v>
+        <v>4.8562587463395611E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6936,18 +7081,18 @@
     <mergeCell ref="I8:I25"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C8:C25"/>
     <mergeCell ref="D8:D25"/>
     <mergeCell ref="E8:E25"/>
     <mergeCell ref="H8:H25"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="H27:H31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6961,12 +7106,1082 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1">
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
+      <c r="A3" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2">
+        <f xml:space="preserve"> ep_CorrectionFactors!M21</f>
+        <v>0.63114549999999991</v>
+      </c>
+      <c r="E4" s="2">
+        <f xml:space="preserve"> ep_CorrectionFactors!N21</f>
+        <v>1.6024705925538852E-3</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2.69E-2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!H21</f>
+        <v>0.62836350000000007</v>
+      </c>
+      <c r="I4" s="3">
+        <f xml:space="preserve">  ep_CorrectionFactors!I21</f>
+        <v>1.5925961509434838E-3</v>
+      </c>
+      <c r="J4" s="12">
+        <v>2.18E-2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
+        <f t="shared" ref="M4:M7" si="0">(F4/D4+J4/H4)/2</f>
+        <v>3.8657105806412712E-2</v>
+      </c>
+      <c r="N4" s="12">
+        <f>0.5*SQRT((F4/D4)^2*((G4/F4)^2+(E4/D4)^2)+(J4/H4)^2*((K4/J4)^2+(I4/H4)^2))</f>
+        <v>2.5045384324935714E-2</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!M22</f>
+        <v>0.81654000000000004</v>
+      </c>
+      <c r="E5" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!N22</f>
+        <v>1.4393284024155155E-3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!H22</f>
+        <v>0.81555749999999994</v>
+      </c>
+      <c r="I5" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!I22</f>
+        <v>1.4375731285746823E-3</v>
+      </c>
+      <c r="J5" s="12">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
+        <f t="shared" si="0"/>
+        <v>6.7092747730444185E-2</v>
+      </c>
+      <c r="N5" s="12">
+        <f>0.5*SQRT((F5/D5)^2*((G5/F5)^2+(E5/D5)^2)+(J5/H5)^2*((K5/J5)^2+(I5/H5)^2))</f>
+        <v>2.0417400796554859E-2</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="35">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R5" s="35">
+        <v>-2.2135499999999999E-3</v>
+      </c>
+      <c r="S5" s="35">
+        <v>2.4500600000000001E-2</v>
+      </c>
+      <c r="T5" s="12">
+        <f xml:space="preserve"> (P5/D5+R5/H5)/2</f>
+        <v>4.3527434872798448E-2</v>
+      </c>
+      <c r="U5" s="12">
+        <f xml:space="preserve"> 0.5*SQRT((P5/D5)^2*((Q5/P5)^2+(E5/D5)^2)+(R5/H5)^2*((S5/R5)^2+(I5/H5)^2))</f>
+        <v>2.1014441846203723E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!M23</f>
+        <v>0.8373775</v>
+      </c>
+      <c r="E6" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!N23</f>
+        <v>1.4336820602909141E-3</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!H23</f>
+        <v>0.83972500000000005</v>
+      </c>
+      <c r="I6" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!I23</f>
+        <v>1.4379333259925511E-3</v>
+      </c>
+      <c r="J6" s="12">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>2.63E-2</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
+        <f t="shared" si="0"/>
+        <v>7.4468403936591848E-2</v>
+      </c>
+      <c r="N6" s="12">
+        <f>0.5*SQRT((F6/D6)^2*((G6/F6)^2+(E6/D6)^2)+(J6/H6)^2*((K6/J6)^2+(I6/H6)^2))</f>
+        <v>2.2304874277617227E-2</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="35">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="R6" s="35">
+        <v>8.5122100000000006E-2</v>
+      </c>
+      <c r="S6" s="35">
+        <v>1.9356100000000001E-2</v>
+      </c>
+      <c r="T6" s="12">
+        <f t="shared" ref="T6:T7" si="1" xml:space="preserve"> (P6/D6+R6/H6)/2</f>
+        <v>6.6806270903172815E-2</v>
+      </c>
+      <c r="U6" s="12">
+        <f t="shared" ref="U6:U7" si="2" xml:space="preserve"> 0.5*SQRT((P6/D6)^2*((Q6/P6)^2+(E6/D6)^2)+(R6/H6)^2*((S6/R6)^2+(I6/H6)^2))</f>
+        <v>1.6298595503729849E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!M20</f>
+        <v>0.74109574999999994</v>
+      </c>
+      <c r="E7" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!N20</f>
+        <v>8.7811908360996228E-4</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!H20</f>
+        <v>0.74154100000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <f xml:space="preserve"> ep_CorrectionFactors!I20</f>
+        <v>8.7917852282684886E-4</v>
+      </c>
+      <c r="J7" s="12">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="K7" s="12">
+        <v>2.18E-2</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
+        <f t="shared" si="0"/>
+        <v>6.669639412257794E-2</v>
+      </c>
+      <c r="N7" s="12">
+        <f>0.5*SQRT((F7/D7)^2*((G7/F7)^2+(E7/D7)^2)+(J7/H7)^2*((K7/J7)^2+(I7/H7)^2))</f>
+        <v>2.0698808645119603E-2</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="35">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="R7" s="35">
+        <v>7.2424799999999998E-2</v>
+      </c>
+      <c r="S7" s="35">
+        <v>2.3376899999999999E-2</v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" si="1"/>
+        <v>7.1772988401866009E-2</v>
+      </c>
+      <c r="U7" s="12">
+        <f t="shared" si="2"/>
+        <v>2.3135039042036523E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1">
+      <c r="A8" s="46"/>
+      <c r="C8" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="46">
+        <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
+        <v>0.78402725000000006</v>
+      </c>
+      <c r="E8" s="46">
+        <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
+        <v>6.7586967123847187E-4</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="46">
+        <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
+        <v>0.78459112500000006</v>
+      </c>
+      <c r="I8" s="46">
+        <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
+        <v>6.7640811460241955E-4</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="M9" s="5">
+        <f>(F9/D8+J9/H8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="e">
+        <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="37">
+        <v>5.0012399999999999E-2</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>2.6890299999999999E-2</v>
+      </c>
+      <c r="R9" s="37">
+        <v>5.0012399999999999E-2</v>
+      </c>
+      <c r="S9" s="37">
+        <v>2.6890299999999999E-2</v>
+      </c>
+      <c r="T9" s="5">
+        <f xml:space="preserve"> (P9/D8+R9/H8)/2</f>
+        <v>6.3766187187018264E-2</v>
+      </c>
+      <c r="U9" s="5">
+        <f xml:space="preserve"> 0.5*SQRT((P9/D8)^2*((Q9/P9)^2+(E8/D8)^2)+(R9/H8)^2*((S9/R9)^2+(I8/H8)^2))</f>
+        <v>2.4243425816417086E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="5">
+        <f>(F10/D8+J10/H8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="e">
+        <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="37">
+        <v>8.2463900000000007E-2</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>2.57568E-2</v>
+      </c>
+      <c r="R10" s="37">
+        <v>8.2463900000000007E-2</v>
+      </c>
+      <c r="S10" s="37">
+        <v>2.57568E-2</v>
+      </c>
+      <c r="T10" s="5">
+        <f xml:space="preserve"> (P10/D8+R10/H8)/2</f>
+        <v>0.10514209443201199</v>
+      </c>
+      <c r="U10" s="5">
+        <f xml:space="preserve"> 0.5*SQRT((P10/D8)^2*((Q10/P10)^2+(E8/D8)^2)+(R10/H8)^2*((S10/R10)^2+(I8/H8)^2))</f>
+        <v>2.322155743503565E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1">
+      <c r="A11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" s="2" customFormat="1">
+      <c r="A12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" s="2" customFormat="1">
+      <c r="A13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" s="2" customFormat="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="5">
+        <f>(F14/D8+J14/H8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="e">
+        <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1">
+      <c r="A15" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1">
+      <c r="A16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1">
+      <c r="A17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1">
+      <c r="A18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="21">
+        <f>(F19/D8+J19/H8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="21" t="e">
+        <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="34">
+        <v>9.83956E-2</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>2.0156500000000001E-2</v>
+      </c>
+      <c r="R19" s="34">
+        <v>9.83956E-2</v>
+      </c>
+      <c r="S19" s="34">
+        <v>2.0156500000000001E-2</v>
+      </c>
+      <c r="T19" s="21">
+        <f xml:space="preserve"> (P19/D8 +R19/H8)/2</f>
+        <v>0.12545513208682196</v>
+      </c>
+      <c r="U19" s="21">
+        <f xml:space="preserve"> 0.5*SQRT((P19/D8)^2*((Q19/P19)^2+(E8/D8)^2)+(R19/H8)^2*((S19/R19)^2+(I8/H8)^2))</f>
+        <v>1.8172586822504781E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1">
+      <c r="A20" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="8">
+        <f>(F20/D8+J20/H8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="8" t="e">
+        <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="38">
+        <v>0.11120099999999999</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>2.7335600000000002E-2</v>
+      </c>
+      <c r="R20" s="38">
+        <v>0.11120099999999999</v>
+      </c>
+      <c r="S20" s="38">
+        <v>2.7335600000000002E-2</v>
+      </c>
+      <c r="T20" s="8">
+        <f xml:space="preserve"> (P20/D8+R20/H8)/2</f>
+        <v>0.14178211366348381</v>
+      </c>
+      <c r="U20" s="8">
+        <f xml:space="preserve"> 0.5*SQRT((P20/D8)^2*((Q20/P20)^2+(E8/D8)^2)+(R20/H8)^2*((S20/R20)^2+(I8/H8)^2))</f>
+        <v>2.4645013782254525E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8">
+        <f>(F25/D8+J25/H8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="8" t="e">
+        <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="38">
+        <v>3.7331999999999997E-2</v>
+      </c>
+      <c r="Q25" s="38">
+        <v>2.9443199999999999E-2</v>
+      </c>
+      <c r="R25" s="38">
+        <v>3.7331999999999997E-2</v>
+      </c>
+      <c r="S25" s="38">
+        <v>2.9443199999999999E-2</v>
+      </c>
+      <c r="T25" s="8">
+        <f xml:space="preserve"> (P25/D5+R25/H5)/2</f>
+        <v>4.5747283515410103E-2</v>
+      </c>
+      <c r="U25" s="8">
+        <f xml:space="preserve"> 0.5*SQRT((P25/D8)^2*((Q25/P25)^2+(E8/D8)^2)+(R25/H8)^2*((S25/R25)^2+(I8/H8)^2))</f>
+        <v>2.6545019725001655E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="43" customFormat="1">
+      <c r="A26" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="43">
+        <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
+        <v>0.78402725000000006</v>
+      </c>
+      <c r="E26" s="43">
+        <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
+        <v>6.7586967123847187E-4</v>
+      </c>
+      <c r="H26" s="43">
+        <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
+        <v>0.78459112500000006</v>
+      </c>
+      <c r="I26" s="43">
+        <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
+        <v>6.7640811460241955E-4</v>
+      </c>
+      <c r="M26" s="44">
+        <f>(F26/$D$26+J26/$H$26)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="44" t="e">
+        <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>1</v>
+      </c>
+      <c r="R26" s="43">
+        <v>1</v>
+      </c>
+      <c r="S26" s="43">
+        <v>1</v>
+      </c>
+      <c r="T26" s="44">
+        <f>(P26/$D$26+R26/$H$26)/2</f>
+        <v>1.2750075418699818</v>
+      </c>
+      <c r="U26" s="44">
+        <f>0.5*SQRT((P26/$D$26)^2*((Q26/P26)^2+($E$26/$D$26)^2)+(R26/$H$26)^2*((S26/R26)^2+($I$26/$H$26)^2))</f>
+        <v>0.90156687218614606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="46">
+        <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
+        <v>0.78402725000000006</v>
+      </c>
+      <c r="E27" s="46">
+        <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
+        <v>6.7586967123847187E-4</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="46">
+        <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
+        <v>0.78459112500000006</v>
+      </c>
+      <c r="I27" s="46">
+        <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
+        <v>6.7640811460241955E-4</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="M27" s="12">
+        <f xml:space="preserve"> (F27/D27+J27/H27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="12" t="e">
+        <f>0.5*SQRT((F27/D27)^2*((G27/F27)^2+(E27/D27)^2)+(J27/H27)^2*((K27/J27)^2+(I27/H27)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="M28" s="12">
+        <f xml:space="preserve"> (F28/D27+J28/H27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="12" t="e">
+        <f>0.5*SQRT((F28/D27)^2*((G28/F28)^2+(E27/D27)^2)+(J28/H27)^2*((K28/J28)^2+(I27/H27)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="M29" s="12">
+        <f xml:space="preserve"> (F29/D27+J29/H27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="12" t="e">
+        <f>0.5*SQRT((F29/D27)^2*((G29/F29)^2+(E27/D27)^2)+(J29/H27)^2*((K29/J29)^2+(I27/H27)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="M30" s="12">
+        <f xml:space="preserve"> (F30/D27+J30/H27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="12" t="e">
+        <f>0.5*SQRT((F30/D27)^2*((G30/F30)^2+(E27/D27)^2)+(J30/H27)^2*((K30/J30)^2+(I27/H27)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="M31" s="12">
+        <f xml:space="preserve"> (F31/D27+J31/H27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="12" t="e">
+        <f>0.5*SQRT((F31/D27)^2*((G31/F31)^2+(E27/D27)^2)+(J31/H27)^2*((K31/J31)^2+(I27/H27)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I8:I25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C8:C25"/>
+    <mergeCell ref="D8:D25"/>
+    <mergeCell ref="E8:E25"/>
+    <mergeCell ref="H8:H25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26:N26"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7033,10 +8248,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="S3" s="2" t="e">
@@ -7049,8 +8264,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -7063,10 +8278,10 @@
         <v>1.6024705925538852E-3</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="G4" s="12">
-        <v>1</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="H4" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H21</f>
@@ -7077,41 +8292,41 @@
         <v>1.5925961509434838E-3</v>
       </c>
       <c r="J4" s="12">
-        <v>1</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="K4" s="12">
-        <v>1</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12">
         <f t="shared" ref="M4:M7" si="0">(F4/D4+J4/H4)/2</f>
-        <v>1.5879281193052845</v>
+        <v>5.8972063499789812E-2</v>
       </c>
       <c r="N4" s="12">
         <f>0.5*SQRT((F4/D4)^2*((G4/F4)^2+(E4/D4)^2)+(J4/H4)^2*((K4/J4)^2+(I4/H4)^2))</f>
-        <v>1.1228410929863175</v>
+        <v>2.6672026793418704E-2</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12">
         <f xml:space="preserve"> ABS(M4-defaultFit!M4)</f>
-        <v>0</v>
+        <v>1.5289560558054947</v>
       </c>
       <c r="Q4" s="12">
         <f xml:space="preserve"> N4-defaultFit!N4</f>
-        <v>0</v>
+        <v>-1.0961690661928989</v>
       </c>
       <c r="S4" s="2">
         <f xml:space="preserve"> P4/ABS(defaultFit!M4)</f>
-        <v>0</v>
+        <v>0.96286225882466892</v>
       </c>
       <c r="T4" s="2">
         <f xml:space="preserve"> S4*ABS(defaultFit!M4)</f>
-        <v>0</v>
+        <v>1.5289560558054947</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
@@ -7123,11 +8338,11 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N22</f>
         <v>1.4393284024155155E-3</v>
       </c>
-      <c r="F5" s="43">
-        <v>6.0051100000000003E-2</v>
-      </c>
-      <c r="G5" s="43">
-        <v>2.6113600000000001E-2</v>
+      <c r="F5" s="41">
+        <v>5.11E-2</v>
+      </c>
+      <c r="G5" s="41">
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="H5" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H22</f>
@@ -7137,42 +8352,42 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I22</f>
         <v>1.4375731285746823E-3</v>
       </c>
-      <c r="J5" s="43">
-        <v>8.7895200000000003E-3</v>
-      </c>
-      <c r="K5" s="43">
-        <v>2.5551000000000001E-2</v>
+      <c r="J5" s="41">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="K5" s="41">
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>4.2160340407018271E-2</v>
+        <v>7.0466223432946118E-2</v>
       </c>
       <c r="N5" s="12">
         <f>0.5*SQRT((F5/D5)^2*((G5/F5)^2+(E5/D5)^2)+(J5/H5)^2*((K5/J5)^2+(I5/H5)^2))</f>
-        <v>2.2384846697374283E-2</v>
+        <v>2.1759567925236634E-2</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12">
         <f xml:space="preserve"> ABS(M5-defaultFit!M5)</f>
-        <v>1.6373092513824395E-2</v>
+        <v>4.4678975539752239E-2</v>
       </c>
       <c r="Q5" s="12">
         <f xml:space="preserve"> N5-defaultFit!N5</f>
-        <v>1.2967342290994902E-3</v>
+        <v>6.7145545696184125E-4</v>
       </c>
       <c r="S5" s="4">
         <f xml:space="preserve"> P5/ABS(defaultFit!M5)</f>
-        <v>0.63492981421044958</v>
+        <v>1.7325996060069879</v>
       </c>
       <c r="T5" s="4">
         <f xml:space="preserve"> S5*ABS(defaultFit!M5)</f>
-        <v>1.6373092513824395E-2</v>
+        <v>4.4678975539752239E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -7184,11 +8399,11 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N23</f>
         <v>1.4336820602909141E-3</v>
       </c>
-      <c r="F6" s="43">
-        <v>5.1258699999999997E-2</v>
-      </c>
-      <c r="G6" s="43">
-        <v>2.1063999999999999E-2</v>
+      <c r="F6" s="41">
+        <v>5.91E-2</v>
+      </c>
+      <c r="G6" s="41">
+        <v>2.87E-2</v>
       </c>
       <c r="H6" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H23</f>
@@ -7198,42 +8413,42 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I23</f>
         <v>1.4379333259925511E-3</v>
       </c>
-      <c r="J6" s="43">
-        <v>8.3669999999999994E-2</v>
-      </c>
-      <c r="K6" s="43">
-        <v>2.0206200000000001E-2</v>
+      <c r="J6" s="41">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="K6" s="41">
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12">
         <f t="shared" si="0"/>
-        <v>8.0426567262862958E-2</v>
+        <v>8.1613433357228149E-2</v>
       </c>
       <c r="N6" s="12">
         <f>0.5*SQRT((F6/D6)^2*((G6/F6)^2+(E6/D6)^2)+(J6/H6)^2*((K6/J6)^2+(I6/H6)^2))</f>
-        <v>1.7405619250296208E-2</v>
+        <v>2.4075697988328724E-2</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12">
         <f xml:space="preserve"> ABS(M6-defaultFit!M6)</f>
-        <v>1.9840163435811409E-3</v>
+        <v>3.1708824379463318E-3</v>
       </c>
       <c r="Q6" s="12">
         <f xml:space="preserve"> N6-defaultFit!N6</f>
-        <v>9.9788089945566927E-4</v>
+        <v>7.6679596374881857E-3</v>
       </c>
       <c r="S6" s="4">
         <f xml:space="preserve"> P6/ABS(defaultFit!M6)</f>
-        <v>2.5292603572042344E-2</v>
+        <v>4.0422989828686244E-2</v>
       </c>
       <c r="T6" s="4">
         <f xml:space="preserve"> S6*ABS(defaultFit!M6)</f>
-        <v>1.9840163435811409E-3</v>
+        <v>3.1708824379463318E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
@@ -7245,11 +8460,11 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N20</f>
         <v>8.7811908360996228E-4</v>
       </c>
-      <c r="F7" s="43">
-        <v>5.3445899999999998E-2</v>
-      </c>
-      <c r="G7" s="43">
-        <v>2.60962E-2</v>
+      <c r="F7" s="41">
+        <v>8.09E-2</v>
+      </c>
+      <c r="G7" s="41">
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="H7" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H20</f>
@@ -7259,59 +8474,59 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I20</f>
         <v>8.7917852282684886E-4</v>
       </c>
-      <c r="J7" s="43">
-        <v>-1.0698400000000001E-3</v>
-      </c>
-      <c r="K7" s="43">
-        <v>2.60144E-2</v>
+      <c r="J7" s="41">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="K7" s="41">
+        <v>2.29E-2</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12">
         <f t="shared" si="0"/>
-        <v>3.5337338241018673E-2</v>
+        <v>6.7122792053539507E-2</v>
       </c>
       <c r="N7" s="12">
         <f>0.5*SQRT((F7/D7)^2*((G7/F7)^2+(E7/D7)^2)+(J7/H7)^2*((K7/J7)^2+(I7/H7)^2))</f>
-        <v>2.4852950817249749E-2</v>
+        <v>2.2034986075751939E-2</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12">
         <f xml:space="preserve"> ABS(M7-defaultFit!M7)</f>
-        <v>4.1932612403619424E-3</v>
+        <v>3.5978715052882776E-2</v>
       </c>
       <c r="Q7" s="12">
         <f xml:space="preserve"> N7-defaultFit!N7</f>
-        <v>1.4552164820687725E-3</v>
+        <v>-1.3627482594290377E-3</v>
       </c>
       <c r="S7" s="4">
         <f xml:space="preserve"> P7/ABS(defaultFit!M7)</f>
-        <v>0.13464072928773968</v>
+        <v>1.1552345909022796</v>
       </c>
       <c r="T7" s="4">
         <f xml:space="preserve"> S7*ABS(defaultFit!M7)</f>
-        <v>4.1932612403619424E-3</v>
+        <v>3.5978715052882776E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1">
-      <c r="A8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="46"/>
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="45">
+      <c r="H8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
@@ -7331,108 +8546,108 @@
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="17">
-        <v>3.1682200000000001E-2</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="G9" s="17">
-        <v>2.91089E-2</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="17">
-        <v>5.7295899999999997E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="K9" s="17">
-        <v>2.8099699999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="M9" s="5">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>5.6718004516924402E-2</v>
+        <v>9.0593983732478872E-2</v>
       </c>
       <c r="N9" s="5">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.5793044140542003E-2</v>
+        <v>2.3440796378016705E-2</v>
       </c>
       <c r="P9" s="5">
         <f xml:space="preserve"> ABS(M9-defaultFit!M9)</f>
-        <v>2.3147801171339216E-2</v>
+        <v>5.7023780386893687E-2</v>
       </c>
       <c r="Q9" s="5">
         <f xml:space="preserve"> N9-defaultFit!N9</f>
-        <v>1.1954315938813159E-3</v>
+        <v>-1.1568161686439822E-3</v>
       </c>
       <c r="S9" s="20">
         <f xml:space="preserve"> P9/ABS(defaultFit!M9)</f>
-        <v>0.68953413636034411</v>
+        <v>1.6986426861901294</v>
       </c>
       <c r="T9" s="20">
         <f xml:space="preserve"> S9*ABS(defaultFit!M9)</f>
-        <v>2.3147801171339216E-2</v>
+        <v>5.7023780386893687E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="17">
-        <v>3.2824399999999997E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="G10" s="17">
-        <v>2.8474900000000001E-2</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="17">
-        <v>0.110291</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="K10" s="17">
-        <v>2.7340199999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="M10" s="5">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>9.1218854545039613E-2</v>
+        <v>9.453399470296503E-2</v>
       </c>
       <c r="N10" s="5">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>2.5166159099842655E-2</v>
+        <v>2.3231822838928752E-2</v>
       </c>
       <c r="P10" s="5">
         <f xml:space="preserve"> ABS(M10-defaultFit!M10)</f>
-        <v>2.3011586013876678E-2</v>
+        <v>1.9696445855951261E-2</v>
       </c>
       <c r="Q10" s="5">
         <f xml:space="preserve"> N10-defaultFit!N10</f>
-        <v>1.6724276168250639E-3</v>
+        <v>-2.6190864408883949E-4</v>
       </c>
       <c r="S10" s="20">
         <f xml:space="preserve"> P10/ABS(defaultFit!M10)</f>
-        <v>0.20144880735190776</v>
+        <v>0.17242729485747263</v>
       </c>
       <c r="T10" s="20">
         <f xml:space="preserve"> S10*ABS(defaultFit!M10)</f>
-        <v>2.3011586013876678E-2</v>
+        <v>1.9696445855951261E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1">
-      <c r="A11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="M11" s="5"/>
@@ -7449,14 +8664,14 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1">
-      <c r="A12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="M12" s="5"/>
@@ -7473,14 +8688,14 @@
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1">
-      <c r="A13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="M13" s="5"/>
@@ -7497,63 +8712,63 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="17">
-        <v>7.0365800000000006E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="G14" s="17">
-        <v>2.5346299999999999E-2</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="17">
-        <v>-1.2003700000000001E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="K14" s="17">
-        <v>2.51469E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>3.7224935036621401E-2</v>
+        <v>4.5273492658650751E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>2.2761765669201846E-2</v>
+        <v>2.209332825872725E-2</v>
       </c>
       <c r="P14" s="5">
         <f xml:space="preserve"> ABS(M14-defaultFit!M14)</f>
-        <v>3.942550986416396E-3</v>
+        <v>4.1060066356129535E-3</v>
       </c>
       <c r="Q14" s="5">
         <f xml:space="preserve"> N14-defaultFit!N14</f>
-        <v>1.4903188300085836E-3</v>
+        <v>8.2188141953398741E-4</v>
       </c>
       <c r="S14" s="5">
         <f xml:space="preserve"> P14/ABS(defaultFit!M14)</f>
-        <v>9.5768563186250905E-2</v>
+        <v>9.9739066731332218E-2</v>
       </c>
       <c r="T14" s="5">
         <f xml:space="preserve"> S14*ABS(defaultFit!M14)</f>
-        <v>3.942550986416396E-3</v>
+        <v>4.1060066356129535E-3</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="M15" s="7"/>
@@ -7570,14 +8785,14 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1">
-      <c r="A16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="M16" s="7"/>
@@ -7594,14 +8809,14 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1">
-      <c r="A17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="M17" s="7"/>
@@ -7618,14 +8833,14 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1">
-      <c r="A18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="M18" s="7"/>
@@ -7642,110 +8857,110 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="33">
-        <v>6.09004E-2</v>
-      </c>
-      <c r="G19" s="33">
-        <v>2.2390500000000001E-2</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="33">
-        <v>4.33138E-2</v>
-      </c>
-      <c r="K19" s="33">
-        <v>2.1611499999999999E-2</v>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="32">
+        <v>7.22E-2</v>
+      </c>
+      <c r="G19" s="32">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="32">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="K19" s="32">
+        <v>0.02</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>6.6440975718262421E-2</v>
+        <v>7.1025482527345821E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>1.983876851209166E-2</v>
+        <v>1.8534238149420217E-2</v>
       </c>
       <c r="P19" s="21">
         <f xml:space="preserve"> ABS(M19-defaultFit!M19)</f>
-        <v>7.8749322598477001E-3</v>
+        <v>3.2904254507643005E-3</v>
       </c>
       <c r="Q19" s="21">
         <f xml:space="preserve"> N19-defaultFit!N19</f>
-        <v>1.308405283895725E-3</v>
+        <v>3.8749212242818187E-6</v>
       </c>
       <c r="S19" s="21">
         <f xml:space="preserve"> P19/ABS(defaultFit!M19)</f>
-        <v>0.10596563338992339</v>
+        <v>4.4276192544582794E-2</v>
       </c>
       <c r="T19" s="21">
         <f xml:space="preserve"> S19*ABS(defaultFit!M19)</f>
-        <v>7.8749322598477001E-3</v>
+        <v>3.2904254507643005E-3</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="19">
-        <v>4.2595300000000003E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="G20" s="19">
-        <v>2.9915500000000001E-2</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="19">
-        <v>9.45603E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="K20" s="19">
-        <v>2.72746E-2</v>
+        <v>2.64E-2</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>8.7425303645330424E-2</v>
+        <v>5.6420756632288238E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>2.5808730031868798E-2</v>
+        <v>2.4626744936993433E-2</v>
       </c>
       <c r="P20" s="8">
         <f xml:space="preserve"> ABS(M20-defaultFit!M20)</f>
-        <v>3.0904083373603647E-3</v>
+        <v>2.7914138675681821E-2</v>
       </c>
       <c r="Q20" s="8">
         <f xml:space="preserve"> N20-defaultFit!N20</f>
-        <v>1.4594573616351705E-3</v>
+        <v>2.7747226675980605E-4</v>
       </c>
       <c r="S20" s="25">
         <f xml:space="preserve"> P20/ABS(defaultFit!M20)</f>
-        <v>3.6644479442050203E-2</v>
+        <v>0.33099156136669561</v>
       </c>
       <c r="T20" s="25">
         <f xml:space="preserve"> S20*ABS(defaultFit!M20)</f>
-        <v>3.0904083373603651E-3</v>
+        <v>2.7914138675681821E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1">
-      <c r="A21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="M21" s="8"/>
@@ -7762,14 +8977,14 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1">
-      <c r="A22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="A22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="M22" s="8"/>
@@ -7786,14 +9001,14 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1">
-      <c r="A23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="M23" s="8"/>
@@ -7810,14 +9025,14 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1">
-      <c r="A24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="M24" s="8"/>
@@ -7834,97 +9049,97 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="19">
-        <v>5.34805E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="G25" s="19">
-        <v>3.13919E-2</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="19">
-        <v>9.9620899999999998E-2</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="K25" s="19">
-        <v>3.0060400000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>9.7592146070397762E-2</v>
+        <v>7.4703846204292892E-2</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>2.7708671490524053E-2</v>
+        <v>2.5929389513282965E-2</v>
       </c>
       <c r="P25" s="8">
         <f xml:space="preserve"> ABS(M25-defaultFit!M25)</f>
-        <v>1.7328084325747867E-2</v>
+        <v>5.5602155403570025E-3</v>
       </c>
       <c r="Q25" s="8">
         <f xml:space="preserve"> N25-defaultFit!N25</f>
-        <v>1.4887077310205589E-3</v>
+        <v>-2.9057424622052838E-4</v>
       </c>
       <c r="S25" s="8">
         <f xml:space="preserve"> P25/ABS(defaultFit!M25)</f>
-        <v>0.21588845554408903</v>
+        <v>6.9274036467854502E-2</v>
       </c>
       <c r="T25" s="25">
         <f xml:space="preserve"> S25*ABS(defaultFit!M25)</f>
-        <v>1.7328084325747867E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="47" customFormat="1">
-      <c r="A26" s="47" t="s">
+        <v>5.5602155403570025E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="43" customFormat="1">
+      <c r="A26" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
-      <c r="F26" s="47">
-        <v>1</v>
-      </c>
-      <c r="G26" s="47">
-        <v>1</v>
-      </c>
-      <c r="H26" s="47">
+      <c r="F26" s="43">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="G26" s="43">
+        <v>2.98E-2</v>
+      </c>
+      <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
-      <c r="J26" s="47">
-        <v>1</v>
-      </c>
-      <c r="K26" s="47">
-        <v>1</v>
-      </c>
-      <c r="M26" s="48">
+      <c r="J26" s="43">
+        <v>0.04</v>
+      </c>
+      <c r="K26" s="43">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
-      </c>
-      <c r="N26" s="48">
+        <v>8.2631855297457146E-2</v>
+      </c>
+      <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>0.90156687218614606</v>
+        <v>2.7412624665671351E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7949,13 +9164,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D30" sqref="D30"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8010,16 +9225,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
@@ -8032,10 +9247,10 @@
         <v>1.6024705925538852E-3</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>3.5299999999999998E-2</v>
       </c>
       <c r="G4" s="12">
-        <v>1</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="H4" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H21</f>
@@ -8046,24 +9261,24 @@
         <v>1.5925961509434838E-3</v>
       </c>
       <c r="J4" s="12">
-        <v>1</v>
+        <v>6.13E-2</v>
       </c>
       <c r="K4" s="12">
-        <v>1</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12">
         <f t="shared" ref="M4:M7" si="0">(F4/D4+J4/H4)/2</f>
-        <v>1.5879281193052845</v>
+        <v>7.674252450861091E-2</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" ref="N4:N7" si="1">0.5*SQRT((F4/D4)^2*((G4/F4)^2+(E4/D4)^2)+(J4/H4)^2*((K4/J4)^2+(I4/H4)^2))</f>
-        <v>1.1228410929863175</v>
+        <v>2.1109826047147603E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
@@ -8075,11 +9290,11 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N22</f>
         <v>1.4393284024155155E-3</v>
       </c>
-      <c r="F5" s="43">
-        <v>4.0846100000000003E-2</v>
-      </c>
-      <c r="G5" s="43">
-        <v>2.2915399999999999E-2</v>
+      <c r="F5" s="41">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="G5" s="41">
+        <v>2.46E-2</v>
       </c>
       <c r="H5" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H22</f>
@@ -8089,25 +9304,25 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I22</f>
         <v>1.4375731285746823E-3</v>
       </c>
-      <c r="J5" s="43">
-        <v>8.4866999999999998E-2</v>
-      </c>
-      <c r="K5" s="43">
-        <v>2.2172999999999998E-2</v>
+      <c r="J5" s="41">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="K5" s="41">
+        <v>2.53E-2</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>7.7041748753439249E-2</v>
+        <v>0.11863818546286134</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="1"/>
-        <v>1.9537100459915156E-2</v>
+        <v>2.1622232546996523E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -8119,11 +9334,11 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N23</f>
         <v>1.4336820602909141E-3</v>
       </c>
-      <c r="F6" s="43">
-        <v>8.6188899999999999E-2</v>
-      </c>
-      <c r="G6" s="43">
-        <v>2.2625599999999999E-2</v>
+      <c r="F6" s="41">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="G6" s="41">
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="H6" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H23</f>
@@ -8133,25 +9348,25 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I23</f>
         <v>1.4379333259925511E-3</v>
       </c>
-      <c r="J6" s="43">
-        <v>9.8422200000000001E-2</v>
-      </c>
-      <c r="K6" s="43">
-        <v>2.3758999999999999E-2</v>
+      <c r="J6" s="41">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="K6" s="41">
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12">
         <f t="shared" si="0"/>
-        <v>0.11006741584563809</v>
+        <v>9.6690241314543734E-2</v>
       </c>
       <c r="N6" s="12">
         <f t="shared" si="1"/>
-        <v>1.9561877180242871E-2</v>
+        <v>2.7288934828000683E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
@@ -8163,11 +9378,11 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N20</f>
         <v>8.7811908360996228E-4</v>
       </c>
-      <c r="F7" s="43">
-        <v>0.12748399999999999</v>
-      </c>
-      <c r="G7" s="43">
-        <v>4.2549299999999998E-2</v>
+      <c r="F7" s="41">
+        <v>0.1162</v>
+      </c>
+      <c r="G7" s="41">
+        <v>3.5299999999999998E-2</v>
       </c>
       <c r="H7" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H20</f>
@@ -8177,42 +9392,42 @@
         <f xml:space="preserve"> ep_CorrectionFactors!I20</f>
         <v>8.7917852282684886E-4</v>
       </c>
-      <c r="J7" s="43">
-        <v>0.176125</v>
-      </c>
-      <c r="K7" s="43">
-        <v>4.1379899999999997E-2</v>
+      <c r="J7" s="41">
+        <v>0.1409</v>
+      </c>
+      <c r="K7" s="41">
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12">
         <f t="shared" si="0"/>
-        <v>0.20476655527544529</v>
+        <v>0.17340228855099771</v>
       </c>
       <c r="N7" s="12">
         <f t="shared" si="1"/>
-        <v>4.0032550688868997E-2</v>
+        <v>3.4199559795081366E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1">
-      <c r="A8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="46"/>
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="45">
+      <c r="H8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="46">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
@@ -8222,395 +9437,395 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="17">
-        <v>0.116205</v>
+        <v>0.1018</v>
       </c>
       <c r="G9" s="17">
-        <v>2.6889799999999998E-2</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+        <v>2.24E-2</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="22">
-        <v>0.116685</v>
+        <v>0.1305</v>
       </c>
       <c r="K9" s="22">
-        <v>3.4132999999999997E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="M9" s="5">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>0.14846814321384727</v>
+        <v>0.14808554895253501</v>
       </c>
       <c r="N9" s="5">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.7698975120573521E-2</v>
+        <v>2.0421766422166962E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="17">
-        <v>0.15997</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="G10" s="17">
-        <v>3.8700900000000003E-2</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="22">
-        <v>0.16952300000000001</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="K10" s="22">
-        <v>3.8985400000000003E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="M10" s="5">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>0.21005084078338354</v>
+        <v>0.16957114477058688</v>
       </c>
       <c r="N10" s="5">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>3.5020061143609851E-2</v>
+        <v>3.1325427439985121E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1">
-      <c r="A11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" s="2" customFormat="1">
-      <c r="A12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" s="2" customFormat="1">
-      <c r="A13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="17">
-        <v>-6.7327600000000001E-2</v>
+        <v>-4.8099999999999997E-2</v>
       </c>
       <c r="G14" s="17">
-        <v>4.5509000000000001E-2</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="22">
-        <v>9.4178100000000001E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="K14" s="22">
-        <v>5.7611299999999997E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>1.7080283546830125E-2</v>
+        <v>-6.2673368116547244E-3</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>4.6800090944449771E-2</v>
+        <v>4.5084318521846918E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1">
-      <c r="A16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1">
-      <c r="A17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1">
-      <c r="A18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="32">
-        <v>3.5309399999999998E-2</v>
-      </c>
-      <c r="G19" s="32">
-        <v>3.4367300000000003E-2</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="32">
-        <v>4.1926499999999998E-2</v>
-      </c>
-      <c r="K19" s="32">
-        <v>3.3195099999999998E-2</v>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="45">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="G19" s="45">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="45">
+        <v>1.78E-2</v>
+      </c>
+      <c r="K19" s="45">
+        <v>3.56E-2</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>4.9236661093798692E-2</v>
+        <v>4.1827122323506168E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>3.0460977802570247E-2</v>
+        <v>3.0302656846049845E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="24">
-        <v>9.5987600000000006E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="G20" s="24">
-        <v>1.18557E-2</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+        <v>1.03E-2</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="24">
-        <v>7.6631699999999997E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="K20" s="24">
-        <v>1.19063E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>0.11004989038109214</v>
+        <v>9.7220172978107158E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>1.0711732638138611E-2</v>
+        <v>9.0639025018104287E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="2" customFormat="1">
-      <c r="A21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1">
-      <c r="A22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="A22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" s="2" customFormat="1">
-      <c r="A23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" s="2" customFormat="1">
-      <c r="A24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="39">
-        <v>0.12180000000000001</v>
-      </c>
-      <c r="G25" s="39">
-        <v>3.4109899999999999E-2</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="39">
-        <v>0.127443</v>
-      </c>
-      <c r="K25" s="39">
-        <v>3.5309399999999998E-2</v>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="24">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="G25" s="24">
+        <v>2.76E-2</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="24">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="K25" s="24">
+        <v>2.93E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>0.15889205920102278</v>
+        <v>0.13776069201045532</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E25/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>3.1297419759436979E-2</v>
+        <v>2.5660542379323859E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
         <v>0.78402725000000006</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
         <v>6.7586967123847187E-4</v>
       </c>
-      <c r="F26" s="47">
-        <v>1</v>
-      </c>
-      <c r="G26" s="47">
-        <v>1</v>
-      </c>
-      <c r="H26" s="47">
+      <c r="F26" s="43">
+        <v>6.54E-2</v>
+      </c>
+      <c r="G26" s="43">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
         <v>0.78459112500000006</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
         <v>6.7640811460241955E-4</v>
       </c>
-      <c r="J26" s="47">
-        <v>1</v>
-      </c>
-      <c r="K26" s="47">
-        <v>1</v>
-      </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48">
+      <c r="J26" s="43">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="K26" s="43">
+        <v>3.56E-2</v>
+      </c>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
-      </c>
-      <c r="N26" s="48">
+        <v>0.16935383757815919</v>
+      </c>
+      <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>0.90156687218614606</v>
+        <v>3.0430033258422258E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8635,7 +9850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -8721,11 +9936,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -9514,7 +10729,7 @@
       <c r="G22" s="6">
         <v>20</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <f xml:space="preserve"> 1/2*SUM(H5:H6)</f>
         <v>0.81555749999999994</v>
       </c>

--- a/oniaAssymetry/macros/v2_systematics.xlsx
+++ b/oniaAssymetry/macros/v2_systematics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="620"/>
   </bookViews>
   <sheets>
     <sheet name="defaultFit" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="79">
   <si>
     <t>5..10</t>
   </si>
@@ -266,6 +266,15 @@
   <si>
     <t>Auto Correlation</t>
   </si>
+  <si>
+    <t>Fit2 (poly)</t>
+  </si>
+  <si>
+    <t>Fit1(CB)</t>
+  </si>
+  <si>
+    <t>Fit3 (Constrained)</t>
+  </si>
 </sst>
 </file>
 
@@ -408,8 +417,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -777,7 +834,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="313">
+  <cellStyles count="361">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -934,6 +991,30 @@
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1090,6 +1171,30 @@
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1419,11 +1524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T27"/>
+  <dimension ref="A2:AB27"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M20" sqref="M20"/>
+      <selection pane="topRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1501,10 +1606,10 @@
         <v>1.6024705925538852E-3</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>2.18268E-2</v>
       </c>
       <c r="G4" s="12">
-        <v>1</v>
+        <v>2.26745E-2</v>
       </c>
       <c r="H4" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H21</f>
@@ -1515,24 +1620,24 @@
         <v>1.5925961509434838E-3</v>
       </c>
       <c r="J4" s="12">
-        <v>1</v>
+        <v>2.6931299999999998E-2</v>
       </c>
       <c r="K4" s="12">
-        <v>1</v>
+        <v>2.1949199999999999E-2</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12">
         <f t="shared" ref="M4:M7" si="0">(F4/D4+J4/H4)/2</f>
-        <v>1.5879281193052845</v>
+        <v>3.8721130807295751E-2</v>
       </c>
       <c r="N4" s="12">
         <f>0.5*SQRT((F4/D4)^2*((G4/F4)^2+(E4/D4)^2)+(J4/H4)^2*((K4/J4)^2+(I4/H4)^2))</f>
-        <v>1.1228410929863175</v>
+        <v>2.5054189131353596E-2</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="39">
         <f t="shared" ref="P4:P25" si="1" xml:space="preserve"> N4/ABS(M4)</f>
-        <v>0.70711078123458027</v>
+        <v>0.64704177303192134</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1">
@@ -1550,10 +1655,10 @@
         <v>1.4393284024155155E-3</v>
       </c>
       <c r="F5" s="12">
-        <v>2.9198600000000002E-2</v>
+        <v>5.6298599999999997E-2</v>
       </c>
       <c r="G5" s="12">
-        <v>2.4525100000000001E-2</v>
+        <v>2.4339699999999999E-2</v>
       </c>
       <c r="H5" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H22</f>
@@ -1564,24 +1669,24 @@
         <v>1.4375731285746823E-3</v>
       </c>
       <c r="J5" s="12">
-        <v>1.28985E-2</v>
+        <v>5.3151900000000002E-2</v>
       </c>
       <c r="K5" s="12">
-        <v>2.4147999999999999E-2</v>
+        <v>2.2808100000000001E-2</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>2.5787247893193876E-2</v>
+        <v>6.7060114602927018E-2</v>
       </c>
       <c r="N5" s="12">
         <f>0.5*SQRT((F5/D5)^2*((G5/F5)^2+(E5/D5)^2)+(J5/H5)^2*((K5/J5)^2+(I5/H5)^2))</f>
-        <v>2.1088112468274793E-2</v>
+        <v>2.043695875063007E-2</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="39">
         <f t="shared" si="1"/>
-        <v>0.81777289905529849</v>
+        <v>0.30475579816169962</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1">
@@ -1599,10 +1704,10 @@
         <v>1.4336820602909141E-3</v>
       </c>
       <c r="F6" s="12">
-        <v>6.3473799999999997E-2</v>
+        <v>6.5672400000000006E-2</v>
       </c>
       <c r="G6" s="12">
-        <v>1.9808900000000001E-2</v>
+        <v>2.63006E-2</v>
       </c>
       <c r="H6" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H23</f>
@@ -1613,24 +1718,24 @@
         <v>1.4379333259925511E-3</v>
       </c>
       <c r="J6" s="12">
-        <v>6.8088599999999999E-2</v>
+        <v>5.9191800000000003E-2</v>
       </c>
       <c r="K6" s="12">
-        <v>1.90974E-2</v>
+        <v>2.6607100000000002E-2</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12">
         <f t="shared" si="0"/>
-        <v>7.8442550919281817E-2</v>
+        <v>7.445789138462372E-2</v>
       </c>
       <c r="N6" s="12">
         <f>0.5*SQRT((F6/D6)^2*((G6/F6)^2+(E6/D6)^2)+(J6/H6)^2*((K6/J6)^2+(I6/H6)^2))</f>
-        <v>1.6407738350840539E-2</v>
+        <v>2.230742056392996E-2</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="39">
         <f t="shared" si="1"/>
-        <v>0.20916885234551166</v>
+        <v>0.29959780151035353</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1">
@@ -1648,10 +1753,10 @@
         <v>8.7811908360996228E-4</v>
       </c>
       <c r="F7" s="12">
-        <v>3.5652499999999997E-2</v>
+        <v>7.1852899999999997E-2</v>
       </c>
       <c r="G7" s="12">
-        <v>2.4462299999999999E-2</v>
+        <v>2.1751E-2</v>
       </c>
       <c r="H7" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H20</f>
@@ -1662,24 +1767,24 @@
         <v>8.7917852282684886E-4</v>
       </c>
       <c r="J7" s="12">
-        <v>1.05153E-2</v>
+        <v>2.70063E-2</v>
       </c>
       <c r="K7" s="12">
-        <v>2.45971E-2</v>
+        <v>2.1553800000000001E-2</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12">
         <f t="shared" si="0"/>
-        <v>3.1144077000656731E-2</v>
+        <v>6.6687053845070274E-2</v>
       </c>
       <c r="N7" s="12">
         <f>0.5*SQRT((F7/D7)^2*((G7/F7)^2+(E7/D7)^2)+(J7/H7)^2*((K7/J7)^2+(I7/H7)^2))</f>
-        <v>2.3397734335180977E-2</v>
+        <v>2.0653513598462209E-2</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="39">
         <f t="shared" si="1"/>
-        <v>0.75127396887336206</v>
+        <v>0.30970799289537043</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1">
@@ -1720,30 +1825,30 @@
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="5">
-        <v>6.8509399999999998E-3</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>2.7751000000000001E-2</v>
+        <v>2.45867E-2</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="5">
-        <v>4.5821899999999999E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="K9" s="5">
-        <v>2.68065E-2</v>
+        <v>2.4590000000000001E-2</v>
       </c>
       <c r="M9" s="5">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>3.3570203345585185E-2</v>
+        <v>7.6167967766187283E-2</v>
       </c>
       <c r="N9" s="5">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.4597612546660687E-2</v>
+        <v>2.2168083060374551E-2</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="1"/>
-        <v>0.73272158328750536</v>
+        <v>0.29104207070909238</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1">
@@ -1755,30 +1860,30 @@
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="5">
-        <v>6.3266100000000006E-2</v>
+        <v>6.9564399999999998E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>2.6450499999999998E-2</v>
+        <v>2.4532499999999999E-2</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="5">
-        <v>0.10610899999999999</v>
+        <v>8.5370000000000001E-2</v>
       </c>
       <c r="K10" s="5">
-        <v>2.56603E-2</v>
+        <v>2.32312E-2</v>
       </c>
       <c r="M10" s="5">
         <f>(F10/D7+J10/H7)/2</f>
-        <v>0.11423044055891629</v>
+        <v>0.10449603883053199</v>
       </c>
       <c r="N10" s="5">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>2.3493731483017592E-2</v>
+        <v>2.1539572796733263E-2</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="1"/>
-        <v>0.20566962158305169</v>
+        <v>0.20612812732227473</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1">
@@ -1835,30 +1940,30 @@
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="5">
-        <v>7.7430600000000002E-2</v>
+        <v>5.4995500000000003E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>2.37488E-2</v>
+        <v>2.2799E-2</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="5">
-        <v>-1.2886999999999999E-2</v>
+        <v>7.5138000000000002E-3</v>
       </c>
       <c r="K14" s="5">
-        <v>2.3437599999999999E-2</v>
+        <v>2.2197100000000001E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>4.1167486023037797E-2</v>
+        <v>3.9860795612557405E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>2.1271446839193263E-2</v>
+        <v>2.0285521680012387E-2</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="1"/>
-        <v>0.51670502365117743</v>
+        <v>0.50890910149374469</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1">
@@ -1893,7 +1998,7 @@
       <c r="N16" s="7"/>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1">
+    <row r="17" spans="1:28" s="2" customFormat="1">
       <c r="A17" s="46"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -1908,7 +2013,7 @@
       <c r="N17" s="7"/>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1">
+    <row r="18" spans="1:28" s="2" customFormat="1">
       <c r="A18" s="46"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -1923,7 +2028,7 @@
       <c r="N18" s="7"/>
       <c r="P18" s="13"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1">
+    <row r="19" spans="1:28" s="2" customFormat="1">
       <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>57</v>
@@ -1931,34 +2036,34 @@
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="21">
-        <v>7.3419700000000004E-2</v>
-      </c>
-      <c r="G19" s="21">
-        <v>2.0840999999999998E-2</v>
+      <c r="F19" s="7">
+        <v>7.3429300000000003E-2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.9437200000000002E-2</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="21">
-        <v>4.3142699999999999E-2</v>
-      </c>
-      <c r="K19" s="21">
-        <v>2.0261399999999999E-2</v>
+      <c r="J19" s="7">
+        <v>4.2090700000000002E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2.9153200000000001E-2</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>7.4315907978110121E-2</v>
+        <v>7.3651617328857527E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>1.8530363228195935E-2</v>
+        <v>2.233429551334663E-2</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="1"/>
-        <v>0.24934584979644042</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="2" customFormat="1">
+        <v>0.3032424313728655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="2" customFormat="1">
       <c r="A20" s="46" t="s">
         <v>26</v>
       </c>
@@ -1968,40 +2073,40 @@
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="8">
-        <v>6.48228E-2</v>
-      </c>
-      <c r="G20" s="8">
-        <v>2.7959700000000001E-2</v>
+      <c r="F20" s="12">
+        <v>5.3370000000000001E-2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2.6325000000000001E-2</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="8">
-        <v>6.7467399999999997E-2</v>
+        <v>2.4462899999999999E-2</v>
       </c>
       <c r="K20" s="8">
-        <v>2.6019400000000002E-2</v>
+        <v>2.5041999999999998E-2</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>8.4334895307970059E-2</v>
+        <v>4.9625391748542094E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>2.4349272670233627E-2</v>
+        <v>2.316304400691346E-2</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="1"/>
-        <v>0.2887212058699562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="2" customFormat="1">
+        <v>0.46675790740924378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="2" customFormat="1">
       <c r="A21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="8"/>
@@ -2010,13 +2115,13 @@
       <c r="N21" s="8"/>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1">
+    <row r="22" spans="1:28" s="2" customFormat="1">
       <c r="A22" s="46"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="8"/>
@@ -2025,13 +2130,13 @@
       <c r="N22" s="8"/>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1">
+    <row r="23" spans="1:28" s="2" customFormat="1">
       <c r="A23" s="46"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="8"/>
@@ -2040,13 +2145,13 @@
       <c r="N23" s="8"/>
       <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1">
+    <row r="24" spans="1:28" s="2" customFormat="1">
       <c r="A24" s="46"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="8"/>
@@ -2055,7 +2160,7 @@
       <c r="N24" s="8"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1">
+    <row r="25" spans="1:28" s="2" customFormat="1">
       <c r="A25" s="46"/>
       <c r="B25" s="2" t="s">
         <v>57</v>
@@ -2063,34 +2168,121 @@
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="8">
-        <v>4.7192499999999998E-2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2.93432E-2</v>
+      <c r="F25" s="12">
+        <v>3.9724000000000002E-2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2.7569799999999998E-2</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="8">
-        <v>7.8722500000000001E-2</v>
+        <v>6.3668100000000005E-2</v>
       </c>
       <c r="K25" s="8">
-        <v>2.8819299999999999E-2</v>
+        <v>2.64911E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>8.0264061744649895E-2</v>
+        <v>6.5907366485074864E-2</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>2.6219963759503494E-2</v>
+        <v>2.437498440049855E-2</v>
       </c>
       <c r="P25" s="13">
         <f t="shared" si="1"/>
-        <v>0.32667127964342296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>0.36983702582045086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="43" customFormat="1">
+      <c r="A26" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="43">
+        <f xml:space="preserve"> ep_CorrectionFactors!M18</f>
+        <v>0.78402725000000006</v>
+      </c>
+      <c r="E26" s="43">
+        <f xml:space="preserve"> ep_CorrectionFactors!N18</f>
+        <v>6.7586967123847187E-4</v>
+      </c>
+      <c r="F26" s="43">
+        <v>8.2786100000000001E-2</v>
+      </c>
+      <c r="G26" s="43">
+        <v>2.7947199999999998E-2</v>
+      </c>
+      <c r="H26" s="43">
+        <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
+        <v>0.78459112500000006</v>
+      </c>
+      <c r="I26" s="43">
+        <f xml:space="preserve"> ep_CorrectionFactors!I18</f>
+        <v>6.7640811460241955E-4</v>
+      </c>
+      <c r="J26" s="43">
+        <v>4.2571600000000001E-2</v>
+      </c>
+      <c r="K26" s="43">
+        <v>2.8880200000000002E-2</v>
+      </c>
+      <c r="M26" s="44">
+        <f>(F26/$D$26+J26/$H$26)/2</f>
+        <v>7.9925222221858716E-2</v>
+      </c>
+      <c r="N26" s="44">
+        <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
+        <v>2.562004222641805E-2</v>
+      </c>
+      <c r="P26" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>1</v>
+      </c>
+      <c r="R26" s="43">
+        <v>1</v>
+      </c>
+      <c r="S26" s="43">
+        <v>1</v>
+      </c>
+      <c r="T26" s="44">
+        <f>(P26/$D$26+R26/$H$26)/2</f>
+        <v>1.2750075418699818</v>
+      </c>
+      <c r="U26" s="44">
+        <f>0.5*SQRT((P26/$D$26)^2*((Q26/P26)^2+($E$26/$D$26)^2)+(R26/$H$26)^2*((S26/R26)^2+($I$26/$H$26)^2))</f>
+        <v>0.90156687218614606</v>
+      </c>
+      <c r="W26" s="43">
+        <v>1</v>
+      </c>
+      <c r="X26" s="43">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="44">
+        <f>(W26/$D$26+Y26/$H$26)/2</f>
+        <v>1.2750075418699818</v>
+      </c>
+      <c r="AB26" s="44">
+        <f>0.5*SQRT((W26/$D$26)^2*((X26/W26)^2+($E$26/$D$26)^2)+(Y26/$H$26)^2*((Z26/Y26)^2+($I$26/$H$26)^2))</f>
+        <v>0.90156687218614606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="F27" s="1" t="s">
         <v>73</v>
       </c>
@@ -2137,7 +2329,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E28" sqref="E28"/>
+      <selection pane="topRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2147,19 +2339,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1">
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>48</v>
@@ -2283,8 +2475,12 @@
         <f xml:space="preserve"> ep_CorrectionFactors!N21</f>
         <v>1.6024705925538852E-3</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="12">
+        <v>2.2135800000000001E-2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2.2641600000000001E-2</v>
+      </c>
       <c r="H4" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H21</f>
         <v>0.62836350000000007</v>
@@ -2293,25 +2489,63 @@
         <f xml:space="preserve">  ep_CorrectionFactors!I21</f>
         <v>1.5925961509434838E-3</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="12">
+        <v>2.6235899999999999E-2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2.2001799999999998E-2</v>
+      </c>
       <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="12">
+        <f t="shared" ref="M4:M7" si="0">(F4/D4+J4/H4)/2</f>
+        <v>3.8412581672719479E-2</v>
+      </c>
+      <c r="N4" s="12">
+        <f>0.5*SQRT((F4/D4)^2*((G4/F4)^2+(E4/D4)^2)+(J4/H4)^2*((K4/J4)^2+(I4/H4)^2))</f>
+        <v>2.5064723862483294E-2</v>
+      </c>
       <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="P4" s="12">
+        <v>2.1669999999999998E-2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>2.2662600000000001E-2</v>
+      </c>
+      <c r="R4" s="12">
+        <v>2.5409000000000001E-2</v>
+      </c>
+      <c r="S4" s="12">
+        <v>2.2468999999999999E-2</v>
+      </c>
+      <c r="T4" s="12">
+        <f t="shared" ref="T4:T7" si="1">(P4/D4+R4/H4)/2</f>
+        <v>3.7385591069706493E-2</v>
+      </c>
+      <c r="U4" s="12">
+        <f t="shared" ref="U4:U7" si="2">0.5*SQRT((P4/D4)^2*((Q4/P4)^2+(E4/D4)^2)+(R4/H4)^2*((S4/R4)^2+(I4/H4)^2))</f>
+        <v>2.5337568294978109E-2</v>
+      </c>
       <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
+      <c r="W4" s="12">
+        <v>2.3085399999999999E-2</v>
+      </c>
+      <c r="X4" s="12">
+        <v>3.0169999999999999E-2</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>2.4705999999999999E-2</v>
+      </c>
+      <c r="AA4" s="12">
+        <f t="shared" ref="AA4:AA7" si="3">(W4/D4+Y4/H4)/2</f>
+        <v>4.4388035607944895E-2</v>
+      </c>
+      <c r="AB4" s="12">
+        <f t="shared" ref="AB4:AB7" si="4">0.5*SQRT((W4/D4)^2*((X4/W4)^2+(E4/D4)^2)+(Y4/H4)^2*((Z4/Y4)^2+(I4/H4)^2))</f>
+        <v>3.0947376062312466E-2</v>
+      </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
@@ -2334,10 +2568,10 @@
         <v>1.4393284024155155E-3</v>
       </c>
       <c r="F5" s="12">
-        <v>2.78014E-2</v>
+        <v>5.6283600000000003E-2</v>
       </c>
       <c r="G5" s="12">
-        <v>2.44487E-2</v>
+        <v>2.43828E-2</v>
       </c>
       <c r="H5" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H22</f>
@@ -2348,82 +2582,82 @@
         <v>1.4375731285746823E-3</v>
       </c>
       <c r="J5" s="12">
-        <v>1.13037E-2</v>
+        <v>5.3265399999999997E-2</v>
       </c>
       <c r="K5" s="12">
-        <v>2.4228E-2</v>
+        <v>2.28761E-2</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12">
-        <f t="shared" ref="M5:M7" si="0">(F5/D5+J5/H5)/2</f>
-        <v>2.3953950533962293E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7120513807592402E-2</v>
       </c>
       <c r="N5" s="12">
         <f>0.5*SQRT((F5/D5)^2*((G5/F5)^2+(E5/D5)^2)+(J5/H5)^2*((K5/J5)^2+(I5/H5)^2))</f>
-        <v>2.1089334355534086E-2</v>
+        <v>2.0484733832687303E-2</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12">
-        <v>2.9199200000000002E-2</v>
+        <v>5.6617000000000001E-2</v>
       </c>
       <c r="Q5" s="12">
-        <v>2.4525999999999999E-2</v>
+        <v>2.4330600000000001E-2</v>
       </c>
       <c r="R5" s="12">
-        <v>1.30508E-2</v>
+        <v>5.3577E-2</v>
       </c>
       <c r="S5" s="12">
-        <v>2.4118000000000001E-2</v>
+        <v>2.281E-2</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" ref="T5:T7" si="1">(P5/D5+R5/H5)/2</f>
-        <v>2.5880987009106175E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7515702888170145E-2</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" ref="U5:U7" si="2">0.5*SQRT((P5/D5)^2*((Q5/P5)^2+(E5/D5)^2)+(R5/H5)^2*((S5/R5)^2+(I5/H5)^2))</f>
-        <v>2.1075597297099728E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0433694866611455E-2</v>
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="12">
-        <v>2.9047799999999999E-2</v>
+        <v>4.9480000000000003E-2</v>
       </c>
       <c r="X5" s="12">
-        <v>2.4547300000000001E-2</v>
+        <v>2.7869999999999999E-2</v>
       </c>
       <c r="Y5" s="12">
-        <v>1.2789200000000001E-2</v>
+        <v>4.8834000000000002E-2</v>
       </c>
       <c r="Z5" s="12">
-        <v>2.4160899999999999E-2</v>
+        <v>2.6096000000000001E-2</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA7" si="3">(W5/D5+Y5/H5)/2</f>
-        <v>2.5627897663305661E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0237606359053786E-2</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" ref="AB5:AB7" si="4">0.5*SQRT((W5/D5)^2*((X5/W5)^2+(E5/D5)^2)+(Y5/H5)^2*((Z5/Y5)^2+(I5/H5)^2))</f>
-        <v>2.1103345494004947E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.3392624950300544E-2</v>
       </c>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12">
         <f xml:space="preserve"> ABS(M5-defaultFit!M5)</f>
-        <v>1.8332973592315831E-3</v>
+        <v>6.0399204665384509E-5</v>
       </c>
       <c r="AE5" s="12">
         <f xml:space="preserve"> ABS(T5-defaultFit!M5)</f>
-        <v>9.3739115912299525E-5</v>
+        <v>4.5558828524312756E-4</v>
       </c>
       <c r="AF5" s="12">
         <f xml:space="preserve"> ABS(AA5-defaultFit!M5)</f>
-        <v>1.5935022988821518E-4</v>
+        <v>6.8225082438732321E-3</v>
       </c>
       <c r="AG5" s="39">
         <f xml:space="preserve"> SQRT((AD5*AD5+AE5*AE5+AF5*AF5)/3)/ABS(defaultFit!M5)</f>
-        <v>4.1253843692411668E-2</v>
+        <v>5.8871112589438099E-2</v>
       </c>
       <c r="AH5" s="12">
         <f xml:space="preserve"> AG5*ABS(defaultFit!M5)</f>
-        <v>1.0638230938432923E-3</v>
+        <v>3.9479035570495384E-3</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="2" customFormat="1">
@@ -2441,10 +2675,10 @@
         <v>1.4336820602909141E-3</v>
       </c>
       <c r="F6" s="12">
-        <v>6.3617599999999996E-2</v>
+        <v>6.4411999999999997E-2</v>
       </c>
       <c r="G6" s="12">
-        <v>1.98172E-2</v>
+        <v>2.6397E-2</v>
       </c>
       <c r="H6" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H23</f>
@@ -2455,82 +2689,82 @@
         <v>1.4379333259925511E-3</v>
       </c>
       <c r="J6" s="12">
-        <v>6.80336E-2</v>
+        <v>5.5173800000000002E-2</v>
       </c>
       <c r="K6" s="12">
-        <v>1.90805E-2</v>
+        <v>2.6887299999999999E-2</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12">
         <f t="shared" si="0"/>
-        <v>7.8495665408083948E-2</v>
+        <v>7.1312853783496194E-2</v>
       </c>
       <c r="N6" s="12">
         <f>0.5*SQRT((F6/D6)^2*((G6/F6)^2+(E6/D6)^2)+(J6/H6)^2*((K6/J6)^2+(I6/H6)^2))</f>
-        <v>1.6404340863152966E-2</v>
+        <v>2.2466548741708288E-2</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12">
-        <v>6.3672800000000002E-2</v>
+        <v>2.6575000000000001E-2</v>
       </c>
       <c r="Q6" s="12">
-        <v>1.9725199999999998E-2</v>
+        <v>2.6291100000000001E-2</v>
       </c>
       <c r="R6" s="12">
-        <v>6.81919E-2</v>
+        <v>5.935E-2</v>
       </c>
       <c r="S6" s="12">
-        <v>1.90694E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="T6" s="12">
         <f t="shared" si="1"/>
-        <v>7.8622882501424518E-2</v>
+        <v>5.1206942883328527E-2</v>
       </c>
       <c r="U6" s="12">
         <f t="shared" si="2"/>
-        <v>1.6360173257109346E-2</v>
+        <v>2.2300340737413816E-2</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12">
-        <v>6.3453999999999997E-2</v>
+        <v>5.3664099999999999E-2</v>
       </c>
       <c r="X6" s="12">
-        <v>1.9829200000000002E-2</v>
+        <v>2.9267000000000001E-2</v>
       </c>
       <c r="Y6" s="12">
-        <v>6.7949999999999997E-2</v>
+        <v>5.7959999999999998E-2</v>
       </c>
       <c r="Z6" s="12">
-        <v>1.9098799999999999E-2</v>
+        <v>3.1928499999999999E-2</v>
       </c>
       <c r="AA6" s="12">
         <f t="shared" si="3"/>
-        <v>7.8348201276706303E-2</v>
+        <v>6.6554253878499017E-2</v>
       </c>
       <c r="AB6" s="12">
         <f t="shared" si="4"/>
-        <v>1.6417055109945906E-2</v>
+        <v>2.5822949553708733E-2</v>
       </c>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12">
         <f xml:space="preserve"> ABS(M6-defaultFit!M6)</f>
-        <v>5.3114488802130655E-5</v>
+        <v>3.1450376011275261E-3</v>
       </c>
       <c r="AE6" s="12">
         <f xml:space="preserve"> ABS(T6-defaultFit!M6)</f>
-        <v>1.8033158214270095E-4</v>
+        <v>2.3250948501295193E-2</v>
       </c>
       <c r="AF6" s="12">
         <f xml:space="preserve"> ABS(AA6-defaultFit!M6)</f>
-        <v>9.4349642575514148E-5</v>
+        <v>7.9036375061247027E-3</v>
       </c>
       <c r="AG6" s="39">
         <f xml:space="preserve"> SQRT((AD6*AD6+AE6*AE6+AF6*AF6)/3)/ABS(defaultFit!M6)</f>
-        <v>1.5481299519674303E-3</v>
+        <v>0.19197585190583191</v>
       </c>
       <c r="AH6" s="12">
         <f xml:space="preserve"> AG6*ABS(defaultFit!M6)</f>
-        <v>1.2143926258687046E-4</v>
+        <v>1.4294117129675042E-2</v>
       </c>
     </row>
     <row r="7" spans="1:34" s="2" customFormat="1">
@@ -2548,10 +2782,10 @@
         <v>8.7811908360996228E-4</v>
       </c>
       <c r="F7" s="12">
-        <v>3.4956500000000001E-2</v>
+        <v>7.2453000000000004E-2</v>
       </c>
       <c r="G7" s="12">
-        <v>2.4492900000000001E-2</v>
+        <v>2.1837700000000002E-2</v>
       </c>
       <c r="H7" s="3">
         <f xml:space="preserve"> ep_CorrectionFactors!H20</f>
@@ -2562,82 +2796,82 @@
         <v>8.7917852282684886E-4</v>
       </c>
       <c r="J7" s="12">
-        <v>1.3970700000000001E-2</v>
+        <v>2.64894E-2</v>
       </c>
       <c r="K7" s="12">
-        <v>2.43459E-2</v>
+        <v>2.1801999999999998E-2</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12">
         <f t="shared" si="0"/>
-        <v>3.3004379966714396E-2</v>
+        <v>6.6743396339831548E-2</v>
       </c>
       <c r="N7" s="12">
         <f>0.5*SQRT((F7/D7)^2*((G7/F7)^2+(E7/D7)^2)+(J7/H7)^2*((K7/J7)^2+(I7/H7)^2))</f>
-        <v>2.3292623107153757E-2</v>
+        <v>2.0812982629514844E-2</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12">
-        <v>3.6793399999999997E-2</v>
+        <v>7.1901099999999996E-2</v>
       </c>
       <c r="Q7" s="12">
-        <v>2.4600299999999999E-2</v>
+        <v>2.1749999999999999E-2</v>
       </c>
       <c r="R7" s="12">
-        <v>1.03055E-2</v>
+        <v>2.7028E-2</v>
       </c>
       <c r="S7" s="12">
-        <v>2.46451E-2</v>
+        <v>2.1590000000000002E-2</v>
       </c>
       <c r="T7" s="12">
         <f t="shared" si="1"/>
-        <v>3.177235342247104E-2</v>
+        <v>6.6734204952385148E-2</v>
       </c>
       <c r="U7" s="12">
         <f t="shared" si="2"/>
-        <v>2.3486390597820997E-2</v>
+        <v>2.0670217477760048E-2</v>
       </c>
       <c r="V7" s="12"/>
       <c r="W7" s="12">
-        <v>3.5777499999999997E-2</v>
+        <v>6.7874900000000002E-2</v>
       </c>
       <c r="X7" s="12">
-        <v>2.4461E-2</v>
+        <v>2.5326999999999999E-2</v>
       </c>
       <c r="Y7" s="12">
-        <v>8.6012999999999992E-3</v>
+        <v>2.6545599999999999E-2</v>
       </c>
       <c r="Z7" s="12">
-        <v>2.47104E-2</v>
+        <v>2.2338799999999999E-2</v>
       </c>
       <c r="AA7" s="12">
         <f t="shared" si="3"/>
-        <v>2.9937855834156778E-2</v>
+        <v>6.3692553216887271E-2</v>
       </c>
       <c r="AB7" s="12">
         <f t="shared" si="4"/>
-        <v>2.3451330037225722E-2</v>
+        <v>2.277857946306678E-2</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12">
         <f xml:space="preserve"> ABS(M7-defaultFit!M7)</f>
-        <v>1.8603029660576656E-3</v>
+        <v>5.6342494761274509E-5</v>
       </c>
       <c r="AE7" s="12">
         <f xml:space="preserve"> ABS(T7-defaultFit!M7)</f>
-        <v>6.282764218143097E-4</v>
+        <v>4.7151107314874485E-5</v>
       </c>
       <c r="AF7" s="12">
         <f xml:space="preserve"> ABS(AA7-defaultFit!M7)</f>
-        <v>1.2062211664999531E-3</v>
+        <v>2.9945006281830028E-3</v>
       </c>
       <c r="AG7" s="39">
         <f xml:space="preserve"> SQRT((AD7*AD7+AE7*AE7+AF7*AF7)/3)/ABS(defaultFit!M7)</f>
-        <v>4.2719746426393777E-2</v>
+        <v>2.5933009690947192E-2</v>
       </c>
       <c r="AH7" s="12">
         <f xml:space="preserve"> AG7*ABS(defaultFit!M7)</f>
-        <v>1.3304670721521381E-3</v>
+        <v>1.7293960136249246E-3</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1">
@@ -2694,86 +2928,86 @@
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="5">
-        <v>6.8509399999999998E-3</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>2.7708300000000002E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="5">
-        <v>4.5919399999999999E-2</v>
+        <v>4.7969999999999999E-2</v>
       </c>
       <c r="K9" s="5">
-        <v>2.68492E-2</v>
+        <v>2.4850000000000001E-2</v>
       </c>
       <c r="M9" s="5">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>3.3632337619663291E-2</v>
+        <v>7.6486834234157627E-2</v>
       </c>
       <c r="N9" s="5">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.4596948694967334E-2</v>
+        <v>2.2291487204163456E-2</v>
       </c>
       <c r="P9" s="5">
-        <v>8.7532900000000004E-3</v>
+        <v>7.2057999999999997E-2</v>
       </c>
       <c r="Q9" s="5">
-        <v>2.7558900000000001E-2</v>
+        <v>2.4488300000000001E-2</v>
       </c>
       <c r="R9" s="5">
-        <v>4.5821899999999999E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="S9" s="5">
-        <v>2.68065E-2</v>
+        <v>2.4590000000000001E-2</v>
       </c>
       <c r="T9" s="5">
         <f>(P9/D8+R9/H8)/2</f>
-        <v>3.4783394596271944E-2</v>
+        <v>7.673412336439886E-2</v>
       </c>
       <c r="U9" s="5">
         <f>0.5*SQRT((P9/D8)^2*((Q9/P9)^2+(E8/D8)^2)+(R9/H8)^2*((S9/R9)^2+(I8/H8)^2))</f>
-        <v>2.4509616816698755E-2</v>
+        <v>2.2123742411298719E-2</v>
       </c>
       <c r="W9" s="5">
-        <v>6.9181499999999996E-3</v>
+        <v>6.7330000000000001E-2</v>
       </c>
       <c r="X9" s="5">
-        <v>2.77577E-2</v>
+        <v>2.6980000000000001E-2</v>
       </c>
       <c r="Y9" s="5">
-        <v>4.4591800000000001E-2</v>
+        <v>3.3123E-2</v>
       </c>
       <c r="Z9" s="5">
-        <v>2.6822200000000001E-2</v>
+        <v>3.0904999999999998E-2</v>
       </c>
       <c r="AA9" s="5">
         <f>(W9/D8+Y9/H8)/2</f>
-        <v>3.2829153883456128E-2</v>
+        <v>6.404700534908235E-2</v>
       </c>
       <c r="AB9" s="5">
         <f>0.5*SQRT((W9/D8)^2*((X9/W9)^2+(E8/D8)^2)+(Y9/H8)^2*((Z9/Y9)^2+(I8/H8)^2))</f>
-        <v>2.4607635120470556E-2</v>
+        <v>2.6152270235261767E-2</v>
       </c>
       <c r="AD9" s="5">
         <f xml:space="preserve"> ABS(M9-defaultFit!M9)</f>
-        <v>6.2134274078105844E-5</v>
+        <v>3.1886646797034401E-4</v>
       </c>
       <c r="AE9" s="5">
         <f xml:space="preserve"> ABS(T9-defaultFit!M9)</f>
-        <v>1.2131912506867584E-3</v>
+        <v>5.6615559821157624E-4</v>
       </c>
       <c r="AF9" s="5">
         <f xml:space="preserve"> ABS(AA9-defaultFit!M9)</f>
-        <v>7.4104946212905781E-4</v>
+        <v>1.2120962417104933E-2</v>
       </c>
       <c r="AG9" s="14">
         <f xml:space="preserve"> SQRT((AD9*AD9+AE9*AE9+AF9*AF9)/3)/ABS(defaultFit!M9)</f>
-        <v>2.4472684578065774E-2</v>
+        <v>9.2008350640152545E-2</v>
       </c>
       <c r="AH9" s="5">
         <f xml:space="preserve"> AG9*ABS(defaultFit!M9)</f>
-        <v>8.2155299769803456E-4</v>
+        <v>7.0080890857791957E-3</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1">
@@ -2785,86 +3019,86 @@
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="5">
-        <v>6.3537899999999994E-2</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>2.6428199999999999E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="5">
-        <v>0.105889</v>
+        <v>8.6020600000000003E-2</v>
       </c>
       <c r="K10" s="5">
-        <v>2.5618100000000001E-2</v>
+        <v>2.3359999999999999E-2</v>
       </c>
       <c r="M10" s="5">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>0.10800058225775301</v>
+        <v>9.984268924421405E-2</v>
       </c>
       <c r="N10" s="5">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>2.346480369423078E-2</v>
+        <v>2.1627278616583923E-2</v>
       </c>
       <c r="P10" s="5">
-        <v>6.3191800000000006E-2</v>
+        <v>6.9658700000000004E-2</v>
       </c>
       <c r="Q10" s="5">
-        <v>2.6480299999999998E-2</v>
+        <v>2.4523E-2</v>
       </c>
       <c r="R10" s="5">
-        <v>0.10610899999999999</v>
+        <v>8.5120000000000001E-2</v>
       </c>
       <c r="S10" s="5">
-        <v>2.56603E-2</v>
+        <v>2.325E-2</v>
       </c>
       <c r="T10" s="5">
         <f>(P10/D8+R10/H8)/2</f>
-        <v>0.10792006330192838</v>
+        <v>9.8668461721513154E-2</v>
       </c>
       <c r="U10" s="5">
         <f>0.5*SQRT((P10/D8)^2*((Q10/P10)^2+(E8/D8)^2)+(R10/H8)^2*((S10/R10)^2+(I8/H8)^2))</f>
-        <v>2.3507380216802969E-2</v>
+        <v>2.1543410551096726E-2</v>
       </c>
       <c r="W10" s="5">
-        <v>6.39131E-2</v>
+        <v>6.4468899999999996E-2</v>
       </c>
       <c r="X10" s="5">
-        <v>2.6474299999999999E-2</v>
+        <v>2.5530000000000001E-2</v>
       </c>
       <c r="Y10" s="5">
-        <v>0.106171</v>
+        <v>9.3343499999999996E-2</v>
       </c>
       <c r="Z10" s="5">
-        <v>2.56937E-2</v>
+        <v>2.648E-2</v>
       </c>
       <c r="AA10" s="5">
         <f>(W10/D8+Y10/H8)/2</f>
-        <v>0.10841957109419002</v>
+        <v>0.10059938305242777</v>
       </c>
       <c r="AB10" s="5">
         <f>0.5*SQRT((W10/D8)^2*((X10/W10)^2+(E8/D8)^2)+(Y10/H8)^2*((Z10/Y10)^2+(I8/H8)^2))</f>
-        <v>2.351944557675734E-2</v>
+        <v>2.3448923595370631E-2</v>
       </c>
       <c r="AD10" s="5">
         <f xml:space="preserve"> ABS(M10-defaultFit!M10)</f>
-        <v>6.2298583011632797E-3</v>
+        <v>4.6533495863179397E-3</v>
       </c>
       <c r="AE10" s="5">
         <f xml:space="preserve"> ABS(T10-defaultFit!M10)</f>
-        <v>6.3103772569879091E-3</v>
+        <v>5.8275771090188361E-3</v>
       </c>
       <c r="AF10" s="5">
         <f xml:space="preserve"> ABS(AA10-defaultFit!M10)</f>
-        <v>5.8108694647262676E-3</v>
+        <v>3.8966557781042188E-3</v>
       </c>
       <c r="AG10" s="14">
         <f xml:space="preserve"> SQRT((AD10*AD10+AE10*AE10+AF10*AF10)/3)/ABS(defaultFit!M10)</f>
-        <v>5.3584255139439395E-2</v>
+        <v>4.6489062321824141E-2</v>
       </c>
       <c r="AH10" s="5">
         <f xml:space="preserve"> AG10*ABS(defaultFit!M10)</f>
-        <v>6.1209530715995364E-3</v>
+        <v>4.8579228615763569E-3</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1">
@@ -2969,86 +3203,86 @@
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="5">
-        <v>7.8154500000000002E-2</v>
+        <v>5.45572E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>2.3742699999999999E-2</v>
+        <v>2.2863999999999999E-2</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="5">
-        <v>-1.29914E-2</v>
+        <v>8.4229999999999999E-3</v>
       </c>
       <c r="K14" s="5">
-        <v>2.3470999999999999E-2</v>
+        <v>2.231E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>4.1562609426506233E-2</v>
+        <v>4.0160687338445515E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>2.128363103413914E-2</v>
+        <v>2.0365416790074524E-2</v>
       </c>
       <c r="P14" s="5">
-        <v>7.7530000000000002E-2</v>
+        <v>5.5883099999999998E-2</v>
       </c>
       <c r="Q14" s="5">
-        <v>2.3798400000000001E-2</v>
+        <v>2.2796299999999999E-2</v>
       </c>
       <c r="R14" s="5">
-        <v>-1.2886999999999999E-2</v>
+        <v>1.0751999999999999E-2</v>
       </c>
       <c r="S14" s="5">
-        <v>2.3437599999999999E-2</v>
+        <v>2.2164E-2</v>
       </c>
       <c r="T14" s="5">
         <f>(P14/D8+R14/H8)/2</f>
-        <v>4.1230876676870296E-2</v>
+        <v>4.2490469995418605E-2</v>
       </c>
       <c r="U14" s="5">
         <f>0.5*SQRT((P14/D8)^2*((Q14/P14)^2+(E8/D8)^2)+(R14/H8)^2*((S14/R14)^2+(I8/H8)^2))</f>
-        <v>2.1293980379399943E-2</v>
+        <v>2.0269584198487033E-2</v>
       </c>
       <c r="W14" s="5">
-        <v>7.8566200000000003E-2</v>
+        <v>5.3429400000000002E-2</v>
       </c>
       <c r="X14" s="5">
-        <v>2.3764400000000001E-2</v>
+        <v>2.3425000000000001E-2</v>
       </c>
       <c r="Y14" s="5">
-        <v>-1.31912E-2</v>
+        <v>7.2899999999999996E-3</v>
       </c>
       <c r="Z14" s="5">
-        <v>2.3475300000000001E-2</v>
+        <v>2.4029999999999999E-2</v>
       </c>
       <c r="AA14" s="5">
         <f>(W14/D8+Y14/H8)/2</f>
-        <v>4.1697836609968342E-2</v>
+        <v>3.8719420004773721E-2</v>
       </c>
       <c r="AB14" s="5">
         <f>0.5*SQRT((W14/D8)^2*((X14/W14)^2+(E14/D8)^2)+(Y14/H8)^2*((Z14/Y14)^2+(I8/H8)^2))</f>
-        <v>2.1295360068426788E-2</v>
+        <v>2.13934627240948E-2</v>
       </c>
       <c r="AD14" s="5">
         <f xml:space="preserve"> ABS(M14-defaultFit!M14)</f>
-        <v>3.9512340346843644E-4</v>
+        <v>2.9989172588811008E-4</v>
       </c>
       <c r="AE14" s="5">
         <f xml:space="preserve"> ABS(T14-defaultFit!M14)</f>
-        <v>6.3390653832498534E-5</v>
+        <v>2.6296743828611996E-3</v>
       </c>
       <c r="AF14" s="5">
         <f xml:space="preserve"> ABS(AA14-defaultFit!M14)</f>
-        <v>5.3035058693054471E-4</v>
+        <v>1.1413756077836845E-3</v>
       </c>
       <c r="AG14" s="14">
         <f xml:space="preserve"> SQRT((AD14*AD14+AE14*AE14+AF14*AF14)/3)/ABS(defaultFit!M14)</f>
-        <v>9.3176716194363369E-3</v>
+        <v>4.1748224708754625E-2</v>
       </c>
       <c r="AH14" s="5">
         <f xml:space="preserve"> AG14*ABS(defaultFit!M14)</f>
-        <v>3.8358511616040137E-4</v>
+        <v>1.6641174523027869E-3</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="2" customFormat="1">
@@ -3190,87 +3424,87 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="7">
-        <v>6.72875E-2</v>
+        <v>7.3209999999999997E-2</v>
       </c>
       <c r="G19" s="7">
-        <v>2.9960000000000001E-2</v>
+        <v>1.942E-2</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="7">
-        <v>1.52245E-2</v>
+        <v>4.0426999999999998E-2</v>
       </c>
       <c r="K19" s="7">
-        <v>2.9153200000000001E-2</v>
+        <v>1.8720000000000001E-2</v>
       </c>
       <c r="M19" s="7">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>5.261364216507932E-2</v>
+        <v>7.2451528734121168E-2</v>
       </c>
       <c r="N19" s="7">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>2.6650011736430418E-2</v>
+        <v>1.7196057583847794E-2</v>
       </c>
       <c r="P19" s="7">
-        <v>6.7030000000000006E-2</v>
+        <v>7.3034000000000002E-2</v>
       </c>
       <c r="Q19" s="7">
-        <v>3.00793E-2</v>
+        <v>1.9349999999999999E-2</v>
       </c>
       <c r="R19" s="7">
-        <v>1.7798000000000001E-2</v>
+        <v>4.1281999999999999E-2</v>
       </c>
       <c r="S19" s="7">
-        <v>2.8984699999999999E-2</v>
+        <v>1.8623000000000001E-2</v>
       </c>
       <c r="T19" s="7">
         <f>(P19/D8+R19/H8)/2</f>
-        <v>5.4089452132433651E-2</v>
+        <v>7.2884157525465149E-2</v>
       </c>
       <c r="U19" s="7">
         <f>0.5*SQRT((P19/D8)^2*((Q19/P19)^2+(E8/D8)^2)+(R19/H8)^2*((S19/R19)^2+(I8/H8)^2))</f>
-        <v>2.6630016764933873E-2</v>
+        <v>1.7121027564289445E-2</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="7">
-        <v>6.4701900000000007E-2</v>
+        <v>7.2111400000000006E-2</v>
       </c>
       <c r="X19" s="7">
-        <v>3.0080200000000001E-2</v>
+        <v>1.9990000000000001E-2</v>
       </c>
       <c r="Y19" s="7">
-        <v>1.47983E-2</v>
+        <v>4.7659100000000003E-2</v>
       </c>
       <c r="Z19" s="7">
-        <v>2.8934000000000001E-2</v>
+        <v>1.9677400000000001E-2</v>
       </c>
       <c r="AA19" s="7">
         <f>(W19/D8+Y19/H8)/2</f>
-        <v>5.0693113448864027E-2</v>
+        <v>7.6359749008238012E-2</v>
       </c>
       <c r="AB19" s="7">
         <f>0.5*SQRT((W19/D8)^2*((X19/W19)^2+(E8/D8)^2)+(Y19/H8)^2*((Z19/Y19)^2+(I8/H8)^2))</f>
-        <v>2.6608027580717852E-2</v>
+        <v>1.7882119882194028E-2</v>
       </c>
       <c r="AD19" s="7">
         <f xml:space="preserve"> ABS(M19-defaultFit!M19)</f>
-        <v>2.1702265813030801E-2</v>
+        <v>1.2000885947363593E-3</v>
       </c>
       <c r="AE19" s="7">
         <f xml:space="preserve"> ABS(T19-defaultFit!M19)</f>
-        <v>2.0226455845676471E-2</v>
+        <v>7.6745980339237851E-4</v>
       </c>
       <c r="AF19" s="7">
         <f xml:space="preserve"> ABS(AA19-defaultFit!M19)</f>
-        <v>2.3622794529246094E-2</v>
+        <v>2.7081316793804849E-3</v>
       </c>
       <c r="AG19" s="15">
         <f xml:space="preserve"> SQRT((AD19*AD19+AE19*AE19+AF19*AF19)/3)/ABS(defaultFit!M19)</f>
-        <v>0.2946166611445179</v>
+        <v>2.3986609911409856E-2</v>
       </c>
       <c r="AH19" s="7">
         <f xml:space="preserve"> AG19*ABS(defaultFit!M19)</f>
-        <v>2.1894704678434043E-2</v>
+        <v>1.7666526142117399E-3</v>
       </c>
     </row>
     <row r="20" spans="1:34" s="2" customFormat="1">
@@ -3284,87 +3518,87 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="12">
-        <v>6.2958100000000003E-2</v>
+        <v>5.3859999999999998E-2</v>
       </c>
       <c r="G20" s="12">
-        <v>2.79394E-2</v>
+        <v>2.6249999999999999E-2</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="8">
-        <v>6.7686700000000002E-2</v>
+        <v>2.3485099999999998E-2</v>
       </c>
       <c r="K20" s="8">
-        <v>2.61277E-2</v>
+        <v>2.4002099999999998E-2</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>8.3285469023401767E-2</v>
+        <v>4.9314753777475358E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>2.4386862824324045E-2</v>
+        <v>2.2676209397854297E-2</v>
       </c>
       <c r="P20" s="8">
-        <v>6.4729400000000006E-2</v>
+        <v>5.3345700000000003E-2</v>
       </c>
       <c r="Q20" s="8">
-        <v>2.7918200000000001E-2</v>
+        <v>2.631E-2</v>
       </c>
       <c r="R20" s="8">
-        <v>6.7982699999999993E-2</v>
+        <v>2.43728E-2</v>
       </c>
       <c r="S20" s="8">
-        <v>2.60694E-2</v>
+        <v>2.5149999999999999E-2</v>
       </c>
       <c r="T20" s="8">
         <f>(P20/D8+R20/H8)/2</f>
-        <v>8.460371865618857E-2</v>
+        <v>4.9552476396204512E-2</v>
       </c>
       <c r="U20" s="8">
         <f>0.5*SQRT((P20/D8)^2*((Q20/P20)^2+(E8/D8)^2)+(R20/H8)^2*((S20/R20)^2+(I8/H8)^2))</f>
-        <v>2.4351626058892285E-2</v>
+        <v>2.3203598139112862E-2</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="8">
-        <v>6.3797099999999995E-2</v>
+        <v>4.5471499999999998E-2</v>
       </c>
       <c r="X20" s="8">
-        <v>2.7979199999999999E-2</v>
+        <v>3.4549999999999997E-2</v>
       </c>
       <c r="Y20" s="8">
-        <v>6.7334000000000005E-2</v>
+        <v>1.82936E-2</v>
       </c>
       <c r="Z20" s="8">
-        <v>2.6028099999999998E-2</v>
+        <v>2.6722599999999999E-2</v>
       </c>
       <c r="AA20" s="8">
         <f>(W20/D8+Y20/H8)/2</f>
-        <v>8.3595760203144742E-2</v>
+        <v>4.0656719927654988E-2</v>
       </c>
       <c r="AB20" s="8">
         <f>0.5*SQRT((W20/D8)^2*((X20/W20)^2+(E8/D8)^2)+(Y20/H8)^2*((Z20/Y20)^2+(I8/H8)^2))</f>
-        <v>2.4362154373806556E-2</v>
+        <v>2.7847655489787196E-2</v>
       </c>
       <c r="AD20" s="8">
         <f xml:space="preserve"> ABS(M20-defaultFit!M20)</f>
-        <v>1.0494262845682917E-3</v>
+        <v>3.1063797106673646E-4</v>
       </c>
       <c r="AE20" s="8">
         <f xml:space="preserve"> ABS(T20-defaultFit!M20)</f>
-        <v>2.6882334821851095E-4</v>
+        <v>7.2915352337582506E-5</v>
       </c>
       <c r="AF20" s="8">
         <f xml:space="preserve"> ABS(AA20-defaultFit!M20)</f>
-        <v>7.3913510482531697E-4</v>
+        <v>8.9686718208871058E-3</v>
       </c>
       <c r="AG20" s="16">
         <f xml:space="preserve"> SQRT((AD20*AD20+AE20*AE20+AF20*AF20)/3)/ABS(defaultFit!M20)</f>
-        <v>8.9780375240780235E-3</v>
+        <v>0.10440907202698997</v>
       </c>
       <c r="AH20" s="8">
         <f xml:space="preserve"> AG20*ABS(defaultFit!M20)</f>
-        <v>7.5716185466414686E-4</v>
+        <v>5.1813411014411254E-3</v>
       </c>
     </row>
     <row r="21" spans="1:34" s="2" customFormat="1">
@@ -3504,87 +3738,87 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="12">
-        <v>5.2034799999999999E-2</v>
+        <v>3.90041E-2</v>
       </c>
       <c r="G25" s="12">
-        <v>5.9433399999999997E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="8">
-        <v>-1.5473199999999999E-2</v>
+        <v>6.0218500000000001E-2</v>
       </c>
       <c r="K25" s="8">
-        <v>5.8526700000000001E-2</v>
+        <v>2.6630000000000001E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>2.3323628342621035E-2</v>
+        <v>6.324992006387746E-2</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>5.3176312465332908E-2</v>
+        <v>2.4450233026570723E-2</v>
       </c>
       <c r="P25" s="8">
-        <v>8.8101399999999996E-2</v>
+        <v>3.9506100000000002E-2</v>
       </c>
       <c r="Q25" s="8">
-        <v>5.9098900000000003E-2</v>
+        <v>2.7560000000000001E-2</v>
       </c>
       <c r="R25" s="8">
-        <v>-1.5679599999999998E-2</v>
+        <v>6.3562999999999995E-2</v>
       </c>
       <c r="S25" s="8">
-        <v>5.6721899999999999E-2</v>
+        <v>2.6620999999999999E-2</v>
       </c>
       <c r="T25" s="8">
         <f>(P25/D8+R25/H8)/2</f>
-        <v>4.6192953571355472E-2</v>
+        <v>6.5701426917250214E-2</v>
       </c>
       <c r="U25" s="8">
         <f>0.5*SQRT((P25/D8)^2*((Q25/P25)^2+(E8/D8)^2)+(R25/H8)^2*((S25/R25)^2+(I8/H8)^2))</f>
-        <v>5.222186636137361E-2</v>
+        <v>2.4427894825800139E-2</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="8">
-        <v>9.2770599999999995E-2</v>
+        <v>3.8975200000000002E-2</v>
       </c>
       <c r="X25" s="8">
-        <v>5.9105600000000001E-2</v>
+        <v>2.785E-2</v>
       </c>
       <c r="Y25" s="8">
-        <v>-1.91787E-2</v>
+        <v>5.7290599999999997E-2</v>
       </c>
       <c r="Z25" s="8">
-        <v>5.7637099999999997E-2</v>
+        <v>2.77922E-2</v>
       </c>
       <c r="AA25" s="8">
         <f>(W25/D8+Y25/H8)/2</f>
-        <v>4.6940768622242494E-2</v>
+        <v>6.1365613263328379E-2</v>
       </c>
       <c r="AB25" s="8">
         <f>0.5*SQRT((W25/D8)^2*((X25/W25)^2+(E8/D8)^2)+(Y25/H8)^2*((Z25/Y25)^2+(I8/H8)^2))</f>
-        <v>5.2630320849664326E-2</v>
+        <v>2.5082633953513529E-2</v>
       </c>
       <c r="AD25" s="8">
         <f xml:space="preserve"> ABS(M25-defaultFit!M25)</f>
-        <v>5.694043340202886E-2</v>
+        <v>2.6574464211974042E-3</v>
       </c>
       <c r="AE25" s="8">
         <f xml:space="preserve"> ABS(T25-defaultFit!M25)</f>
-        <v>3.4071108173294423E-2</v>
+        <v>2.0593956782465062E-4</v>
       </c>
       <c r="AF25" s="8">
         <f xml:space="preserve"> ABS(AA25-defaultFit!M25)</f>
-        <v>3.3323293122407401E-2</v>
+        <v>4.5417532217464848E-3</v>
       </c>
       <c r="AG25" s="16">
         <f xml:space="preserve"> SQRT((AD25*AD25+AE25*AE25+AF25*AF25)/3)/ABS(defaultFit!M25)</f>
-        <v>0.53411126892293936</v>
+        <v>4.6131296118870305E-2</v>
       </c>
       <c r="AH25" s="8">
         <f xml:space="preserve"> AG25*ABS(defaultFit!M25)</f>
-        <v>4.2869939867344109E-2</v>
+        <v>3.0403922397378969E-3</v>
       </c>
     </row>
     <row r="26" spans="1:34" s="43" customFormat="1">
@@ -3606,10 +3840,10 @@
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F26" s="43">
-        <v>1</v>
+        <v>8.2610000000000003E-2</v>
       </c>
       <c r="G26" s="43">
-        <v>1</v>
+        <v>2.794E-2</v>
       </c>
       <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
@@ -3620,58 +3854,58 @@
         <v>6.7640811460241955E-4</v>
       </c>
       <c r="J26" s="43">
-        <v>1</v>
+        <v>4.4140699999999998E-2</v>
       </c>
       <c r="K26" s="43">
-        <v>1</v>
+        <v>2.8961000000000001E-2</v>
       </c>
       <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
+        <v>8.0812865036003226E-2</v>
       </c>
       <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>0.90156687218614606</v>
+        <v>2.5653868485718087E-2</v>
       </c>
       <c r="P26" s="43">
-        <v>1</v>
+        <v>8.2808000000000007E-2</v>
       </c>
       <c r="Q26" s="43">
-        <v>1</v>
+        <v>2.7952000000000001E-2</v>
       </c>
       <c r="R26" s="43">
-        <v>1</v>
+        <v>4.2713000000000001E-2</v>
       </c>
       <c r="S26" s="43">
-        <v>1</v>
+        <v>2.8915E-2</v>
       </c>
       <c r="T26" s="44">
         <f>(P26/$D$26+R26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
+        <v>8.002929920243422E-2</v>
       </c>
       <c r="U26" s="44">
         <f>0.5*SQRT((P26/$D$26)^2*((Q26/P26)^2+($E$26/$D$26)^2)+(R26/$H$26)^2*((S26/R26)^2+($I$26/$H$26)^2))</f>
-        <v>0.90156687218614606</v>
+        <v>2.5638106589521901E-2</v>
       </c>
       <c r="W26" s="43">
-        <v>1</v>
+        <v>5.1534299999999998E-2</v>
       </c>
       <c r="X26" s="43">
-        <v>1</v>
+        <v>3.1580999999999998E-2</v>
       </c>
       <c r="Y26" s="43">
-        <v>1</v>
+        <v>4.0218400000000001E-2</v>
       </c>
       <c r="Z26" s="43">
-        <v>1</v>
+        <v>3.7588000000000003E-2</v>
       </c>
       <c r="AA26" s="44">
         <f>(W26/$D$26+Y26/$H$26)/2</f>
-        <v>1.2750075418699818</v>
+        <v>5.849528545175485E-2</v>
       </c>
       <c r="AB26" s="44">
         <f>0.5*SQRT((W26/$D$26)^2*((X26/W26)^2+($E$26/$D$26)^2)+(Y26/$H$26)^2*((Z26/Y26)^2+($I$26/$H$26)^2))</f>
-        <v>0.90156687218614606</v>
+        <v>3.1295670293147691E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3700,9 +3934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V26" sqref="V26"/>
+      <selection pane="topRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3918,7 +4152,7 @@
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12">
-        <v>-1.6999999999999999E-3</v>
+        <v>-1.6900000000000001E-3</v>
       </c>
       <c r="Q4" s="12">
         <v>3.2500000000000001E-2</v>
@@ -3931,74 +4165,74 @@
       </c>
       <c r="T4" s="42">
         <f>(P4/D4+R4/H4)/2</f>
-        <v>-2.3149424370371045E-2</v>
+        <v>-2.3141502266830736E-2</v>
       </c>
       <c r="U4" s="42">
         <f>0.5*SQRT((P4/$D4)^2*((Q4/P4)^2+($E4/$D4)^2)+(R4/$H4)^2*((S4/R4)^2+($I4/$H4)^2))</f>
-        <v>3.5436911329515729E-2</v>
+        <v>3.5436911327580575E-2</v>
       </c>
       <c r="V4" s="12"/>
       <c r="W4" s="12">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2028999999999997E-2</v>
       </c>
       <c r="X4" s="12">
-        <v>3.4799999999999998E-2</v>
+        <v>3.4829899999999997E-2</v>
       </c>
       <c r="Y4" s="12">
-        <v>8.0100000000000005E-2</v>
+        <v>8.0101400000000003E-2</v>
       </c>
       <c r="Z4" s="12">
-        <v>3.3599999999999998E-2</v>
+        <v>3.3644E-2</v>
       </c>
       <c r="AA4" s="42">
         <f t="shared" ref="AA4:AA7" si="1">(W4/D4+Y4/H4)/2</f>
-        <v>9.7009827867776566E-2</v>
+        <v>9.703391597291483E-2</v>
       </c>
       <c r="AB4" s="42">
         <f>0.5*SQRT((W4/$D4)^2*((X4/W4)^2+($E4/$D4)^2)+(Y4/$H4)^2*((Z4/Y4)^2+($I4/$H4)^2))</f>
-        <v>3.8404407922721068E-2</v>
+        <v>3.8445787129509752E-2</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12">
         <f xml:space="preserve"> ABS(M4-defaultFit!M4)</f>
-        <v>1.5517896017989261</v>
+        <v>2.5826133009373559E-3</v>
       </c>
       <c r="AE4" s="12">
         <f xml:space="preserve"> ABS(T4-defaultFit!M4)</f>
-        <v>1.6110775436756557</v>
+        <v>6.1862633074126483E-2</v>
       </c>
       <c r="AF4" s="12">
         <f xml:space="preserve"> ABS(AA4-defaultFit!M4)</f>
-        <v>1.4909182914375081</v>
+        <v>5.831278516561908E-2</v>
       </c>
       <c r="AG4" s="39">
         <f xml:space="preserve"> SQRT((AD4*AD4+AE4*AE4+AF4*AF4)/3)/ABS(defaultFit!M4)</f>
-        <v>0.97739769380666164</v>
+        <v>1.2681822749205962</v>
       </c>
       <c r="AH4" s="12">
         <f xml:space="preserve"> AG4*ABS(defaultFit!M4)</f>
-        <v>1.5520372817397345</v>
+        <v>4.9105451754694308E-2</v>
       </c>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12">
-        <v>1</v>
+        <v>4.2028999999999997E-2</v>
       </c>
       <c r="AK4" s="12">
-        <v>1</v>
+        <v>3.4829899999999997E-2</v>
       </c>
       <c r="AL4" s="12">
-        <v>1</v>
+        <v>8.0101400000000003E-2</v>
       </c>
       <c r="AM4" s="12">
         <v>1</v>
       </c>
       <c r="AN4" s="12">
         <f t="shared" ref="AN4" si="2">(AJ4/Q4+AL4/U4)/2</f>
-        <v>29.494197208795004</v>
+        <v>1.77679725759306</v>
       </c>
       <c r="AO4" s="12">
         <f t="shared" ref="AO4" si="3">0.5*SQRT((AJ4/Q4)^2*((AK4/AJ4)^2+(R4/Q4)^2)+(AL4/U4)^2*((AM4/AL4)^2+(V4/U4)^2))</f>
-        <v>24.576377567412678</v>
+        <v>14.130272442580685</v>
       </c>
       <c r="AP4" s="12"/>
       <c r="AQ4" s="12">
@@ -4015,11 +4249,11 @@
       </c>
       <c r="AU4" s="12">
         <f t="shared" ref="AU4" si="4">(AQ4/X4+AS4/AB4)/2</f>
-        <v>27.387154939883164</v>
+        <v>27.360808059344798</v>
       </c>
       <c r="AV4" s="12">
         <f t="shared" ref="AV4" si="5">0.5*SQRT((AQ4/X4)^2*((AR4/AQ4)^2+(Y4/X4)^2)+(AS4/AB4)^2*((AT4/AS4)^2+(AC4/AB4)^2))</f>
-        <v>38.335515776720946</v>
+        <v>38.27767306664007</v>
       </c>
     </row>
     <row r="5" spans="1:48" s="2" customFormat="1">
@@ -4088,66 +4322,66 @@
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="40">
-        <v>0.11890000000000001</v>
+        <v>0.11894100000000001</v>
       </c>
       <c r="X5" s="40">
-        <v>3.7400000000000003E-2</v>
+        <v>3.7429999999999998E-2</v>
       </c>
       <c r="Y5" s="40">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>3.49E-2</v>
+        <v>6.3267500000000004E-2</v>
+      </c>
+      <c r="Z5" s="40">
+        <v>3.4860000000000002E-2</v>
       </c>
       <c r="AA5" s="42">
         <f t="shared" si="1"/>
-        <v>0.11161502029627177</v>
+        <v>0.11162020121045507</v>
       </c>
       <c r="AB5" s="42">
         <f t="shared" ref="AB5:AB7" si="8">0.5*SQRT((W5/$D5)^2*((X5/W5)^2+($E5/$D5)^2)+(Y5/$H5)^2*((Z5/Y5)^2+($I5/$H5)^2))</f>
-        <v>3.1341770687332605E-2</v>
+        <v>3.1338467307575328E-2</v>
       </c>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12">
         <f xml:space="preserve"> ABS(M5-defaultFit!M5)</f>
-        <v>2.702352218211718E-2</v>
+        <v>1.4249344527615962E-2</v>
       </c>
       <c r="AE5" s="12">
         <f xml:space="preserve"> ABS(T5-defaultFit!M5)</f>
-        <v>2.1304773723940618E-2</v>
+        <v>6.2577640433673754E-2</v>
       </c>
       <c r="AF5" s="12">
         <f xml:space="preserve"> ABS(AA5-defaultFit!M5)</f>
-        <v>8.5827772403077887E-2</v>
+        <v>4.4560086607528054E-2</v>
       </c>
       <c r="AG5" s="39">
         <f xml:space="preserve"> SQRT((AD5*AD5+AE5*AE5+AF5*AF5)/3)/ABS(defaultFit!M5)</f>
-        <v>2.0702935417762043</v>
+        <v>0.67267286467144582</v>
       </c>
       <c r="AH5" s="12">
         <f xml:space="preserve"> AG5*ABS(defaultFit!M5)</f>
-        <v>5.3387172773461312E-2</v>
+        <v>4.5109519395146375E-2</v>
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="40">
-        <v>1.9904100000000002E-3</v>
+        <v>0.11894100000000001</v>
       </c>
       <c r="AK5" s="40">
-        <v>5.51783E-2</v>
+        <v>3.7429999999999998E-2</v>
       </c>
       <c r="AL5" s="40">
-        <v>-1.31883E-3</v>
+        <v>6.3267500000000004E-2</v>
       </c>
       <c r="AM5" s="40">
         <v>4.6795099999999999E-2</v>
       </c>
       <c r="AN5" s="12">
         <f>(AJ5/D5+AL5/H5)/2</f>
-        <v>4.1026233186839311E-4</v>
+        <v>0.11162020121045507</v>
       </c>
       <c r="AO5" s="12">
         <f>0.5*SQRT((AJ5/D5)^2*((AK5/AJ5)^2+(E5/D5)^2)+(AL5/H5)^2*((AM5/AL5)^2+(I5/H5)^2))</f>
-        <v>4.432471741173883E-2</v>
+        <v>3.672059793368989E-2</v>
       </c>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="40">
@@ -4237,66 +4471,66 @@
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="40">
-        <v>4.1700000000000001E-2</v>
+        <v>4.1738999999999998E-2</v>
       </c>
       <c r="X6" s="40">
-        <v>4.0300000000000002E-2</v>
+        <v>4.0317499999999999E-2</v>
       </c>
       <c r="Y6" s="40">
-        <v>7.5399999999999995E-2</v>
+        <v>7.5358599999999998E-2</v>
       </c>
       <c r="Z6" s="40">
-        <v>3.9899999999999998E-2</v>
+        <v>3.9849999999999997E-2</v>
       </c>
       <c r="AA6" s="42">
         <f t="shared" si="1"/>
-        <v>6.9794814717108883E-2</v>
+        <v>6.9793450777967975E-2</v>
       </c>
       <c r="AB6" s="42">
         <f t="shared" si="8"/>
-        <v>3.3815356713500049E-2</v>
+        <v>3.3801887708891344E-2</v>
       </c>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12">
         <f xml:space="preserve"> ABS(M6-defaultFit!M6)</f>
-        <v>2.2446091667259374E-2</v>
+        <v>1.8461432132601277E-2</v>
       </c>
       <c r="AE6" s="12">
         <f xml:space="preserve"> ABS(T6-defaultFit!M6)</f>
-        <v>4.0475360104001365E-2</v>
+        <v>3.6490700569343268E-2</v>
       </c>
       <c r="AF6" s="12">
         <f xml:space="preserve"> ABS(AA6-defaultFit!M6)</f>
-        <v>8.6477362021729343E-3</v>
+        <v>4.6644406066557453E-3</v>
       </c>
       <c r="AG6" s="39">
         <f xml:space="preserve"> SQRT((AD6*AD6+AE6*AE6+AF6*AF6)/3)/ABS(defaultFit!M6)</f>
-        <v>0.34654313684526056</v>
+        <v>0.3191573990075468</v>
       </c>
       <c r="AH6" s="12">
         <f xml:space="preserve"> AG6*ABS(defaultFit!M6)</f>
-        <v>2.7183727657711997E-2</v>
+        <v>2.3763786949902933E-2</v>
       </c>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="40">
-        <v>1.7029099999999998E-2</v>
+        <v>4.1738999999999998E-2</v>
       </c>
       <c r="AK6" s="40">
-        <v>4.29031E-2</v>
+        <v>4.0317499999999999E-2</v>
       </c>
       <c r="AL6" s="40">
-        <v>2.22119E-2</v>
+        <v>7.5358599999999998E-2</v>
       </c>
       <c r="AM6" s="40">
         <v>4.08134E-2</v>
       </c>
       <c r="AN6" s="12">
         <f t="shared" ref="AN6:AN7" si="9">(AJ6/D6+AL6/H6)/2</f>
-        <v>2.3393813031585942E-2</v>
+        <v>6.9793450777967975E-2</v>
       </c>
       <c r="AO6" s="12">
-        <f t="shared" ref="AO6:AO7" si="10">0.5*SQRT((AJ6/D6)^2*((AK6/AJ6)^2+(E6/D6)^2)+(AL6/H6)^2*((AM6/AL6)^2+(I6/H6)^2))</f>
-        <v>3.5310467145851614E-2</v>
+        <f t="shared" ref="AO6:AO9" si="10">0.5*SQRT((AJ6/D6)^2*((AK6/AJ6)^2+(E6/D6)^2)+(AL6/H6)^2*((AM6/AL6)^2+(I6/H6)^2))</f>
+        <v>3.4207007340872675E-2</v>
       </c>
       <c r="AP6" s="12"/>
       <c r="AQ6" s="40">
@@ -4386,66 +4620,66 @@
       </c>
       <c r="V7" s="12"/>
       <c r="W7" s="40">
-        <v>6.1499999999999999E-2</v>
+        <v>6.1541499999999999E-2</v>
       </c>
       <c r="X7" s="40">
-        <v>3.56E-2</v>
+        <v>3.5577600000000001E-2</v>
       </c>
       <c r="Y7" s="40">
-        <v>-1.8E-3</v>
+        <v>-1.789E-3</v>
       </c>
       <c r="Z7" s="40">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3008000000000003E-2</v>
       </c>
       <c r="AA7" s="42">
         <f t="shared" si="1"/>
-        <v>4.0278925354698548E-2</v>
+        <v>4.0314341422846976E-2</v>
       </c>
       <c r="AB7" s="42">
         <f t="shared" si="8"/>
-        <v>3.274134234388186E-2</v>
+        <v>3.2733924895734831E-2</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12">
         <f xml:space="preserve"> ABS(M7-defaultFit!M7)</f>
-        <v>9.6061902762720891E-3</v>
+        <v>2.5936786568141454E-2</v>
       </c>
       <c r="AE7" s="12">
         <f xml:space="preserve"> ABS(T7-defaultFit!M7)</f>
-        <v>1.2237226671091533E-2</v>
+        <v>2.330575017332201E-2</v>
       </c>
       <c r="AF7" s="12">
         <f xml:space="preserve"> ABS(AA7-defaultFit!M7)</f>
-        <v>9.1348483540418177E-3</v>
+        <v>2.6372712422223298E-2</v>
       </c>
       <c r="AG7" s="39">
         <f xml:space="preserve"> SQRT((AD7*AD7+AE7*AE7+AF7*AF7)/3)/ABS(defaultFit!M7)</f>
-        <v>0.33444299245186088</v>
+        <v>0.37850624301922681</v>
       </c>
       <c r="AH7" s="12">
         <f xml:space="preserve"> AG7*ABS(defaultFit!M7)</f>
-        <v>1.0415918309250812E-2</v>
+        <v>2.5241466208918432E-2</v>
       </c>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="40">
-        <v>0.114041</v>
+        <v>6.1541499999999999E-2</v>
       </c>
       <c r="AK7" s="40">
-        <v>5.7275100000000002E-2</v>
+        <v>3.5577600000000001E-2</v>
       </c>
       <c r="AL7" s="40">
-        <v>-2.0894300000000001E-2</v>
+        <v>-1.789E-3</v>
       </c>
       <c r="AM7" s="40">
         <v>6.2213699999999997E-2</v>
       </c>
       <c r="AN7" s="12">
         <f t="shared" si="9"/>
-        <v>6.2852368097342085E-2</v>
+        <v>4.0314341422846976E-2</v>
       </c>
       <c r="AO7" s="12">
         <f t="shared" si="10"/>
-        <v>5.7034539219146925E-2</v>
+        <v>4.8330911889567132E-2</v>
       </c>
       <c r="AP7" s="12"/>
       <c r="AQ7" s="40">
@@ -4535,106 +4769,106 @@
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="27">
-        <v>4.7800000000000002E-2</v>
+        <v>4.9160000000000002E-2</v>
       </c>
       <c r="G9" s="27">
-        <v>2.7099999999999999E-2</v>
+        <v>2.7036999999999999E-2</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="27">
-        <v>1.26E-2</v>
+        <v>1.374E-2</v>
       </c>
       <c r="K9" s="27">
-        <v>2.7099999999999999E-2</v>
+        <v>2.7009999999999999E-2</v>
       </c>
       <c r="M9" s="20">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>3.8513294372673812E-2</v>
+        <v>4.0107104216312542E-2</v>
       </c>
       <c r="N9" s="20">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.443246826988402E-2</v>
+        <v>2.4363511266999902E-2</v>
       </c>
       <c r="P9" s="31">
-        <v>1.2999999999999999E-3</v>
+        <v>1.2650000000000001E-3</v>
       </c>
       <c r="Q9" s="31">
-        <v>3.7100000000000001E-2</v>
+        <v>3.7060000000000003E-2</v>
       </c>
       <c r="R9" s="31">
         <v>-3.9899999999999998E-2</v>
       </c>
       <c r="S9" s="31">
-        <v>3.9300000000000002E-2</v>
+        <v>3.9269999999999999E-2</v>
       </c>
       <c r="T9" s="20">
         <f>(P9/D8+R9/H8)/2</f>
-        <v>-2.4598203959856121E-2</v>
+        <v>-2.4620524612614044E-2</v>
       </c>
       <c r="U9" s="20">
         <f>0.5*SQRT((P9/$D8)^2*((Q9/P9)^2+($E8/$D8)^2)+(R9/$H8)^2*((S9/R9)^2+($I8/$H8)^2))</f>
-        <v>3.4453411773320175E-2</v>
+        <v>3.4421996967326215E-2</v>
       </c>
       <c r="W9" s="31">
-        <v>0.10630000000000001</v>
+        <v>0.10633099999999999</v>
       </c>
       <c r="X9" s="31">
-        <v>3.9100000000000003E-2</v>
+        <v>3.909E-2</v>
       </c>
       <c r="Y9" s="31">
-        <v>7.3499999999999996E-2</v>
+        <v>7.3515499999999998E-2</v>
       </c>
       <c r="Z9" s="31">
-        <v>3.6499999999999998E-2</v>
+        <v>3.6516899999999998E-2</v>
       </c>
       <c r="AA9" s="20">
         <f>(W9/D8+Y9/H8)/2</f>
-        <v>0.11463069462629806</v>
+        <v>0.11466034210370413</v>
       </c>
       <c r="AB9" s="20">
         <f>0.5*SQRT((W9/D8)^2*((X9/W9)^2+(E8/D8)^2)+(Y9/H8)^2*((Z9/Y9)^2+(I8/H8)^2))</f>
-        <v>3.4100279321512598E-2</v>
+        <v>3.410296462309674E-2</v>
       </c>
       <c r="AD9" s="20">
         <f xml:space="preserve"> ABS(M9-defaultFit!M9)</f>
-        <v>4.9430910270886266E-3</v>
+        <v>3.6060863549874742E-2</v>
       </c>
       <c r="AE9" s="20">
         <f xml:space="preserve"> ABS(T9-defaultFit!M9)</f>
-        <v>5.8168407305441303E-2</v>
+        <v>0.10078849237880133</v>
       </c>
       <c r="AF9" s="20">
         <f xml:space="preserve"> ABS(AA9-defaultFit!M9)</f>
-        <v>8.1060491280712882E-2</v>
+        <v>3.8492374337516844E-2</v>
       </c>
       <c r="AG9" s="26">
         <f xml:space="preserve"> SQRT((AD9*AD9+AE9*AE9+AF9*AF9)/3)/ABS(defaultFit!M9)</f>
-        <v>1.7180056262451391</v>
+        <v>0.86226415771007536</v>
       </c>
       <c r="AH9" s="20">
         <f xml:space="preserve"> AG9*ABS(defaultFit!M9)</f>
-        <v>5.767379822190874E-2</v>
+        <v>6.567690857039965E-2</v>
       </c>
       <c r="AJ9" s="31">
-        <v>1.20997E-2</v>
+        <v>0.10633099999999999</v>
       </c>
       <c r="AK9" s="31">
-        <v>6.3805500000000001E-2</v>
+        <v>3.909E-2</v>
       </c>
       <c r="AL9" s="31">
-        <v>-5.61672E-2</v>
+        <v>7.3515499999999998E-2</v>
       </c>
       <c r="AM9" s="31">
-        <v>7.8956799999999994E-2</v>
-      </c>
-      <c r="AN9" s="20" t="e">
-        <f>(AJ9/Q8+AL9/U8)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO9" s="20" t="e">
-        <f>0.5*SQRT((AJ9/Q8)^2*((AK9/AJ9)^2+(R8/Q8)^2)+(AL9/U8)^2*((AM9/AL9)^2+(V8/U8)^2))</f>
-        <v>#DIV/0!</v>
+        <v>3.6516899999999998E-2</v>
+      </c>
+      <c r="AN9" s="20">
+        <f>(AJ9/D8+AL9/H8)/2</f>
+        <v>0.11466034210370413</v>
+      </c>
+      <c r="AO9" s="20">
+        <f>0.5*SQRT((AJ9/D8)^2*((AK9/AJ9)^2+(E8/D8)^2)+(AL9/H8)^2*((AM9/AL9)^2+(I8/H8)^2))</f>
+        <v>3.410296462309674E-2</v>
       </c>
       <c r="AQ9" s="31">
         <v>1.20997E-2</v>
@@ -4666,107 +4900,107 @@
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="27">
-        <v>6.7599999999999993E-2</v>
+        <v>6.3999E-2</v>
       </c>
       <c r="G10" s="27">
-        <v>2.58E-2</v>
+        <v>2.571E-2</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="27">
-        <v>7.4200000000000002E-2</v>
+        <v>7.4110200000000001E-2</v>
       </c>
       <c r="K10" s="27">
-        <v>2.4500000000000001E-2</v>
+        <v>2.4455999999999999E-2</v>
       </c>
       <c r="M10" s="20">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>9.0396522229544127E-2</v>
+        <v>8.8042818667609282E-2</v>
       </c>
       <c r="N10" s="20">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>2.2682458194215788E-2</v>
+        <v>2.2621527811315E-2</v>
       </c>
       <c r="O10" s="30"/>
       <c r="P10" s="31">
-        <v>5.8200000000000002E-2</v>
+        <v>5.815E-2</v>
       </c>
       <c r="Q10" s="31">
-        <v>3.4799999999999998E-2</v>
+        <v>3.4823E-2</v>
       </c>
       <c r="R10" s="31">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4019999999999999E-2</v>
       </c>
       <c r="S10" s="31">
-        <v>3.4200000000000001E-2</v>
+        <v>3.4216999999999997E-2</v>
       </c>
       <c r="T10" s="20">
         <f>(P10/D8+R10/H8)/2</f>
-        <v>7.152888559192988E-2</v>
+        <v>7.150974443725143E-2</v>
       </c>
       <c r="U10" s="20">
         <f>0.5*SQRT((P10/$D8)^2*((Q10/P10)^2+($E8/$D8)^2)+(R10/$H8)^2*((S10/R10)^2+($I8/$H8)^2))</f>
-        <v>3.1105446515708124E-2</v>
+        <v>3.1123502696077082E-2</v>
       </c>
       <c r="W10" s="31">
-        <v>6.9400000000000003E-2</v>
+        <v>6.9445400000000004E-2</v>
       </c>
       <c r="X10" s="31">
-        <v>3.7999999999999999E-2</v>
+        <v>3.80355E-2</v>
       </c>
       <c r="Y10" s="31">
-        <v>0.1037</v>
+        <v>0.103728</v>
       </c>
       <c r="Z10" s="31">
-        <v>3.5099999999999999E-2</v>
+        <v>3.50817E-2</v>
       </c>
       <c r="AA10" s="20">
         <f>(W10/D8+Y10/H8)/2</f>
-        <v>0.11034404238915166</v>
+        <v>0.11039083915340939</v>
       </c>
       <c r="AB10" s="20">
         <f>0.5*SQRT((W10/D8)^2*((X10/W10)^2+(E8/D8)^2)+(Y10/H8)^2*((Z10/Y10)^2+(I8/H8)^2))</f>
-        <v>3.2979187953788923E-2</v>
+        <v>3.2987922806132941E-2</v>
       </c>
       <c r="AD10" s="20">
         <f xml:space="preserve"> ABS(M10-defaultFit!M10)</f>
-        <v>2.3833918329372164E-2</v>
+        <v>1.6453220162922708E-2</v>
       </c>
       <c r="AE10" s="20">
         <f xml:space="preserve"> ABS(T10-defaultFit!M10)</f>
-        <v>4.270155496698641E-2</v>
+        <v>3.298629439328056E-2</v>
       </c>
       <c r="AF10" s="20">
         <f xml:space="preserve"> ABS(AA10-defaultFit!M10)</f>
-        <v>3.8863981697646321E-3</v>
+        <v>5.8948003228773971E-3</v>
       </c>
       <c r="AG10" s="26">
         <f xml:space="preserve"> SQRT((AD10*AD10+AE10*AE10+AF10*AF10)/3)/ABS(defaultFit!M10)</f>
-        <v>0.24794645453891015</v>
+        <v>0.20625346342116926</v>
       </c>
       <c r="AH10" s="20">
         <f xml:space="preserve"> AG10*ABS(defaultFit!M10)</f>
-        <v>2.8323032737001017E-2</v>
+        <v>2.1552669922590213E-2</v>
       </c>
       <c r="AJ10" s="31">
-        <v>6.4300300000000005E-2</v>
+        <v>6.9445400000000004E-2</v>
       </c>
       <c r="AK10" s="31">
-        <v>6.8146700000000004E-2</v>
+        <v>3.80355E-2</v>
       </c>
       <c r="AL10" s="31">
-        <v>8.7185899999999997E-2</v>
+        <v>0.103728</v>
       </c>
       <c r="AM10" s="31">
-        <v>6.4541500000000002E-2</v>
-      </c>
-      <c r="AN10" s="20" t="e">
-        <f>(AJ10/Q8+AL10/U8)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO10" s="20" t="e">
-        <f>0.5*SQRT((AJ10/Q8)^2*((AK10/AJ10)^2+(R8/Q8)^2)+(AL10/U8)^2*((AM10/AL10)^2+(V8/U8)^2))</f>
-        <v>#DIV/0!</v>
+        <v>3.50817E-2</v>
+      </c>
+      <c r="AN10" s="20">
+        <f>(AJ10/D8+AL10/H8)/2</f>
+        <v>0.11039083915340939</v>
+      </c>
+      <c r="AO10" s="20">
+        <f>0.5*SQRT((AJ10/D8)^2*((AK10/AJ10)^2+(E8/D8)^2)+(AL10/H8)^2*((AM10/AL10)^2+(I8/H8)^2))</f>
+        <v>3.2987922806132941E-2</v>
       </c>
       <c r="AQ10" s="31">
         <v>6.4300300000000005E-2</v>
@@ -4927,106 +5161,106 @@
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="27">
-        <v>5.3800000000000001E-2</v>
+        <v>5.1920000000000001E-2</v>
       </c>
       <c r="G14" s="27">
-        <v>2.3900000000000001E-2</v>
+        <v>2.3518000000000001E-2</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="27">
-        <v>-2.0000000000000001E-4</v>
+        <v>-3.7599999999999999E-3</v>
       </c>
       <c r="K14" s="27">
-        <v>2.3300000000000001E-2</v>
+        <v>2.3172999999999999E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>3.4182577032422889E-2</v>
+        <v>3.0714941515746108E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>2.1278904288591652E-2</v>
+        <v>2.1048227417714574E-2</v>
       </c>
       <c r="P14" s="27">
-        <v>4.8500000000000001E-2</v>
+        <v>4.8434999999999999E-2</v>
       </c>
       <c r="Q14" s="27">
-        <v>3.09E-2</v>
+        <v>3.0929999999999999E-2</v>
       </c>
       <c r="R14" s="27">
-        <v>1.2699999999999999E-2</v>
+        <v>1.2664999999999999E-2</v>
       </c>
       <c r="S14" s="27">
-        <v>3.1199999999999999E-2</v>
+        <v>3.1316099999999999E-2</v>
       </c>
       <c r="T14" s="5">
         <f>(P14/D8+R14/H8)/2</f>
-        <v>3.9023434888425225E-2</v>
+        <v>3.8959677636381557E-2</v>
       </c>
       <c r="U14" s="5">
         <f>0.5*SQRT((P14/$D8)^2*((Q14/P14)^2+($E8/$D8)^2)+(R14/$H8)^2*((S14/R14)^2+($I8/$H8)^2))</f>
-        <v>2.7993883973731939E-2</v>
+        <v>2.8059928568483283E-2</v>
       </c>
       <c r="W14" s="27">
-        <v>5.6899999999999999E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="X14" s="27">
-        <v>3.5799999999999998E-2</v>
+        <v>3.5840400000000001E-2</v>
       </c>
       <c r="Y14" s="27">
-        <v>-2.2700000000000001E-2</v>
+        <v>-2.2748600000000001E-2</v>
       </c>
       <c r="Z14" s="27">
-        <v>3.4299999999999997E-2</v>
+        <v>3.4313000000000003E-2</v>
       </c>
       <c r="AA14" s="5">
         <f>(W14/D8+Y14/H8)/2</f>
-        <v>2.1820870500429794E-2</v>
+        <v>2.1981218835363837E-2</v>
       </c>
       <c r="AB14" s="5">
         <f>0.5*SQRT((W14/D8)^2*((X14/W14)^2+(E8/D8)^2)+(Y14/H8)^2*((Z14/Y14)^2+(I8/H8)^2))</f>
-        <v>3.1607644653002989E-2</v>
+        <v>3.1631986454286665E-2</v>
       </c>
       <c r="AD14" s="5">
         <f xml:space="preserve"> ABS(M14-defaultFit!M14)</f>
-        <v>6.9849089906149076E-3</v>
+        <v>9.145854096811297E-3</v>
       </c>
       <c r="AE14" s="5">
         <f xml:space="preserve"> ABS(T14-defaultFit!M14)</f>
-        <v>2.1440511346125721E-3</v>
+        <v>9.0111797617584838E-4</v>
       </c>
       <c r="AF14" s="5">
         <f xml:space="preserve"> ABS(AA14-defaultFit!M14)</f>
-        <v>1.9346615522608003E-2</v>
+        <v>1.7879576777193568E-2</v>
       </c>
       <c r="AG14" s="14">
         <f xml:space="preserve"> SQRT((AD14*AD14+AE14*AE14+AF14*AF14)/3)/ABS(defaultFit!M14)</f>
-        <v>0.29003018349451348</v>
+        <v>0.29117776904664344</v>
       </c>
       <c r="AH14" s="5">
         <f xml:space="preserve"> AG14*ABS(defaultFit!M14)</f>
-        <v>1.1939813525269471E-2</v>
+        <v>1.1606577538888699E-2</v>
       </c>
       <c r="AJ14" s="27">
-        <v>4.6586599999999999E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="AK14" s="27">
-        <v>4.8473799999999997E-2</v>
+        <v>3.5840400000000001E-2</v>
       </c>
       <c r="AL14" s="27">
-        <v>-3.3009799999999999E-2</v>
+        <v>-2.2748600000000001E-2</v>
       </c>
       <c r="AM14" s="27">
-        <v>4.9094699999999998E-2</v>
-      </c>
-      <c r="AN14" s="5" t="e">
-        <f>(AJ14/Q8+AL14/U8)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO14" s="5" t="e">
-        <f>0.5*SQRT((AJ14/Q8)^2*((AK14/AJ14)^2+(R14/Q8)^2)+(AL14/U8)^2*((AM14/AL14)^2+(V8/U8)^2))</f>
-        <v>#DIV/0!</v>
+        <v>3.4313000000000003E-2</v>
+      </c>
+      <c r="AN14" s="5">
+        <f>(AJ14/D8+AL14/H8)/2</f>
+        <v>2.1981218835363837E-2</v>
+      </c>
+      <c r="AO14" s="5">
+        <f>0.5*SQRT((AJ14/D8)^2*((AK14/AJ14)^2+(E8/D8)^2)+(AL14/H8)^2*((AM14/AL14)^2+(I8/H8)^2))</f>
+        <v>3.1631986454286665E-2</v>
       </c>
       <c r="AQ14" s="27">
         <v>4.6586599999999999E-2</v>
@@ -5248,87 +5482,87 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="33">
-        <v>6.6000000000000003E-2</v>
+        <v>6.6414000000000001E-2</v>
       </c>
       <c r="G19" s="33">
-        <v>2.0299999999999999E-2</v>
+        <v>2.0224499999999999E-2</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="33">
-        <v>2.5700000000000001E-2</v>
+        <v>2.7390000000000001E-2</v>
       </c>
       <c r="K19" s="33">
-        <v>1.9599999999999999E-2</v>
+        <v>1.9529999999999999E-2</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>5.8468331144468061E-2</v>
+        <v>5.9809346663968019E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>1.7989289129670499E-2</v>
+        <v>1.792366640480314E-2</v>
       </c>
       <c r="P19" s="33">
-        <v>5.33E-2</v>
+        <v>5.3257800000000001E-2</v>
       </c>
       <c r="Q19" s="33">
-        <v>2.7900000000000001E-2</v>
+        <v>2.7871E-2</v>
       </c>
       <c r="R19" s="33">
-        <v>2.52E-2</v>
+        <v>2.5203199999999999E-2</v>
       </c>
       <c r="S19" s="33">
-        <v>2.76E-2</v>
+        <v>2.7628799999999998E-2</v>
       </c>
       <c r="T19" s="21">
         <f>(P19/D8+R19/H8)/2</f>
-        <v>5.0050485555056728E-2</v>
+        <v>5.0025612503899017E-2</v>
       </c>
       <c r="U19" s="21">
         <f>0.5*SQRT((P19/$D8)^2*((Q19/P19)^2+($E8/$D8)^2)+(R19/$H8)^2*((S19/R19)^2+($I8/$H8)^2))</f>
-        <v>2.5018955118583965E-2</v>
+        <v>2.5018718934980477E-2</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="32">
-        <v>8.4000000000000005E-2</v>
+        <v>8.4004999999999996E-2</v>
       </c>
       <c r="X19" s="32">
-        <v>2.9399999999999999E-2</v>
+        <v>2.9430000000000001E-2</v>
       </c>
       <c r="Y19" s="32">
-        <v>3.3700000000000001E-2</v>
+        <v>3.3725699999999997E-2</v>
       </c>
       <c r="Z19" s="32">
-        <v>2.75E-2</v>
+        <v>2.7539999999999999E-2</v>
       </c>
       <c r="AA19" s="21">
         <f>(W19/D8+Y19/H8)/2</f>
-        <v>7.5045720838834748E-2</v>
+        <v>7.5065287460886823E-2</v>
       </c>
       <c r="AB19" s="21">
         <f>0.5*SQRT((W19/D8)^2*((X19/W19)^2+(E8/D8)^2)+(Y19/H8)^2*((Z19/Y19)^2+(I8/H8)^2))</f>
-        <v>2.5664527532133583E-2</v>
+        <v>2.5695911665013071E-2</v>
       </c>
       <c r="AD19" s="7">
         <f xml:space="preserve"> ABS(M19-defaultFit!M19)</f>
-        <v>1.584757683364206E-2</v>
+        <v>1.3842270664889508E-2</v>
       </c>
       <c r="AE19" s="7">
         <f xml:space="preserve"> ABS(T19-defaultFit!M19)</f>
-        <v>2.4265422423053393E-2</v>
+        <v>2.362600482495851E-2</v>
       </c>
       <c r="AF19" s="7">
         <f xml:space="preserve"> ABS(AA19-defaultFit!M19)</f>
-        <v>7.2981286072462681E-4</v>
+        <v>1.413670132029296E-3</v>
       </c>
       <c r="AG19" s="15">
         <f xml:space="preserve"> SQRT((AD19*AD19+AE19*AE19+AF19*AF19)/3)/ABS(defaultFit!M19)</f>
-        <v>0.22522863904843443</v>
+        <v>0.21493483491036697</v>
       </c>
       <c r="AH19" s="7">
         <f xml:space="preserve"> AG19*ABS(defaultFit!M19)</f>
-        <v>1.6738070813558433E-2</v>
+        <v>1.5830298211459516E-2</v>
       </c>
       <c r="AJ19" s="32">
         <v>4.5826399999999998E-3</v>
@@ -5342,13 +5576,13 @@
       <c r="AM19" s="32">
         <v>4.75982E-2</v>
       </c>
-      <c r="AN19" s="21" t="e">
-        <f>(AJ19/Q8+AL19/U8)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO19" s="21" t="e">
-        <f>0.5*SQRT((AJ19/Q8)^2*((AK19/AJ19)^2+(R8/Q8)^2)+(AL19/U8)^2*((AM19/AL19)^2+(V8/U8)^2))</f>
-        <v>#DIV/0!</v>
+      <c r="AN19" s="21">
+        <f>(AJ19/D8+AL19/H8)/2</f>
+        <v>3.1763828484483253E-2</v>
+      </c>
+      <c r="AO19" s="21">
+        <f>0.5*SQRT((AJ19/D8)^2*((AK19/AJ19)^2+(E8/D8)^2)+(AL19/H8)^2*((AM19/AL19)^2+(I8/H8)^2))</f>
+        <v>4.64952792629207E-2</v>
       </c>
       <c r="AQ19" s="32">
         <v>4.5826399999999998E-3</v>
@@ -5382,7 +5616,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="29">
-        <v>6.4100000000000004E-2</v>
+        <v>6.5254000000000006E-2</v>
       </c>
       <c r="G20" s="29">
         <v>2.8500000000000001E-2</v>
@@ -5390,79 +5624,79 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="29">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6269999999999997E-2</v>
       </c>
       <c r="K20" s="29">
-        <v>2.7099999999999999E-2</v>
+        <v>2.7100200000000001E-2</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>6.3820567007252527E-2</v>
+        <v>6.4728574958929003E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>2.5071980076895387E-2</v>
+        <v>2.5072068888049699E-2</v>
       </c>
       <c r="P20" s="29">
-        <v>5.74E-2</v>
+        <v>5.6781699999999997E-2</v>
       </c>
       <c r="Q20" s="29">
-        <v>3.8100000000000002E-2</v>
+        <v>3.80389E-2</v>
       </c>
       <c r="R20" s="29">
-        <v>2.8799999999999999E-2</v>
+        <v>2.9819999999999999E-2</v>
       </c>
       <c r="S20" s="29">
-        <v>3.6799999999999999E-2</v>
+        <v>3.6868999999999999E-2</v>
       </c>
       <c r="T20" s="8">
         <f>(P20/D8+R20/H8)/2</f>
-        <v>5.4959379173759003E-2</v>
+        <v>5.5215088997514761E-2</v>
       </c>
       <c r="U20" s="8">
         <f>0.5*SQRT((P20/$D8)^2*((Q20/P20)^2+($E8/$D8)^2)+(R20/$H8)^2*((S20/R20)^2+($I8/$H8)^2))</f>
-        <v>3.3769191739300666E-2</v>
+        <v>3.3771743459154888E-2</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="29">
-        <v>7.3999999999999996E-2</v>
+        <v>7.3274699999999998E-2</v>
       </c>
       <c r="X20" s="29">
-        <v>4.3099999999999999E-2</v>
+        <v>4.3163800000000002E-2</v>
       </c>
       <c r="Y20" s="29">
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="Z20" s="29">
-        <v>3.9800000000000002E-2</v>
+        <v>3.984E-2</v>
       </c>
       <c r="AA20" s="8">
         <f>(W20/D8+Y20/H8)/2</f>
-        <v>7.6124504368800694E-2</v>
+        <v>7.566195667036292E-2</v>
       </c>
       <c r="AB20" s="8">
         <f>0.5*SQRT((W20/D8)^2*((X20/W20)^2+(E8/D8)^2)+(Y20/H8)^2*((Z20/Y20)^2+(I8/H8)^2))</f>
-        <v>3.7400628459474262E-2</v>
+        <v>3.7447817746439439E-2</v>
       </c>
       <c r="AD20" s="8">
         <f xml:space="preserve"> ABS(M20-defaultFit!M20)</f>
-        <v>2.0514328300717533E-2</v>
+        <v>1.5103183210386908E-2</v>
       </c>
       <c r="AE20" s="8">
         <f xml:space="preserve"> ABS(T20-defaultFit!M20)</f>
-        <v>2.9375516134211056E-2</v>
+        <v>5.5896972489726665E-3</v>
       </c>
       <c r="AF20" s="8">
         <f xml:space="preserve"> ABS(AA20-defaultFit!M20)</f>
-        <v>8.2103909391693652E-3</v>
+        <v>2.6036564921820826E-2</v>
       </c>
       <c r="AG20" s="16">
         <f xml:space="preserve"> SQRT((AD20*AD20+AE20*AE20+AF20*AF20)/3)/ABS(defaultFit!M20)</f>
-        <v>0.25164419719502185</v>
+        <v>0.35617544572614956</v>
       </c>
       <c r="AH20" s="8">
         <f xml:space="preserve"> AG20*ABS(defaultFit!M20)</f>
-        <v>2.122238702530034E-2</v>
+        <v>1.7675346025371765E-2</v>
       </c>
       <c r="AJ20" s="29">
         <v>0.124876</v>
@@ -5476,13 +5710,13 @@
       <c r="AM20" s="29">
         <v>7.9001000000000002E-2</v>
       </c>
-      <c r="AN20" s="8" t="e">
-        <f>(AJ20/Q8+AL20/U8)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO20" s="8" t="e">
-        <f>0.5*SQRT((AJ20/Q8)^2*((AK20/AJ20)^2+(R8/Q8)^2)+(AL20/U8)^2*((AM20/AL20)^2+(V8/U8)^2))</f>
-        <v>#DIV/0!</v>
+      <c r="AN20" s="8">
+        <f>(AJ20/D8+AL20/H8)/2</f>
+        <v>2.1645548968962591E-2</v>
+      </c>
+      <c r="AO20" s="8">
+        <f>0.5*SQRT((AJ20/D8)^2*((AK20/AJ20)^2+(E8/D8)^2)+(AL20/H8)^2*((AM20/AL20)^2+(I8/H8)^2))</f>
+        <v>7.0293327355992266E-2</v>
       </c>
       <c r="AQ20" s="29">
         <v>0.124876</v>
@@ -5702,87 +5936,87 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="29">
-        <v>2.5399999999999999E-2</v>
+        <v>2.6599000000000001E-2</v>
       </c>
       <c r="G25" s="29">
-        <v>2.9600000000000001E-2</v>
+        <v>2.9440000000000001E-2</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="29">
-        <v>4.1399999999999999E-2</v>
+        <v>4.2970000000000001E-2</v>
       </c>
       <c r="K25" s="29">
-        <v>2.8899999999999999E-2</v>
+        <v>2.8919199999999999E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>4.2581585258366306E-2</v>
+        <v>4.4346748179868188E-2</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>2.6372949390065712E-2</v>
+        <v>2.6308581880721875E-2</v>
       </c>
       <c r="P25" s="29">
-        <v>-5.7999999999999996E-3</v>
+        <v>-5.9556399999999999E-3</v>
       </c>
       <c r="Q25" s="29">
-        <v>3.6700000000000003E-2</v>
+        <v>3.6659999999999998E-2</v>
       </c>
       <c r="R25" s="29">
-        <v>4.41E-2</v>
+        <v>4.4047999999999997E-2</v>
       </c>
       <c r="S25" s="29">
-        <v>3.7600000000000001E-2</v>
+        <v>3.7614099999999998E-2</v>
       </c>
       <c r="T25" s="8">
         <f>(P25/D8+R25/H8)/2</f>
-        <v>2.4404959093026101E-2</v>
+        <v>2.4272564059367969E-2</v>
       </c>
       <c r="U25" s="8">
         <f>0.5*SQRT((P25/$D8)^2*((Q25/P25)^2+($E8/$D8)^2)+(R25/$H8)^2*((S25/R25)^2+($I8/$H8)^2))</f>
-        <v>3.3495371184290502E-2</v>
+        <v>3.3483983582359274E-2</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="29">
-        <v>8.5800000000000001E-2</v>
+        <v>8.5669999999999996E-2</v>
       </c>
       <c r="X25" s="29">
-        <v>4.9200000000000001E-2</v>
+        <v>4.9398200000000003E-2</v>
       </c>
       <c r="Y25" s="29">
-        <v>4.0399999999999998E-2</v>
+        <v>4.052E-2</v>
       </c>
       <c r="Z25" s="29">
-        <v>4.4900000000000002E-2</v>
+        <v>4.4859999999999997E-2</v>
       </c>
       <c r="AA25" s="8">
         <f>(W25/D8+Y25/H8)/2</f>
-        <v>8.0463379983254271E-2</v>
+        <v>8.0456947654293495E-2</v>
       </c>
       <c r="AB25" s="8">
         <f>0.5*SQRT((W25/D8)^2*((X25/W25)^2+(E8/D8)^2)+(Y25/H8)^2*((Z25/Y25)^2+(I8/H8)^2))</f>
-        <v>4.2464394479813983E-2</v>
+        <v>4.254073962192452E-2</v>
       </c>
       <c r="AD25" s="8">
         <f xml:space="preserve"> ABS(M25-defaultFit!M25)</f>
-        <v>3.7682476486283589E-2</v>
+        <v>2.1560618305206676E-2</v>
       </c>
       <c r="AE25" s="8">
         <f xml:space="preserve"> ABS(T25-defaultFit!M25)</f>
-        <v>5.585910265162379E-2</v>
+        <v>4.1634802425706899E-2</v>
       </c>
       <c r="AF25" s="8">
         <f xml:space="preserve"> ABS(AA25-defaultFit!M25)</f>
-        <v>1.9931823860437625E-4</v>
+        <v>1.4549581169218631E-2</v>
       </c>
       <c r="AG25" s="16">
         <f xml:space="preserve"> SQRT((AD25*AD25+AE25*AE25+AF25*AF25)/3)/ABS(defaultFit!M25)</f>
-        <v>0.48468327361593488</v>
+        <v>0.43004568795786763</v>
       </c>
       <c r="AH25" s="8">
         <f xml:space="preserve"> AG25*ABS(defaultFit!M25)</f>
-        <v>3.8902648200108435E-2</v>
+        <v>2.8343178761565328E-2</v>
       </c>
       <c r="AJ25" s="29">
         <v>0.13935</v>
@@ -5796,13 +6030,13 @@
       <c r="AM25" s="29">
         <v>7.43259E-2</v>
       </c>
-      <c r="AN25" s="8" t="e">
-        <f>(AJ25/Q8+AL25/U8)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO25" s="8" t="e">
-        <f>0.5*SQRT((AJ25/Q8)^2*((AK25/AJ25)^2+(R8/Q8)^2)+(AL25/U8)^2*((AM25/AL25)^2+(V8/U8)^2))</f>
-        <v>#DIV/0!</v>
+      <c r="AN25" s="8">
+        <f>(AJ25/D8+AL25/H8)/2</f>
+        <v>6.5874515839338579E-2</v>
+      </c>
+      <c r="AO25" s="8">
+        <f>0.5*SQRT((AJ25/D8)^2*((AK25/AJ25)^2+(E8/D8)^2)+(AL25/H8)^2*((AM25/AL25)^2+(I8/H8)^2))</f>
+        <v>5.93018018969255E-2</v>
       </c>
       <c r="AQ25" s="29">
         <v>0.13935</v>
@@ -5844,10 +6078,10 @@
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F26" s="43">
-        <v>6.9199999999999998E-2</v>
+        <v>6.9175600000000004E-2</v>
       </c>
       <c r="G26" s="43">
-        <v>0.03</v>
+        <v>2.9989999999999999E-2</v>
       </c>
       <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
@@ -5858,58 +6092,58 @@
         <v>6.7640811460241955E-4</v>
       </c>
       <c r="J26" s="43">
-        <v>1.2699999999999999E-2</v>
+        <v>1.251E-2</v>
       </c>
       <c r="K26" s="43">
-        <v>3.0599999999999999E-2</v>
+        <v>3.06284E-2</v>
       </c>
       <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>5.2224506662397363E-2</v>
+        <v>5.2087863803633845E-2</v>
       </c>
       <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>2.731863793955332E-2</v>
+        <v>2.7327096256930101E-2</v>
       </c>
       <c r="P26" s="43">
-        <v>6.6299999999999998E-2</v>
+        <v>6.6285800000000006E-2</v>
       </c>
       <c r="Q26" s="43">
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="R26" s="43">
-        <v>-5.1200000000000002E-2</v>
+        <v>-5.1180000000000003E-2</v>
       </c>
       <c r="S26" s="43">
-        <v>4.3400000000000001E-2</v>
+        <v>4.3448000000000001E-2</v>
       </c>
       <c r="T26" s="44">
         <f>(P26/$D$26+R26/$H$26)/2</f>
-        <v>9.6532338292872055E-3</v>
+        <v>9.6569235137154361E-3</v>
       </c>
       <c r="U26" s="44">
         <f>0.5*SQRT((P26/$D$26)^2*((Q26/P26)^2+($E$26/$D$26)^2)+(R26/$H$26)^2*((S26/R26)^2+($I$26/$H$26)^2))</f>
-        <v>3.8590477835166705E-2</v>
+        <v>3.86124069172036E-2</v>
       </c>
       <c r="W26" s="43">
-        <v>7.1099999999999997E-2</v>
+        <v>7.1050000000000002E-2</v>
       </c>
       <c r="X26" s="43">
-        <v>4.2599999999999999E-2</v>
+        <v>4.2567000000000001E-2</v>
       </c>
       <c r="Y26" s="43">
         <v>7.7899999999999997E-2</v>
       </c>
       <c r="Z26" s="43">
-        <v>4.2700000000000002E-2</v>
+        <v>4.2663E-2</v>
       </c>
       <c r="AA26" s="44">
         <f>(W26/$D$26+Y26/$H$26)/2</f>
-        <v>9.498650354727492E-2</v>
+        <v>9.4954616900477878E-2</v>
       </c>
       <c r="AB26" s="44">
         <f>0.5*SQRT((W26/$D$26)^2*((X26/W26)^2+($E$26/$D$26)^2)+(Y26/$H$26)^2*((Z26/Y26)^2+($I$26/$H$26)^2))</f>
-        <v>3.8451850510329892E-2</v>
+        <v>3.8420294934211653E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5938,10 +6172,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="M19" sqref="M19"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -6319,26 +6553,26 @@
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="5">
-        <v>6.7299999999999999E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>2.4500000000000001E-2</v>
+        <v>2.4549999999999999E-2</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="5">
-        <v>4.1599999999999998E-2</v>
+        <v>4.2049999999999997E-2</v>
       </c>
       <c r="K9" s="5">
-        <v>2.47E-2</v>
+        <v>2.4680000000000001E-2</v>
       </c>
       <c r="M9" s="5">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>6.9430050195466789E-2</v>
+        <v>7.0545876584857864E-2</v>
       </c>
       <c r="N9" s="5">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.217869787856519E-2</v>
+        <v>2.2192139624986985E-2</v>
       </c>
       <c r="P9" s="37">
         <v>5.0012399999999999E-2</v>
@@ -6370,26 +6604,26 @@
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="5">
-        <v>7.4099999999999999E-2</v>
+        <v>7.1328500000000003E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>2.46E-2</v>
+        <v>2.4510000000000001E-2</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="5">
-        <v>8.4000000000000005E-2</v>
+        <v>8.2979999999999998E-2</v>
       </c>
       <c r="K10" s="5">
-        <v>2.3400000000000001E-2</v>
+        <v>2.3392199999999998E-2</v>
       </c>
       <c r="M10" s="5">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>0.10078707745126569</v>
+        <v>9.8369580521258215E-2</v>
       </c>
       <c r="N10" s="5">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>2.1644833900087063E-2</v>
+        <v>2.1599834455091251E-2</v>
       </c>
       <c r="P10" s="37">
         <v>8.2463900000000007E-2</v>
@@ -6481,26 +6715,26 @@
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="5">
-        <v>5.2900000000000003E-2</v>
+        <v>5.1684300000000002E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>2.3199999999999998E-2</v>
+        <v>2.2780000000000002E-2</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="5">
-        <v>1.18E-2</v>
+        <v>9.0240000000000008E-3</v>
       </c>
       <c r="K14" s="5">
-        <v>2.23E-2</v>
+        <v>2.21879E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>4.1255912661227863E-2</v>
+        <v>3.8711546424945037E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>2.0514964052852441E-2</v>
+        <v>2.0272746477304256E-2</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -6600,7 +6834,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="21">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1194999999999994E-2</v>
       </c>
       <c r="G19" s="21">
         <v>1.95E-2</v>
@@ -6608,18 +6842,18 @@
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="21">
-        <v>3.7600000000000001E-2</v>
+        <v>3.9579999999999997E-2</v>
       </c>
       <c r="K19" s="21">
-        <v>1.8800000000000001E-2</v>
+        <v>1.866E-2</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>6.8602830698789447E-2</v>
+        <v>7.0626725276978566E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>1.7268164605871793E-2</v>
+        <v>1.7206387066894212E-2</v>
       </c>
       <c r="P19" s="34">
         <v>9.83956E-2</v>
@@ -6653,7 +6887,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="8">
-        <v>5.5500000000000001E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="G20" s="8">
         <v>2.6200000000000001E-2</v>
@@ -6661,18 +6895,18 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="8">
-        <v>2.3599999999999999E-2</v>
+        <v>2.3047000000000002E-2</v>
       </c>
       <c r="K20" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5016E-2</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>5.0433858644639361E-2</v>
+        <v>5.0017672493966388E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>2.3086854219712568E-2</v>
+        <v>2.3093891524152071E-2</v>
       </c>
       <c r="P20" s="38">
         <v>0.11120099999999999</v>
@@ -6796,26 +7030,26 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="8">
-        <v>4.48E-2</v>
+        <v>4.5609999999999998E-2</v>
       </c>
       <c r="G25" s="8">
-        <v>2.76E-2</v>
+        <v>2.7539999999999999E-2</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="8">
-        <v>5.8500000000000003E-2</v>
+        <v>6.0380000000000003E-2</v>
       </c>
       <c r="K25" s="8">
-        <v>2.6700000000000002E-2</v>
+        <v>2.664E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>6.5850999977006566E-2</v>
+        <v>6.7565639914265591E-2</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>2.4481218573125348E-2</v>
+        <v>2.4427133933945046E-2</v>
       </c>
       <c r="P25" s="38">
         <v>3.7331999999999997E-2</v>
@@ -6871,18 +7105,18 @@
         <v>6.7640811460241955E-4</v>
       </c>
       <c r="J26" s="43">
-        <v>4.4600000000000001E-2</v>
+        <v>4.3049999999999998E-2</v>
       </c>
       <c r="K26" s="43">
-        <v>2.9100000000000001E-2</v>
+        <v>2.8999E-2</v>
       </c>
       <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>7.5933551152027601E-2</v>
+        <v>7.4945775512837182E-2</v>
       </c>
       <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>2.5699995277217547E-2</v>
+        <v>2.5653588653537708E-2</v>
       </c>
       <c r="P26" s="43">
         <v>1</v>
@@ -8181,7 +8415,7 @@
     <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8309,19 +8543,19 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12">
         <f xml:space="preserve"> ABS(M4-defaultFit!M4)</f>
-        <v>1.5289560558054947</v>
+        <v>2.0250932692494061E-2</v>
       </c>
       <c r="Q4" s="12">
         <f xml:space="preserve"> N4-defaultFit!N4</f>
-        <v>-1.0961690661928989</v>
+        <v>1.617837662065108E-3</v>
       </c>
       <c r="S4" s="2">
         <f xml:space="preserve"> P4/ABS(defaultFit!M4)</f>
-        <v>0.96286225882466892</v>
+        <v>0.5229943514118246</v>
       </c>
       <c r="T4" s="2">
         <f xml:space="preserve"> S4*ABS(defaultFit!M4)</f>
-        <v>1.5289560558054947</v>
+        <v>2.0250932692494061E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1">
@@ -8370,19 +8604,19 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12">
         <f xml:space="preserve"> ABS(M5-defaultFit!M5)</f>
-        <v>4.4678975539752239E-2</v>
+        <v>3.4061088300191E-3</v>
       </c>
       <c r="Q5" s="12">
         <f xml:space="preserve"> N5-defaultFit!N5</f>
-        <v>6.7145545696184125E-4</v>
+        <v>1.3226091746065642E-3</v>
       </c>
       <c r="S5" s="4">
         <f xml:space="preserve"> P5/ABS(defaultFit!M5)</f>
-        <v>1.7325996060069879</v>
+        <v>5.079187308562147E-2</v>
       </c>
       <c r="T5" s="4">
         <f xml:space="preserve"> S5*ABS(defaultFit!M5)</f>
-        <v>4.4678975539752239E-2</v>
+        <v>3.4061088300191E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1">
@@ -8431,19 +8665,19 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12">
         <f xml:space="preserve"> ABS(M6-defaultFit!M6)</f>
-        <v>3.1708824379463318E-3</v>
+        <v>7.1555419726044289E-3</v>
       </c>
       <c r="Q6" s="12">
         <f xml:space="preserve"> N6-defaultFit!N6</f>
-        <v>7.6679596374881857E-3</v>
+        <v>1.7682774243987648E-3</v>
       </c>
       <c r="S6" s="4">
         <f xml:space="preserve"> P6/ABS(defaultFit!M6)</f>
-        <v>4.0422989828686244E-2</v>
+        <v>9.6101861596393764E-2</v>
       </c>
       <c r="T6" s="4">
         <f xml:space="preserve"> S6*ABS(defaultFit!M6)</f>
-        <v>3.1708824379463318E-3</v>
+        <v>7.1555419726044281E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1">
@@ -8492,19 +8726,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12">
         <f xml:space="preserve"> ABS(M7-defaultFit!M7)</f>
-        <v>3.5978715052882776E-2</v>
+        <v>4.3573820846923295E-4</v>
       </c>
       <c r="Q7" s="12">
         <f xml:space="preserve"> N7-defaultFit!N7</f>
-        <v>-1.3627482594290377E-3</v>
+        <v>1.3814724772897302E-3</v>
       </c>
       <c r="S7" s="4">
         <f xml:space="preserve"> P7/ABS(defaultFit!M7)</f>
-        <v>1.1552345909022796</v>
+        <v>6.5340749567608042E-3</v>
       </c>
       <c r="T7" s="4">
         <f xml:space="preserve"> S7*ABS(defaultFit!M7)</f>
-        <v>3.5978715052882776E-2</v>
+        <v>4.3573820846923295E-4</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1">
@@ -8554,7 +8788,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="17">
-        <v>8.1299999999999997E-2</v>
+        <v>8.2070000000000004E-2</v>
       </c>
       <c r="G9" s="17">
         <v>2.5999999999999999E-2</v>
@@ -8562,34 +8796,34 @@
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="17">
-        <v>6.08E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="K9" s="17">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5923999999999999E-2</v>
       </c>
       <c r="M9" s="5">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>9.0593983732478872E-2</v>
+        <v>9.1786040159675453E-2</v>
       </c>
       <c r="N9" s="5">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.3440796378016705E-2</v>
+        <v>2.340658833219314E-2</v>
       </c>
       <c r="P9" s="5">
         <f xml:space="preserve"> ABS(M9-defaultFit!M9)</f>
-        <v>5.7023780386893687E-2</v>
+        <v>1.5618072393488169E-2</v>
       </c>
       <c r="Q9" s="5">
         <f xml:space="preserve"> N9-defaultFit!N9</f>
-        <v>-1.1568161686439822E-3</v>
+        <v>1.2385052718185893E-3</v>
       </c>
       <c r="S9" s="20">
         <f xml:space="preserve"> P9/ABS(defaultFit!M9)</f>
-        <v>1.6986426861901294</v>
+        <v>0.20504777600776938</v>
       </c>
       <c r="T9" s="20">
         <f xml:space="preserve"> S9*ABS(defaultFit!M9)</f>
-        <v>5.7023780386893687E-2</v>
+        <v>1.5618072393488169E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1">
@@ -8601,7 +8835,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="17">
-        <v>5.7099999999999998E-2</v>
+        <v>5.4679999999999999E-2</v>
       </c>
       <c r="G10" s="17">
         <v>2.6700000000000002E-2</v>
@@ -8609,34 +8843,34 @@
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="17">
-        <v>9.1200000000000003E-2</v>
+        <v>9.0330199999999999E-2</v>
       </c>
       <c r="K10" s="17">
-        <v>2.4799999999999999E-2</v>
+        <v>2.4792999999999999E-2</v>
       </c>
       <c r="M10" s="5">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>9.453399470296503E-2</v>
+        <v>9.2436379545751263E-2</v>
       </c>
       <c r="N10" s="5">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>2.3231822838928752E-2</v>
+        <v>2.3228785556136583E-2</v>
       </c>
       <c r="P10" s="5">
         <f xml:space="preserve"> ABS(M10-defaultFit!M10)</f>
-        <v>1.9696445855951261E-2</v>
+        <v>1.2059659284780727E-2</v>
       </c>
       <c r="Q10" s="5">
         <f xml:space="preserve"> N10-defaultFit!N10</f>
-        <v>-2.6190864408883949E-4</v>
+        <v>1.6892127594033204E-3</v>
       </c>
       <c r="S10" s="20">
         <f xml:space="preserve"> P10/ABS(defaultFit!M10)</f>
-        <v>0.17242729485747263</v>
+        <v>0.11540781277210574</v>
       </c>
       <c r="T10" s="20">
         <f xml:space="preserve"> S10*ABS(defaultFit!M10)</f>
-        <v>1.9696445855951261E-2</v>
+        <v>1.2059659284780727E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1">
@@ -8720,7 +8954,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="17">
-        <v>5.8900000000000001E-2</v>
+        <v>5.493E-2</v>
       </c>
       <c r="G14" s="17">
         <v>2.5000000000000001E-2</v>
@@ -8728,34 +8962,34 @@
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="17">
-        <v>1.21E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K14" s="17">
-        <v>2.4E-2</v>
+        <v>2.37898E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>4.5273492658650751E-2</v>
+        <v>3.981022971569146E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>2.209332825872725E-2</v>
+        <v>2.2000803536204636E-2</v>
       </c>
       <c r="P14" s="5">
         <f xml:space="preserve"> ABS(M14-defaultFit!M14)</f>
-        <v>4.1060066356129535E-3</v>
+        <v>5.0565896865945037E-5</v>
       </c>
       <c r="Q14" s="5">
         <f xml:space="preserve"> N14-defaultFit!N14</f>
-        <v>8.2188141953398741E-4</v>
+        <v>1.7152818561922481E-3</v>
       </c>
       <c r="S14" s="5">
         <f xml:space="preserve"> P14/ABS(defaultFit!M14)</f>
-        <v>9.9739066731332218E-2</v>
+        <v>1.2685621570989213E-3</v>
       </c>
       <c r="T14" s="5">
         <f xml:space="preserve"> S14*ABS(defaultFit!M14)</f>
-        <v>4.1060066356129535E-3</v>
+        <v>5.0565896865945044E-5</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1">
@@ -8865,7 +9099,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="32">
-        <v>7.22E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="G19" s="32">
         <v>2.1100000000000001E-2</v>
@@ -8873,34 +9107,34 @@
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="32">
-        <v>3.9199999999999999E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="K19" s="32">
-        <v>0.02</v>
+        <v>1.983E-2</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>7.1025482527345821E-2</v>
+        <v>7.3702356703256852E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>1.8534238149420217E-2</v>
+        <v>1.84599086985579E-2</v>
       </c>
       <c r="P19" s="21">
         <f xml:space="preserve"> ABS(M19-defaultFit!M19)</f>
-        <v>3.2904254507643005E-3</v>
+        <v>5.0739374399325077E-5</v>
       </c>
       <c r="Q19" s="21">
         <f xml:space="preserve"> N19-defaultFit!N19</f>
-        <v>3.8749212242818187E-6</v>
+        <v>-3.87438681478873E-3</v>
       </c>
       <c r="S19" s="21">
         <f xml:space="preserve"> P19/ABS(defaultFit!M19)</f>
-        <v>4.4276192544582794E-2</v>
+        <v>6.8891052551869523E-4</v>
       </c>
       <c r="T19" s="21">
         <f xml:space="preserve"> S19*ABS(defaultFit!M19)</f>
-        <v>3.2904254507643005E-3</v>
+        <v>5.0739374399325077E-5</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1">
@@ -8914,7 +9148,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="19">
-        <v>4.7899999999999998E-2</v>
+        <v>4.7160000000000001E-2</v>
       </c>
       <c r="G20" s="19">
         <v>2.8199999999999999E-2</v>
@@ -8922,34 +9156,34 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="19">
-        <v>4.0599999999999997E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
       <c r="K20" s="19">
-        <v>2.64E-2</v>
+        <v>2.6349999999999998E-2</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>5.6420756632288238E-2</v>
+        <v>5.5872361306980617E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>2.4626744936993433E-2</v>
+        <v>2.4604987367079896E-2</v>
       </c>
       <c r="P20" s="8">
         <f xml:space="preserve"> ABS(M20-defaultFit!M20)</f>
-        <v>2.7914138675681821E-2</v>
+        <v>6.2469695584385226E-3</v>
       </c>
       <c r="Q20" s="8">
         <f xml:space="preserve"> N20-defaultFit!N20</f>
-        <v>2.7747226675980605E-4</v>
+        <v>1.441943360166436E-3</v>
       </c>
       <c r="S20" s="25">
         <f xml:space="preserve"> P20/ABS(defaultFit!M20)</f>
-        <v>0.33099156136669561</v>
+        <v>0.12588252381145279</v>
       </c>
       <c r="T20" s="25">
         <f xml:space="preserve"> S20*ABS(defaultFit!M20)</f>
-        <v>2.7914138675681821E-2</v>
+        <v>6.2469695584385226E-3</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1">
@@ -9057,42 +9291,42 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="19">
-        <v>3.3300000000000003E-2</v>
+        <v>3.4410000000000003E-2</v>
       </c>
       <c r="G25" s="19">
-        <v>2.9499999999999998E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="19">
-        <v>8.3900000000000002E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="K25" s="19">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>7.4703846204292892E-2</v>
+        <v>7.6558824053859789E-2</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E8/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>2.5929389513282965E-2</v>
+        <v>2.5839266014917508E-2</v>
       </c>
       <c r="P25" s="8">
         <f xml:space="preserve"> ABS(M25-defaultFit!M25)</f>
-        <v>5.5602155403570025E-3</v>
+        <v>1.0651457568784925E-2</v>
       </c>
       <c r="Q25" s="8">
         <f xml:space="preserve"> N25-defaultFit!N25</f>
-        <v>-2.9057424622052838E-4</v>
+        <v>1.464281614418958E-3</v>
       </c>
       <c r="S25" s="8">
         <f xml:space="preserve"> P25/ABS(defaultFit!M25)</f>
-        <v>6.9274036467854502E-2</v>
+        <v>0.16161255011148132</v>
       </c>
       <c r="T25" s="25">
         <f xml:space="preserve"> S25*ABS(defaultFit!M25)</f>
-        <v>5.5602155403570025E-3</v>
+        <v>1.0651457568784925E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="43" customFormat="1">
@@ -9114,10 +9348,10 @@
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F26" s="43">
-        <v>8.9599999999999999E-2</v>
+        <v>8.9812000000000003E-2</v>
       </c>
       <c r="G26" s="43">
-        <v>2.98E-2</v>
+        <v>2.981E-2</v>
       </c>
       <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
@@ -9128,18 +9362,18 @@
         <v>6.7640811460241955E-4</v>
       </c>
       <c r="J26" s="43">
-        <v>0.04</v>
+        <v>3.8879999999999998E-2</v>
       </c>
       <c r="K26" s="43">
-        <v>3.1E-2</v>
+        <v>3.0960000000000001E-2</v>
       </c>
       <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>8.2631855297457146E-2</v>
+        <v>8.2053307121235763E-2</v>
       </c>
       <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>2.7412624665671351E-2</v>
+        <v>2.7398684030183636E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9170,7 +9404,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M9" sqref="M9"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9445,26 +9679,26 @@
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="17">
-        <v>0.1018</v>
+        <v>0.10094</v>
       </c>
       <c r="G9" s="17">
-        <v>2.24E-2</v>
+        <v>2.2550000000000001E-2</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="22">
-        <v>0.1305</v>
+        <v>0.12845999999999999</v>
       </c>
       <c r="K9" s="22">
-        <v>2.29E-2</v>
+        <v>2.2658999999999999E-2</v>
       </c>
       <c r="M9" s="5">
         <f>(F9/D8+J9/H8)/2</f>
-        <v>0.14808554895253501</v>
+        <v>0.14623705843153023</v>
       </c>
       <c r="N9" s="5">
         <f>0.5*SQRT((F9/D8)^2*((G9/F9)^2+(E8/D8)^2)+(J9/H8)^2*((K9/J9)^2+(I8/H8)^2))</f>
-        <v>2.0421766422166962E-2</v>
+        <v>2.0379682455131481E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1">
@@ -9476,26 +9710,26 @@
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="17">
-        <v>0.12239999999999999</v>
+        <v>0.113376</v>
       </c>
       <c r="G10" s="17">
-        <v>3.2899999999999999E-2</v>
+        <v>3.2069E-2</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="22">
-        <v>0.14360000000000001</v>
+        <v>0.1346</v>
       </c>
       <c r="K10" s="22">
-        <v>3.6499999999999998E-2</v>
+        <v>3.5590999999999998E-2</v>
       </c>
       <c r="M10" s="5">
         <f>(F10/D8+J10/H8)/2</f>
-        <v>0.16957114477058688</v>
+        <v>0.15808077130329445</v>
       </c>
       <c r="N10" s="5">
         <f>0.5*SQRT((F10/D8)^2*((G10/F10)^2+(E8/D8)^2)+(J10/H8)^2*((K10/J10)^2+(I8/H8)^2))</f>
-        <v>3.1325427439985121E-2</v>
+        <v>3.0540303517031724E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1">
@@ -9549,26 +9783,26 @@
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="17">
-        <v>-4.8099999999999997E-2</v>
+        <v>-3.7628799999999997E-2</v>
       </c>
       <c r="G14" s="17">
-        <v>4.6600000000000003E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="22">
-        <v>3.8300000000000001E-2</v>
+        <v>5.7619999999999998E-2</v>
       </c>
       <c r="K14" s="22">
-        <v>5.3199999999999997E-2</v>
+        <v>4.9879600000000003E-2</v>
       </c>
       <c r="M14" s="5">
         <f>(F14/D8+J14/H8)/2</f>
-        <v>-6.2673368116547244E-3</v>
+        <v>1.2722637693721405E-2</v>
       </c>
       <c r="N14" s="5">
         <f>0.5*SQRT((F14/D8)^2*((G14/F14)^2+(E8/D8)^2)+(J14/H8)^2*((K14/J14)^2+(I8/H8)^2))</f>
-        <v>4.5084318521846918E-2</v>
+        <v>4.2316082380506083E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1">
@@ -9638,26 +9872,26 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="45">
-        <v>4.7800000000000002E-2</v>
+        <v>5.9130000000000002E-2</v>
       </c>
       <c r="G19" s="45">
-        <v>3.15E-2</v>
+        <v>3.0266000000000001E-2</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="45">
-        <v>1.78E-2</v>
+        <v>3.9073999999999998E-2</v>
       </c>
       <c r="K19" s="45">
-        <v>3.56E-2</v>
+        <v>3.4451099999999998E-2</v>
       </c>
       <c r="M19" s="21">
         <f>(F19/D8+J19/H8)/2</f>
-        <v>4.1827122323506168E-2</v>
+        <v>6.2610016454254E-2</v>
       </c>
       <c r="N19" s="21">
         <f>0.5*SQRT((F19/D8)^2*((G19/F19)^2+(E8/D8)^2)+(J19/H8)^2*((K19/J19)^2+(I8/H8)^2))</f>
-        <v>3.0302656846049845E-2</v>
+        <v>2.9232994723509018E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1">
@@ -9671,26 +9905,26 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="24">
-        <v>7.8100000000000003E-2</v>
+        <v>7.8046500000000005E-2</v>
       </c>
       <c r="G20" s="24">
-        <v>1.03E-2</v>
+        <v>1.0319800000000001E-2</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="24">
-        <v>7.4399999999999994E-2</v>
+        <v>7.4959999999999999E-2</v>
       </c>
       <c r="K20" s="24">
-        <v>9.7999999999999997E-3</v>
+        <v>9.9559999999999996E-3</v>
       </c>
       <c r="M20" s="8">
         <f>(F20/D8+J20/H8)/2</f>
-        <v>9.7220172978107158E-2</v>
+        <v>9.7542928045354749E-2</v>
       </c>
       <c r="N20" s="8">
         <f>0.5*SQRT((F20/D8)^2*((G20/F20)^2+(E8/D8)^2)+(J20/H8)^2*((K20/J20)^2+(I8/H8)^2))</f>
-        <v>9.0639025018104287E-3</v>
+        <v>9.1417738650382985E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="2" customFormat="1">
@@ -9758,26 +9992,26 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="24">
-        <v>9.9599999999999994E-2</v>
+        <v>0.105184</v>
       </c>
       <c r="G25" s="24">
-        <v>2.76E-2</v>
+        <v>2.7709999999999999E-2</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="24">
-        <v>0.11650000000000001</v>
+        <v>0.118557</v>
       </c>
       <c r="K25" s="24">
-        <v>2.93E-2</v>
+        <v>2.9350000000000001E-2</v>
       </c>
       <c r="M25" s="8">
         <f>(F25/D8+J25/H8)/2</f>
-        <v>0.13776069201045532</v>
+        <v>0.14263266658914464</v>
       </c>
       <c r="N25" s="8">
         <f>0.5*SQRT((F25/D8)^2*((G25/F25)^2+(E25/D8)^2)+(J25/H8)^2*((K25/J25)^2+(I8/H8)^2))</f>
-        <v>2.5660542379323859E-2</v>
+        <v>2.5731866399902742E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -9799,10 +10033,10 @@
         <v>6.7586967123847187E-4</v>
       </c>
       <c r="F26" s="43">
-        <v>6.54E-2</v>
+        <v>6.5388699999999994E-2</v>
       </c>
       <c r="G26" s="43">
-        <v>3.1800000000000002E-2</v>
+        <v>3.18383E-2</v>
       </c>
       <c r="H26" s="43">
         <f xml:space="preserve"> ep_CorrectionFactors!H18</f>
@@ -9813,19 +10047,19 @@
         <v>6.7640811460241955E-4</v>
       </c>
       <c r="J26" s="43">
-        <v>0.20030000000000001</v>
+        <v>0.200298</v>
       </c>
       <c r="K26" s="43">
-        <v>3.56E-2</v>
+        <v>3.5580000000000001E-2</v>
       </c>
       <c r="L26" s="43"/>
       <c r="M26" s="44">
         <f>(F26/$D$26+J26/$H$26)/2</f>
-        <v>0.16935383757815919</v>
+        <v>0.16934535664677119</v>
       </c>
       <c r="N26" s="44">
         <f>0.5*SQRT((F26/D26)^2*((G26/F26)^2+(E26/D26)^2)+(J26/H26)^2*((K26/J26)^2+(I26/H26)^2))</f>
-        <v>3.0430033258422258E-2</v>
+        <v>3.0436820621385436E-2</v>
       </c>
     </row>
   </sheetData>
